--- a/input/dynamic_data/season_16/forecasting_method/average/improved_hor_6/forecast_point_GW1.xlsx
+++ b/input/dynamic_data/season_16/forecasting_method/average/improved_hor_6/forecast_point_GW1.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0984939249863475</v>
+        <v>2.0361624222639807</v>
       </c>
       <c r="C2" t="n">
-        <v>2.077659816872102</v>
+        <v>2.004385578484898</v>
       </c>
       <c r="D2" t="n">
-        <v>2.1822199866661864</v>
+        <v>2.1001926881492285</v>
       </c>
       <c r="E2" t="n">
-        <v>2.145592293278413</v>
+        <v>2.0613002303447443</v>
       </c>
       <c r="F2" t="n">
-        <v>1.9085382534660071</v>
+        <v>1.834783721771349</v>
       </c>
       <c r="G2" t="n">
-        <v>2.0984939249863475</v>
+        <v>1.8686661296307903</v>
       </c>
       <c r="H2" t="n">
-        <v>2.077659816872102</v>
+        <v>2.057490064151199</v>
       </c>
       <c r="I2" t="n">
-        <v>2.1822199866661864</v>
+        <v>2.0140569208104795</v>
       </c>
       <c r="J2" t="n">
-        <v>2.145592293278413</v>
+        <v>2.0374047420353985</v>
       </c>
       <c r="K2" t="n">
-        <v>1.9085382534660071</v>
+        <v>1.941457193839941</v>
       </c>
       <c r="L2" t="n">
-        <v>2.0984939249863475</v>
+        <v>1.7696377179907719</v>
       </c>
     </row>
     <row r="3">
@@ -445,37 +445,37 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>2.4242056356899373</v>
+        <v>2.4002035996930076</v>
       </c>
       <c r="C10" t="n">
-        <v>2.3229454542277748</v>
+        <v>2.2977913620715804</v>
       </c>
       <c r="D10" t="n">
-        <v>2.192312087202415</v>
+        <v>2.161502033834577</v>
       </c>
       <c r="E10" t="n">
-        <v>2.523501451837644</v>
+        <v>2.4741721397530396</v>
       </c>
       <c r="F10" t="n">
-        <v>2.4940635558991313</v>
+        <v>2.428354136438699</v>
       </c>
       <c r="G10" t="n">
-        <v>2.4242056356899373</v>
+        <v>2.4002035996930076</v>
       </c>
       <c r="H10" t="n">
-        <v>2.3229454542277748</v>
+        <v>2.1104794536154636</v>
       </c>
       <c r="I10" t="n">
-        <v>2.192312087202415</v>
+        <v>2.1591293645714495</v>
       </c>
       <c r="J10" t="n">
-        <v>2.523501451837644</v>
+        <v>2.3987400611403547</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4940635558991313</v>
+        <v>2.1867335752856643</v>
       </c>
       <c r="L10" t="n">
-        <v>2.4242056356899373</v>
+        <v>2.212561137405734</v>
       </c>
     </row>
     <row r="11">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>3.893836002813282</v>
+        <v>3.8552831711022595</v>
       </c>
       <c r="C13" t="n">
-        <v>4.07431414424708</v>
+        <v>4.04175918579182</v>
       </c>
       <c r="D13" t="n">
-        <v>4.191527823848751</v>
+        <v>4.178051064264835</v>
       </c>
       <c r="E13" t="n">
-        <v>4.0771985136896385</v>
+        <v>4.021403374965802</v>
       </c>
       <c r="F13" t="n">
-        <v>4.458238712242918</v>
+        <v>4.355301713899644</v>
       </c>
       <c r="G13" t="n">
-        <v>3.893836002813282</v>
+        <v>4.360587277938462</v>
       </c>
       <c r="H13" t="n">
-        <v>4.07431414424708</v>
+        <v>3.8082924385218706</v>
       </c>
       <c r="I13" t="n">
-        <v>4.191527823848751</v>
+        <v>4.384531926744608</v>
       </c>
       <c r="J13" t="n">
-        <v>4.0771985136896385</v>
+        <v>4.42775590392437</v>
       </c>
       <c r="K13" t="n">
-        <v>4.458238712242918</v>
+        <v>4.334286992358958</v>
       </c>
       <c r="L13" t="n">
-        <v>3.893836002813282</v>
+        <v>3.9484878192346944</v>
       </c>
     </row>
     <row r="14">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1.6007085354166382</v>
+        <v>1.6168773085016548</v>
       </c>
       <c r="C19" t="n">
-        <v>1.5318608282333106</v>
+        <v>1.5387297367287878</v>
       </c>
       <c r="D19" t="n">
-        <v>1.5446952493228319</v>
+        <v>1.5490625607966653</v>
       </c>
       <c r="E19" t="n">
-        <v>1.569844774647526</v>
+        <v>1.5569037101430703</v>
       </c>
       <c r="F19" t="n">
-        <v>1.631742916700854</v>
+        <v>1.6094039511279707</v>
       </c>
       <c r="G19" t="n">
-        <v>1.6007085354166382</v>
+        <v>1.7409904380905468</v>
       </c>
       <c r="H19" t="n">
-        <v>1.5318608282333106</v>
+        <v>1.5209751627042765</v>
       </c>
       <c r="I19" t="n">
-        <v>1.5446952493228319</v>
+        <v>1.466971275203009</v>
       </c>
       <c r="J19" t="n">
-        <v>1.569844774647526</v>
+        <v>1.6797177168028206</v>
       </c>
       <c r="K19" t="n">
-        <v>1.631742916700854</v>
+        <v>1.7087498739111155</v>
       </c>
       <c r="L19" t="n">
-        <v>1.6007085354166382</v>
+        <v>1.677681693901911</v>
       </c>
     </row>
     <row r="20">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>3.382141401240021</v>
+        <v>3.348319987227621</v>
       </c>
       <c r="C26" t="n">
-        <v>2.9693628427501824</v>
+        <v>2.9277837740644794</v>
       </c>
       <c r="D26" t="n">
-        <v>3.4257417533196235</v>
+        <v>3.3687365728352976</v>
       </c>
       <c r="E26" t="n">
-        <v>3.3301336839778446</v>
+        <v>3.3321640428676376</v>
       </c>
       <c r="F26" t="n">
-        <v>3.0475912104873486</v>
+        <v>3.089892607276877</v>
       </c>
       <c r="G26" t="n">
-        <v>3.382141401240021</v>
+        <v>3.316163254205419</v>
       </c>
       <c r="H26" t="n">
-        <v>2.9693628427501824</v>
+        <v>3.107271081164738</v>
       </c>
       <c r="I26" t="n">
-        <v>3.4257417533196235</v>
+        <v>3.0916217019202508</v>
       </c>
       <c r="J26" t="n">
-        <v>3.3301336839778446</v>
+        <v>3.3707919334506253</v>
       </c>
       <c r="K26" t="n">
-        <v>3.0475912104873486</v>
+        <v>2.963909861176021</v>
       </c>
       <c r="L26" t="n">
-        <v>3.382141401240021</v>
+        <v>3.032232701552772</v>
       </c>
     </row>
     <row r="27">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>3.821789088129825</v>
+        <v>3.8989969484960842</v>
       </c>
       <c r="C31" t="n">
-        <v>4.2063815601666406</v>
+        <v>4.295382960123945</v>
       </c>
       <c r="D31" t="n">
-        <v>4.132550096607811</v>
+        <v>4.25345121431967</v>
       </c>
       <c r="E31" t="n">
-        <v>4.1476140710424945</v>
+        <v>4.25345121431967</v>
       </c>
       <c r="F31" t="n">
-        <v>3.863861906977503</v>
+        <v>3.9209260655465323</v>
       </c>
       <c r="G31" t="n">
-        <v>3.821789088129825</v>
+        <v>4.303337371777324</v>
       </c>
       <c r="H31" t="n">
-        <v>4.2063815601666406</v>
+        <v>4.230222418807949</v>
       </c>
       <c r="I31" t="n">
-        <v>4.132550096607811</v>
+        <v>4.384532417839254</v>
       </c>
       <c r="J31" t="n">
-        <v>4.1476140710424945</v>
+        <v>4.225094872890872</v>
       </c>
       <c r="K31" t="n">
-        <v>3.863861906977503</v>
+        <v>3.830443155632311</v>
       </c>
       <c r="L31" t="n">
-        <v>3.821789088129825</v>
+        <v>4.204708411040613</v>
       </c>
     </row>
     <row r="32">
@@ -1281,37 +1281,37 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1.6015624293617476</v>
+        <v>1.618245371334266</v>
       </c>
       <c r="C32" t="n">
-        <v>1.583748968387791</v>
+        <v>1.6091947818635388</v>
       </c>
       <c r="D32" t="n">
-        <v>1.720633430412351</v>
+        <v>1.7437819808904655</v>
       </c>
       <c r="E32" t="n">
-        <v>1.5533781160340316</v>
+        <v>1.5809012470876553</v>
       </c>
       <c r="F32" t="n">
-        <v>1.7296614176097458</v>
+        <v>1.7458982226425162</v>
       </c>
       <c r="G32" t="n">
-        <v>1.6015624293617476</v>
+        <v>1.7554852156615428</v>
       </c>
       <c r="H32" t="n">
-        <v>1.583748968387791</v>
+        <v>1.8095850755717868</v>
       </c>
       <c r="I32" t="n">
-        <v>1.720633430412351</v>
+        <v>1.7760742403077519</v>
       </c>
       <c r="J32" t="n">
-        <v>1.5533781160340316</v>
+        <v>1.5247696183853565</v>
       </c>
       <c r="K32" t="n">
-        <v>1.7296614176097458</v>
+        <v>1.772791293977068</v>
       </c>
       <c r="L32" t="n">
-        <v>1.6015624293617476</v>
+        <v>1.7554852156615428</v>
       </c>
     </row>
     <row r="33">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1.2259296250231713</v>
+        <v>1.238312752548658</v>
       </c>
       <c r="C34" t="n">
-        <v>1.1486279204719414</v>
+        <v>1.1544650507447192</v>
       </c>
       <c r="D34" t="n">
-        <v>1.2377466502890562</v>
+        <v>1.2518380136747196</v>
       </c>
       <c r="E34" t="n">
-        <v>1.2496230869528229</v>
+        <v>1.2503206332014565</v>
       </c>
       <c r="F34" t="n">
-        <v>1.2446111567304736</v>
+        <v>1.258712046847104</v>
       </c>
       <c r="G34" t="n">
-        <v>1.2259296250231713</v>
+        <v>1.1603087998012058</v>
       </c>
       <c r="H34" t="n">
-        <v>1.1486279204719414</v>
+        <v>1.2734747193685294</v>
       </c>
       <c r="I34" t="n">
-        <v>1.2377466502890562</v>
+        <v>1.2711207923409942</v>
       </c>
       <c r="J34" t="n">
-        <v>1.2496230869528229</v>
+        <v>1.2442877239636307</v>
       </c>
       <c r="K34" t="n">
-        <v>1.2446111567304736</v>
+        <v>1.2975025446503585</v>
       </c>
       <c r="L34" t="n">
-        <v>1.2259296250231713</v>
+        <v>1.1994354915867025</v>
       </c>
     </row>
     <row r="35">
@@ -1509,37 +1509,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>3.5124929031216854</v>
+        <v>3.4422430450592514</v>
       </c>
       <c r="C38" t="n">
-        <v>3.14400083326387</v>
+        <v>3.0965073294323355</v>
       </c>
       <c r="D38" t="n">
-        <v>3.196599565700124</v>
+        <v>3.1553894596189926</v>
       </c>
       <c r="E38" t="n">
-        <v>3.4969362543871605</v>
+        <v>3.4401441166997198</v>
       </c>
       <c r="F38" t="n">
-        <v>3.452679505882799</v>
+        <v>3.3864563946503417</v>
       </c>
       <c r="G38" t="n">
-        <v>3.5124929031216854</v>
+        <v>3.026736240991166</v>
       </c>
       <c r="H38" t="n">
-        <v>3.14400083326387</v>
+        <v>3.4027963540947095</v>
       </c>
       <c r="I38" t="n">
-        <v>3.196599565700124</v>
+        <v>3.280137414473377</v>
       </c>
       <c r="J38" t="n">
-        <v>3.4969362543871605</v>
+        <v>3.0999100842112512</v>
       </c>
       <c r="K38" t="n">
-        <v>3.452679505882799</v>
+        <v>3.4192947580921897</v>
       </c>
       <c r="L38" t="n">
-        <v>3.5124929031216854</v>
+        <v>3.423444390562843</v>
       </c>
     </row>
     <row r="39">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2.17910381744878</v>
+        <v>2.1577400545326153</v>
       </c>
       <c r="C45" t="n">
-        <v>2.394983539030698</v>
+        <v>2.3669355832058363</v>
       </c>
       <c r="D45" t="n">
-        <v>2.094835771256592</v>
+        <v>2.0571141271914186</v>
       </c>
       <c r="E45" t="n">
-        <v>2.152691553760801</v>
+        <v>2.171014741675935</v>
       </c>
       <c r="F45" t="n">
-        <v>2.2775793590654767</v>
+        <v>2.267325345408487</v>
       </c>
       <c r="G45" t="n">
-        <v>2.17910381744878</v>
+        <v>2.1305018432548475</v>
       </c>
       <c r="H45" t="n">
-        <v>2.394983539030698</v>
+        <v>2.25684555668268</v>
       </c>
       <c r="I45" t="n">
-        <v>2.094835771256592</v>
+        <v>2.352590518841927</v>
       </c>
       <c r="J45" t="n">
-        <v>2.152691553760801</v>
+        <v>2.4413675209868173</v>
       </c>
       <c r="K45" t="n">
-        <v>2.2775793590654767</v>
+        <v>2.3683797169549603</v>
       </c>
       <c r="L45" t="n">
-        <v>2.17910381744878</v>
+        <v>2.391727885596232</v>
       </c>
     </row>
     <row r="46">
@@ -2003,37 +2003,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>2.478522038686717</v>
+        <v>2.5035576148350676</v>
       </c>
       <c r="C51" t="n">
-        <v>2.4087813309765607</v>
+        <v>2.4471469814411386</v>
       </c>
       <c r="D51" t="n">
-        <v>2.732038757489984</v>
+        <v>2.78308845119091</v>
       </c>
       <c r="E51" t="n">
-        <v>2.6975649473758496</v>
+        <v>2.78308845119091</v>
       </c>
       <c r="F51" t="n">
-        <v>2.52918006592106</v>
+        <v>2.552592038885473</v>
       </c>
       <c r="G51" t="n">
-        <v>2.478522038686717</v>
+        <v>2.6520244029959046</v>
       </c>
       <c r="H51" t="n">
-        <v>2.4087813309765607</v>
+        <v>2.764534528182971</v>
       </c>
       <c r="I51" t="n">
-        <v>2.732038757489984</v>
+        <v>2.5063087766221552</v>
       </c>
       <c r="J51" t="n">
-        <v>2.6975649473758496</v>
+        <v>2.8157296128497715</v>
       </c>
       <c r="K51" t="n">
-        <v>2.52918006592106</v>
+        <v>2.7678895481669135</v>
       </c>
       <c r="L51" t="n">
-        <v>2.478522038686717</v>
+        <v>2.868856587535202</v>
       </c>
     </row>
     <row r="52">
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>1.5640595122002345</v>
+        <v>1.57985809313155</v>
       </c>
       <c r="C59" t="n">
-        <v>1.5905977484893163</v>
+        <v>1.6126476007441042</v>
       </c>
       <c r="D59" t="n">
-        <v>1.5366400361291273</v>
+        <v>1.5390814435023303</v>
       </c>
       <c r="E59" t="n">
-        <v>1.490432414574275</v>
+        <v>1.4976838787882925</v>
       </c>
       <c r="F59" t="n">
-        <v>1.3949264675547268</v>
+        <v>1.4073049863942928</v>
       </c>
       <c r="G59" t="n">
-        <v>1.5640595122002345</v>
+        <v>1.4252972123447303</v>
       </c>
       <c r="H59" t="n">
-        <v>1.5905977484893163</v>
+        <v>1.5644354384851509</v>
       </c>
       <c r="I59" t="n">
-        <v>1.5366400361291273</v>
+        <v>1.5558917996702706</v>
       </c>
       <c r="J59" t="n">
-        <v>1.490432414574275</v>
+        <v>1.4907614445379398</v>
       </c>
       <c r="K59" t="n">
-        <v>1.3949264675547268</v>
+        <v>1.3588286618686265</v>
       </c>
       <c r="L59" t="n">
-        <v>1.5640595122002345</v>
+        <v>1.582783755812469</v>
       </c>
     </row>
     <row r="60">
@@ -2424,34 +2424,34 @@
         <v>2.4287828793860538</v>
       </c>
       <c r="C62" t="n">
-        <v>2.1501997712838268</v>
+        <v>2.161883662172385</v>
       </c>
       <c r="D62" t="n">
-        <v>2.1622549756554763</v>
+        <v>2.1595105739978653</v>
       </c>
       <c r="E62" t="n">
-        <v>2.1153915399578294</v>
+        <v>2.0851236170739464</v>
       </c>
       <c r="F62" t="n">
-        <v>2.1848914630738316</v>
+        <v>2.187119658429008</v>
       </c>
       <c r="G62" t="n">
-        <v>2.4287828793860538</v>
+        <v>2.399163575515098</v>
       </c>
       <c r="H62" t="n">
-        <v>2.1501997712838268</v>
+        <v>2.2981970532457785</v>
       </c>
       <c r="I62" t="n">
-        <v>2.1622549756554763</v>
+        <v>2.400627372465743</v>
       </c>
       <c r="J62" t="n">
-        <v>2.1153915399578294</v>
+        <v>2.2005750925762584</v>
       </c>
       <c r="K62" t="n">
-        <v>2.1848914630738316</v>
+        <v>2.3617216478446914</v>
       </c>
       <c r="L62" t="n">
-        <v>2.4287828793860538</v>
+        <v>2.2018065278034746</v>
       </c>
     </row>
     <row r="63">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>2.356630040841063</v>
+        <v>2.285931139615831</v>
       </c>
       <c r="C65" t="n">
-        <v>2.261344134739973</v>
+        <v>2.202806369608767</v>
       </c>
       <c r="D65" t="n">
-        <v>2.3329699849751573</v>
+        <v>2.2435990808037363</v>
       </c>
       <c r="E65" t="n">
-        <v>2.2018594719769498</v>
+        <v>2.11315727393607</v>
       </c>
       <c r="F65" t="n">
-        <v>2.2437473019843996</v>
+        <v>2.2175903049752685</v>
       </c>
       <c r="G65" t="n">
-        <v>2.356630040841063</v>
+        <v>1.997049731543175</v>
       </c>
       <c r="H65" t="n">
-        <v>2.261344134739973</v>
+        <v>2.0339286577712805</v>
       </c>
       <c r="I65" t="n">
-        <v>2.3329699849751573</v>
+        <v>1.9499090726244062</v>
       </c>
       <c r="J65" t="n">
-        <v>2.2018594719769498</v>
+        <v>1.994857580695848</v>
       </c>
       <c r="K65" t="n">
-        <v>2.2437473019843996</v>
+        <v>2.2162381159752456</v>
       </c>
       <c r="L65" t="n">
-        <v>2.356630040841063</v>
+        <v>2.1229698380743995</v>
       </c>
     </row>
     <row r="66">
@@ -2687,37 +2687,37 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="n">
-        <v>3.2182191794383623</v>
+        <v>3.1863556232062993</v>
       </c>
       <c r="C69" t="n">
-        <v>3.18626830003794</v>
+        <v>3.1366285858363394</v>
       </c>
       <c r="D69" t="n">
-        <v>3.346620226641132</v>
+        <v>3.2865554871896463</v>
       </c>
       <c r="E69" t="n">
-        <v>3.2904485389580773</v>
+        <v>3.2256933475731806</v>
       </c>
       <c r="F69" t="n">
-        <v>2.926905977121691</v>
+        <v>2.8712215515367037</v>
       </c>
       <c r="G69" t="n">
-        <v>3.2182191794383623</v>
+        <v>2.92424354999332</v>
       </c>
       <c r="H69" t="n">
-        <v>3.18626830003794</v>
+        <v>3.2197308838996515</v>
       </c>
       <c r="I69" t="n">
-        <v>3.346620226641132</v>
+        <v>3.151763103429885</v>
       </c>
       <c r="J69" t="n">
-        <v>3.2904485389580773</v>
+        <v>3.1882997080917654</v>
       </c>
       <c r="K69" t="n">
-        <v>2.926905977121691</v>
+        <v>3.0381530368917713</v>
       </c>
       <c r="L69" t="n">
-        <v>3.2182191794383623</v>
+        <v>2.7692756884729617</v>
       </c>
     </row>
     <row r="70">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>3.3477994584203334</v>
+        <v>3.314652929129043</v>
       </c>
       <c r="C76" t="n">
-        <v>3.314562089929026</v>
+        <v>3.262923652938149</v>
       </c>
       <c r="D76" t="n">
-        <v>3.481370521271638</v>
+        <v>3.418887299653111</v>
       </c>
       <c r="E76" t="n">
-        <v>3.4229371035587075</v>
+        <v>3.355574570878104</v>
       </c>
       <c r="F76" t="n">
-        <v>3.0447566491618776</v>
+        <v>2.9868301129560986</v>
       </c>
       <c r="G76" t="n">
-        <v>3.3477994584203334</v>
+        <v>3.041987020494137</v>
       </c>
       <c r="H76" t="n">
-        <v>3.314562089929026</v>
+        <v>3.349372031043457</v>
       </c>
       <c r="I76" t="n">
-        <v>3.481370521271638</v>
+        <v>3.2786675556924565</v>
       </c>
       <c r="J76" t="n">
-        <v>3.4229371035587075</v>
+        <v>3.3166752917972757</v>
       </c>
       <c r="K76" t="n">
-        <v>3.0447566491618776</v>
+        <v>3.160483026292637</v>
       </c>
       <c r="L76" t="n">
-        <v>3.3477994584203334</v>
+        <v>2.8807794414127916</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2.3727535590977684</v>
+        <v>2.349260949601751</v>
       </c>
       <c r="C79" t="n">
-        <v>2.3491965672999364</v>
+        <v>2.3125978143943002</v>
       </c>
       <c r="D79" t="n">
-        <v>2.4674220775407605</v>
+        <v>2.423137081285576</v>
       </c>
       <c r="E79" t="n">
-        <v>2.426007380641914</v>
+        <v>2.3782641716615407</v>
       </c>
       <c r="F79" t="n">
-        <v>2.157971905310695</v>
+        <v>2.1169164607849584</v>
       </c>
       <c r="G79" t="n">
-        <v>2.3727535590977684</v>
+        <v>2.1560089304191643</v>
       </c>
       <c r="H79" t="n">
-        <v>2.3491965672999364</v>
+        <v>2.3738681202699055</v>
       </c>
       <c r="I79" t="n">
-        <v>2.4674220775407605</v>
+        <v>2.3237563087301587</v>
       </c>
       <c r="J79" t="n">
-        <v>2.426007380641914</v>
+        <v>2.3506942995614586</v>
       </c>
       <c r="K79" t="n">
-        <v>2.157971905310695</v>
+        <v>2.2399929990556795</v>
       </c>
       <c r="L79" t="n">
-        <v>2.3727535590977684</v>
+        <v>2.041753025377802</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>3.2072527838055294</v>
+        <v>3.143742827690568</v>
       </c>
       <c r="C90" t="n">
-        <v>3.0732843637582157</v>
+        <v>3.009605149732214</v>
       </c>
       <c r="D90" t="n">
-        <v>2.900454871127021</v>
+        <v>2.831095877356051</v>
       </c>
       <c r="E90" t="n">
-        <v>3.3386223252633185</v>
+        <v>3.24062547019565</v>
       </c>
       <c r="F90" t="n">
-        <v>3.2996756400860514</v>
+        <v>3.1806138864629268</v>
       </c>
       <c r="G90" t="n">
-        <v>3.2072527838055294</v>
+        <v>3.143742827690568</v>
       </c>
       <c r="H90" t="n">
-        <v>3.0732843637582157</v>
+        <v>2.764267433871248</v>
       </c>
       <c r="I90" t="n">
-        <v>2.900454871127021</v>
+        <v>2.8279881984993933</v>
       </c>
       <c r="J90" t="n">
-        <v>3.3386223252633185</v>
+        <v>3.141825911630389</v>
       </c>
       <c r="K90" t="n">
-        <v>3.2996756400860514</v>
+        <v>2.864143689416069</v>
       </c>
       <c r="L90" t="n">
-        <v>3.2072527838055294</v>
+        <v>2.8979721584601474</v>
       </c>
     </row>
     <row r="91">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2.120928052451619</v>
+        <v>2.0789294771555475</v>
       </c>
       <c r="C93" t="n">
-        <v>2.0323359147642903</v>
+        <v>1.9902254107005708</v>
       </c>
       <c r="D93" t="n">
-        <v>1.9180452916293265</v>
+        <v>1.872178799184</v>
       </c>
       <c r="E93" t="n">
-        <v>2.2078015745894444</v>
+        <v>2.142997116389415</v>
       </c>
       <c r="F93" t="n">
-        <v>2.1820464742869183</v>
+        <v>2.103311983975325</v>
       </c>
       <c r="G93" t="n">
-        <v>2.120928052451619</v>
+        <v>2.0789294771555475</v>
       </c>
       <c r="H93" t="n">
-        <v>2.0323359147642903</v>
+        <v>1.8279857373822366</v>
       </c>
       <c r="I93" t="n">
-        <v>1.9180452916293265</v>
+        <v>1.8701237184936421</v>
       </c>
       <c r="J93" t="n">
-        <v>2.2078015745894444</v>
+        <v>2.077661837427629</v>
       </c>
       <c r="K93" t="n">
-        <v>2.1820464742869183</v>
+        <v>1.894033026585145</v>
       </c>
       <c r="L93" t="n">
-        <v>2.120928052451619</v>
+        <v>1.916403495582586</v>
       </c>
     </row>
     <row r="94">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2.256740068807119</v>
+        <v>2.212052146652522</v>
       </c>
       <c r="C94" t="n">
-        <v>2.1624750008953755</v>
+        <v>2.1176679826995386</v>
       </c>
       <c r="D94" t="n">
-        <v>2.0408658645460935</v>
+        <v>1.9920623461064368</v>
       </c>
       <c r="E94" t="n">
-        <v>2.3491764709284513</v>
+        <v>2.280222308486074</v>
       </c>
       <c r="F94" t="n">
-        <v>2.3217721623468033</v>
+        <v>2.2379959687706505</v>
       </c>
       <c r="G94" t="n">
-        <v>2.256740068807119</v>
+        <v>2.212052146652522</v>
       </c>
       <c r="H94" t="n">
-        <v>2.1624750008953755</v>
+        <v>1.9450394151701298</v>
       </c>
       <c r="I94" t="n">
-        <v>2.0408658645460935</v>
+        <v>1.9898756698855242</v>
       </c>
       <c r="J94" t="n">
-        <v>2.3491764709284513</v>
+        <v>2.21070333457778</v>
       </c>
       <c r="K94" t="n">
-        <v>2.3217721623468033</v>
+        <v>2.0153159923543504</v>
       </c>
       <c r="L94" t="n">
-        <v>2.256740068807119</v>
+        <v>2.039118937336938</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>2.393281125007816</v>
+        <v>2.3458894195621163</v>
       </c>
       <c r="C97" t="n">
-        <v>2.2933126745428916</v>
+        <v>2.2457946673083846</v>
       </c>
       <c r="D97" t="n">
-        <v>2.164345739149627</v>
+        <v>2.1125894287397444</v>
       </c>
       <c r="E97" t="n">
-        <v>2.491310268690967</v>
+        <v>2.418184126365106</v>
       </c>
       <c r="F97" t="n">
-        <v>2.462247898868724</v>
+        <v>2.373402938129941</v>
       </c>
       <c r="G97" t="n">
-        <v>2.393281125007816</v>
+        <v>2.3458894195621163</v>
       </c>
       <c r="H97" t="n">
-        <v>2.2933126745428916</v>
+        <v>2.062721437911764</v>
       </c>
       <c r="I97" t="n">
-        <v>2.164345739149627</v>
+        <v>2.110270450582557</v>
       </c>
       <c r="J97" t="n">
-        <v>2.491310268690967</v>
+        <v>2.3444589994068306</v>
       </c>
       <c r="K97" t="n">
-        <v>2.462247898868724</v>
+        <v>2.1372500059244968</v>
       </c>
       <c r="L97" t="n">
-        <v>2.393281125007816</v>
+        <v>2.1624931164332484</v>
       </c>
     </row>
     <row r="98">
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3.1142809656760404</v>
+        <v>3.052612035662653</v>
       </c>
       <c r="C100" t="n">
-        <v>3.2586269628320013</v>
+        <v>3.2002636870563967</v>
       </c>
       <c r="D100" t="n">
-        <v>3.352374190767794</v>
+        <v>3.3081795547437105</v>
       </c>
       <c r="E100" t="n">
-        <v>3.260933874793997</v>
+        <v>3.184145962270591</v>
       </c>
       <c r="F100" t="n">
-        <v>3.5656889380926398</v>
+        <v>3.448526564908866</v>
       </c>
       <c r="G100" t="n">
-        <v>3.1142809656760404</v>
+        <v>3.4527116728981055</v>
       </c>
       <c r="H100" t="n">
-        <v>3.2586269628320013</v>
+        <v>3.015404787978565</v>
       </c>
       <c r="I100" t="n">
-        <v>3.352374190767794</v>
+        <v>3.4716710384988585</v>
       </c>
       <c r="J100" t="n">
-        <v>3.260933874793997</v>
+        <v>3.505895770408869</v>
       </c>
       <c r="K100" t="n">
-        <v>3.5656889380926398</v>
+        <v>3.4318871148207273</v>
       </c>
       <c r="L100" t="n">
-        <v>3.1142809656760404</v>
+        <v>3.1264114475453937</v>
       </c>
     </row>
     <row r="101">
@@ -3903,37 +3903,37 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>2.909587276041691</v>
+        <v>2.794356096792515</v>
       </c>
       <c r="C101" t="n">
-        <v>3.044445781520616</v>
+        <v>2.9295161785367467</v>
       </c>
       <c r="D101" t="n">
-        <v>3.1320312449301295</v>
+        <v>3.0283021884488246</v>
       </c>
       <c r="E101" t="n">
-        <v>3.046601066084067</v>
+        <v>2.91476203945996</v>
       </c>
       <c r="F101" t="n">
-        <v>3.331325361758053</v>
+        <v>3.1567756134828286</v>
       </c>
       <c r="G101" t="n">
-        <v>2.909587276041691</v>
+        <v>3.1606066545351608</v>
       </c>
       <c r="H101" t="n">
-        <v>3.044445781520616</v>
+        <v>2.76029664272621</v>
       </c>
       <c r="I101" t="n">
-        <v>3.1320312449301295</v>
+        <v>3.1779620269961364</v>
       </c>
       <c r="J101" t="n">
-        <v>3.046601066084067</v>
+        <v>3.209291290969593</v>
       </c>
       <c r="K101" t="n">
-        <v>3.331325361758053</v>
+        <v>3.1415438879121167</v>
       </c>
       <c r="L101" t="n">
-        <v>2.909587276041691</v>
+        <v>2.8619119585020987</v>
       </c>
     </row>
     <row r="102">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>3.3164752430999744</v>
+        <v>3.250802466008886</v>
       </c>
       <c r="C104" t="n">
-        <v>3.470192884919875</v>
+        <v>3.4080403812282274</v>
       </c>
       <c r="D104" t="n">
-        <v>3.5700266391588142</v>
+        <v>3.5229626722697924</v>
       </c>
       <c r="E104" t="n">
-        <v>3.4726495728341296</v>
+        <v>3.3908762153047394</v>
       </c>
       <c r="F104" t="n">
-        <v>3.797190818077849</v>
+        <v>3.672421693400469</v>
       </c>
       <c r="G104" t="n">
-        <v>3.3164752430999744</v>
+        <v>3.6768785189691924</v>
       </c>
       <c r="H104" t="n">
-        <v>3.470192884919875</v>
+        <v>3.2111795427183467</v>
       </c>
       <c r="I104" t="n">
-        <v>3.5700266391588142</v>
+        <v>3.697068818859533</v>
       </c>
       <c r="J104" t="n">
-        <v>3.4726495728341296</v>
+        <v>3.7335155869361065</v>
       </c>
       <c r="K104" t="n">
-        <v>3.797190818077849</v>
+        <v>3.654701929228796</v>
       </c>
       <c r="L104" t="n">
-        <v>3.3164752430999744</v>
+        <v>3.3293932948910565</v>
       </c>
     </row>
     <row r="105">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>1.4361340431252718</v>
+        <v>1.4509395487245014</v>
       </c>
       <c r="C106" t="n">
-        <v>1.3743648116321934</v>
+        <v>1.3808121482558078</v>
       </c>
       <c r="D106" t="n">
-        <v>1.385879680605931</v>
+        <v>1.3900845296611655</v>
       </c>
       <c r="E106" t="n">
-        <v>1.408443494497155</v>
+        <v>1.3971209532873325</v>
       </c>
       <c r="F106" t="n">
-        <v>1.4639776701713358</v>
+        <v>1.4442331711173604</v>
       </c>
       <c r="G106" t="n">
-        <v>1.4361340431252718</v>
+        <v>1.5623151288564112</v>
       </c>
       <c r="H106" t="n">
-        <v>1.3743648116321934</v>
+        <v>1.3648797002664221</v>
       </c>
       <c r="I106" t="n">
-        <v>1.385879680605931</v>
+        <v>1.3164181529687675</v>
       </c>
       <c r="J106" t="n">
-        <v>1.408443494497155</v>
+        <v>1.5073307375814038</v>
       </c>
       <c r="K106" t="n">
-        <v>1.4639776701713358</v>
+        <v>1.5333833667522865</v>
       </c>
       <c r="L106" t="n">
-        <v>1.4361340431252718</v>
+        <v>1.5055036687410501</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>1.4424277285618743</v>
+        <v>1.4572981175161204</v>
       </c>
       <c r="C107" t="n">
-        <v>1.380387800809948</v>
+        <v>1.3868633921141105</v>
       </c>
       <c r="D107" t="n">
-        <v>1.3919531323178143</v>
+        <v>1.3961764086204136</v>
       </c>
       <c r="E107" t="n">
-        <v>1.4146158294209228</v>
+        <v>1.4032436685303618</v>
       </c>
       <c r="F107" t="n">
-        <v>1.470393376968605</v>
+        <v>1.4505623500123463</v>
       </c>
       <c r="G107" t="n">
-        <v>1.4424277285618743</v>
+        <v>1.5691617877883792</v>
       </c>
       <c r="H107" t="n">
-        <v>1.380387800809948</v>
+        <v>1.3708611220796585</v>
       </c>
       <c r="I107" t="n">
-        <v>1.3919531323178143</v>
+        <v>1.3221871978552662</v>
       </c>
       <c r="J107" t="n">
-        <v>1.4146158294209228</v>
+        <v>1.5139364340041517</v>
       </c>
       <c r="K107" t="n">
-        <v>1.470393376968605</v>
+        <v>1.540103235702023</v>
       </c>
       <c r="L107" t="n">
-        <v>1.4424277285618743</v>
+        <v>1.5121013582534353</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>1.1877561819035285</v>
+        <v>1.2000010909953172</v>
       </c>
       <c r="C111" t="n">
-        <v>1.1366698735547092</v>
+        <v>1.1420021501400104</v>
       </c>
       <c r="D111" t="n">
-        <v>1.146193258139064</v>
+        <v>1.1496708830050946</v>
       </c>
       <c r="E111" t="n">
-        <v>1.164854684323419</v>
+        <v>1.1554903646199752</v>
       </c>
       <c r="F111" t="n">
-        <v>1.2107842831513824</v>
+        <v>1.194454574290145</v>
       </c>
       <c r="G111" t="n">
-        <v>1.1877561819035285</v>
+        <v>1.2921143825421764</v>
       </c>
       <c r="H111" t="n">
-        <v>1.1366698735547092</v>
+        <v>1.1288252021504845</v>
       </c>
       <c r="I111" t="n">
-        <v>1.146193258139064</v>
+        <v>1.088745028114544</v>
       </c>
       <c r="J111" t="n">
-        <v>1.164854684323419</v>
+        <v>1.2466394834840278</v>
       </c>
       <c r="K111" t="n">
-        <v>1.2107842831513824</v>
+        <v>1.2681863380417098</v>
       </c>
       <c r="L111" t="n">
-        <v>1.1877561819035285</v>
+        <v>1.245128404263894</v>
       </c>
     </row>
     <row r="112">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>1.830457935311499</v>
+        <v>1.86743688349961</v>
       </c>
       <c r="C116" t="n">
-        <v>1.9069600915127876</v>
+        <v>1.9372686615614458</v>
       </c>
       <c r="D116" t="n">
-        <v>1.7553364230506636</v>
+        <v>1.7854315953996933</v>
       </c>
       <c r="E116" t="n">
-        <v>1.7116595198879405</v>
+        <v>1.7628932164530071</v>
       </c>
       <c r="F116" t="n">
-        <v>1.8941774108771028</v>
+        <v>1.9585313650985112</v>
       </c>
       <c r="G116" t="n">
-        <v>1.830457935311499</v>
+        <v>1.7021682247198162</v>
       </c>
       <c r="H116" t="n">
-        <v>1.9069600915127876</v>
+        <v>1.9279660503944076</v>
       </c>
       <c r="I116" t="n">
-        <v>1.7553364230506636</v>
+        <v>1.8065193703177218</v>
       </c>
       <c r="J116" t="n">
-        <v>1.7116595198879405</v>
+        <v>1.876108431244606</v>
       </c>
       <c r="K116" t="n">
-        <v>1.8941774108771028</v>
+        <v>1.797421063153605</v>
       </c>
       <c r="L116" t="n">
-        <v>1.830457935311499</v>
+        <v>1.7964157942585601</v>
       </c>
     </row>
     <row r="117">
@@ -4511,37 +4511,37 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="n">
-        <v>1.0978590505374684</v>
+        <v>1.1090616939102997</v>
       </c>
       <c r="C117" t="n">
-        <v>1.143742970047983</v>
+        <v>1.1505344476886707</v>
       </c>
       <c r="D117" t="n">
-        <v>1.0528032038366892</v>
+        <v>1.0603591516539554</v>
       </c>
       <c r="E117" t="n">
-        <v>1.0266069812895242</v>
+        <v>1.0469737178792082</v>
       </c>
       <c r="F117" t="n">
-        <v>1.1360762647086833</v>
+        <v>1.1631622640343229</v>
       </c>
       <c r="G117" t="n">
-        <v>1.0978590505374684</v>
+        <v>1.0109094402645933</v>
       </c>
       <c r="H117" t="n">
-        <v>1.143742970047983</v>
+        <v>1.1450096721046255</v>
       </c>
       <c r="I117" t="n">
-        <v>1.0528032038366892</v>
+        <v>1.0728830787424892</v>
       </c>
       <c r="J117" t="n">
-        <v>1.0266069812895242</v>
+        <v>1.114211683993427</v>
       </c>
       <c r="K117" t="n">
-        <v>1.1360762647086833</v>
+        <v>1.0674796383133585</v>
       </c>
       <c r="L117" t="n">
-        <v>1.0978590505374684</v>
+        <v>1.0668826139997525</v>
       </c>
     </row>
     <row r="118">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>2.3954646111185585</v>
+        <v>2.420160122573389</v>
       </c>
       <c r="C126" t="n">
-        <v>2.4005215713715424</v>
+        <v>2.4334495903666027</v>
       </c>
       <c r="D126" t="n">
-        <v>2.3730663785701465</v>
+        <v>2.4055632579047614</v>
       </c>
       <c r="E126" t="n">
-        <v>2.115899313318192</v>
+        <v>2.139712382122315</v>
       </c>
       <c r="F126" t="n">
-        <v>2.4214228197785985</v>
+        <v>2.4574392365408073</v>
       </c>
       <c r="G126" t="n">
-        <v>2.3954646111185585</v>
+        <v>2.3296188079612</v>
       </c>
       <c r="H126" t="n">
-        <v>2.4005215713715424</v>
+        <v>2.189036158614592</v>
       </c>
       <c r="I126" t="n">
-        <v>2.3730663785701465</v>
+        <v>2.217022724114073</v>
       </c>
       <c r="J126" t="n">
-        <v>2.115899313318192</v>
+        <v>2.3940119330575587</v>
       </c>
       <c r="K126" t="n">
-        <v>2.4214228197785985</v>
+        <v>2.23066212566776</v>
       </c>
       <c r="L126" t="n">
-        <v>2.3954646111185585</v>
+        <v>2.4334495903666027</v>
       </c>
     </row>
     <row r="127">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>1.230910941643321</v>
+        <v>1.2433443854983042</v>
       </c>
       <c r="C127" t="n">
-        <v>1.2823556316910318</v>
+        <v>1.2898385668812034</v>
       </c>
       <c r="D127" t="n">
-        <v>1.1803946803237626</v>
+        <v>1.1887450491345894</v>
       </c>
       <c r="E127" t="n">
-        <v>1.1510236814261874</v>
+        <v>1.1737389371908862</v>
       </c>
       <c r="F127" t="n">
-        <v>1.2737597819014987</v>
+        <v>1.3039953307841323</v>
       </c>
       <c r="G127" t="n">
-        <v>1.230910941643321</v>
+        <v>1.1333080780823301</v>
       </c>
       <c r="H127" t="n">
-        <v>1.2823556316910318</v>
+        <v>1.2836448639147422</v>
       </c>
       <c r="I127" t="n">
-        <v>1.1803946803237626</v>
+        <v>1.2027853451031725</v>
       </c>
       <c r="J127" t="n">
-        <v>1.1510236814261874</v>
+        <v>1.2491179247796511</v>
       </c>
       <c r="K127" t="n">
-        <v>1.2737597819014987</v>
+        <v>1.196727668278859</v>
       </c>
       <c r="L127" t="n">
-        <v>1.230910941643321</v>
+        <v>1.1960583576062391</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>3.752543092293108</v>
+        <v>3.790447567972836</v>
       </c>
       <c r="C128" t="n">
-        <v>3.294558299658524</v>
+        <v>3.3143818178326976</v>
       </c>
       <c r="D128" t="n">
-        <v>3.8009184204085655</v>
+        <v>3.813560053505321</v>
       </c>
       <c r="E128" t="n">
-        <v>3.694839650300245</v>
+        <v>3.772158318366705</v>
       </c>
       <c r="F128" t="n">
-        <v>3.381353996865578</v>
+        <v>3.4978962474394146</v>
       </c>
       <c r="G128" t="n">
-        <v>3.752543092293108</v>
+        <v>3.754044711930729</v>
       </c>
       <c r="H128" t="n">
-        <v>3.294558299658524</v>
+        <v>3.517569454998607</v>
       </c>
       <c r="I128" t="n">
-        <v>3.8009184204085655</v>
+        <v>3.4998536596971355</v>
       </c>
       <c r="J128" t="n">
-        <v>3.694839650300245</v>
+        <v>3.815886813395473</v>
       </c>
       <c r="K128" t="n">
-        <v>3.381353996865578</v>
+        <v>3.355278159745854</v>
       </c>
       <c r="L128" t="n">
-        <v>3.752543092293108</v>
+        <v>3.4326226624011933</v>
       </c>
     </row>
     <row r="129">
@@ -5084,34 +5084,34 @@
         <v>4.192358683569895</v>
       </c>
       <c r="C132" t="n">
-        <v>3.680695932437767</v>
+        <v>3.665814431008814</v>
       </c>
       <c r="D132" t="n">
-        <v>4.246403826265765</v>
+        <v>4.217921846674884</v>
       </c>
       <c r="E132" t="n">
-        <v>4.127892128446921</v>
+        <v>4.172130176770302</v>
       </c>
       <c r="F132" t="n">
-        <v>3.777664491074661</v>
+        <v>3.868787377798197</v>
       </c>
       <c r="G132" t="n">
-        <v>4.192358683569895</v>
+        <v>4.152095937047723</v>
       </c>
       <c r="H132" t="n">
-        <v>3.680695932437767</v>
+        <v>3.8905465872491702</v>
       </c>
       <c r="I132" t="n">
-        <v>4.246403826265765</v>
+        <v>3.8709523396209957</v>
       </c>
       <c r="J132" t="n">
-        <v>4.127892128446921</v>
+        <v>4.220495319030096</v>
       </c>
       <c r="K132" t="n">
-        <v>3.777664491074661</v>
+        <v>3.711047119516245</v>
       </c>
       <c r="L132" t="n">
-        <v>4.192358683569895</v>
+        <v>3.7965926630223175</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>4.816771872738798</v>
+        <v>4.721390251496445</v>
       </c>
       <c r="C133" t="n">
-        <v>5.040027817435598</v>
+        <v>4.9497589597906995</v>
       </c>
       <c r="D133" t="n">
-        <v>5.18502405112331</v>
+        <v>5.116669435058499</v>
       </c>
       <c r="E133" t="n">
-        <v>5.043595854094426</v>
+        <v>4.924830122522492</v>
       </c>
       <c r="F133" t="n">
-        <v>5.514952046149815</v>
+        <v>5.333740257645555</v>
       </c>
       <c r="G133" t="n">
-        <v>4.816771872738798</v>
+        <v>5.340213247934204</v>
       </c>
       <c r="H133" t="n">
-        <v>5.040027817435598</v>
+        <v>4.663842834907513</v>
       </c>
       <c r="I133" t="n">
-        <v>5.18502405112331</v>
+        <v>5.369537172126398</v>
       </c>
       <c r="J133" t="n">
-        <v>5.043595854094426</v>
+        <v>5.422471614404755</v>
       </c>
       <c r="K133" t="n">
-        <v>5.514952046149815</v>
+        <v>5.308004482342768</v>
       </c>
       <c r="L133" t="n">
-        <v>4.816771872738798</v>
+        <v>4.835533752130879</v>
       </c>
     </row>
     <row r="134">
@@ -5312,34 +5312,34 @@
         <v>3.5236766386639475</v>
       </c>
       <c r="C138" t="n">
-        <v>3.093624198231164</v>
+        <v>3.0811162992436674</v>
       </c>
       <c r="D138" t="n">
-        <v>3.569101570337144</v>
+        <v>3.5451624721629793</v>
       </c>
       <c r="E138" t="n">
-        <v>3.4694925119211146</v>
+        <v>3.5066745827272436</v>
       </c>
       <c r="F138" t="n">
-        <v>3.1751262524549175</v>
+        <v>3.2517150205996153</v>
       </c>
       <c r="G138" t="n">
-        <v>3.5236766386639475</v>
+        <v>3.4898358082300835</v>
       </c>
       <c r="H138" t="n">
-        <v>3.093624198231164</v>
+        <v>3.270003631809976</v>
       </c>
       <c r="I138" t="n">
-        <v>3.569101570337144</v>
+        <v>3.253534670580542</v>
       </c>
       <c r="J138" t="n">
-        <v>3.4694925119211146</v>
+        <v>3.547325475165048</v>
       </c>
       <c r="K138" t="n">
-        <v>3.1751262524549175</v>
+        <v>3.119134364926415</v>
       </c>
       <c r="L138" t="n">
-        <v>3.5236766386639475</v>
+        <v>3.19103537720752</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>3.905466133543197</v>
+        <v>3.984364439271343</v>
       </c>
       <c r="C153" t="n">
-        <v>3.86202738443199</v>
+        <v>3.962080521467286</v>
       </c>
       <c r="D153" t="n">
-        <v>4.195824944142632</v>
+        <v>4.2934545264748705</v>
       </c>
       <c r="E153" t="n">
-        <v>3.7879669961886684</v>
+        <v>3.8924175668750736</v>
       </c>
       <c r="F153" t="n">
-        <v>4.217840007437753</v>
+        <v>4.298665033194763</v>
       </c>
       <c r="G153" t="n">
-        <v>3.905466133543197</v>
+        <v>4.322269657525038</v>
       </c>
       <c r="H153" t="n">
-        <v>3.86202738443199</v>
+        <v>4.455471681034125</v>
       </c>
       <c r="I153" t="n">
-        <v>4.195824944142632</v>
+        <v>4.372962944892206</v>
       </c>
       <c r="J153" t="n">
-        <v>3.7879669961886684</v>
+        <v>3.754213021827977</v>
       </c>
       <c r="K153" t="n">
-        <v>4.217840007437753</v>
+        <v>4.36487983534175</v>
       </c>
       <c r="L153" t="n">
-        <v>3.905466133543197</v>
+        <v>4.322269657525038</v>
       </c>
     </row>
     <row r="154">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>2.753944717504516</v>
+        <v>2.809579964322789</v>
       </c>
       <c r="C154" t="n">
-        <v>2.7233138249146776</v>
+        <v>2.793866429593937</v>
       </c>
       <c r="D154" t="n">
-        <v>2.958691624861705</v>
+        <v>3.027535256669648</v>
       </c>
       <c r="E154" t="n">
-        <v>2.6710900421433266</v>
+        <v>2.7447435030993907</v>
       </c>
       <c r="F154" t="n">
-        <v>2.974215576470555</v>
+        <v>3.031209452518775</v>
       </c>
       <c r="G154" t="n">
-        <v>2.753944717504516</v>
+        <v>3.0478542852379014</v>
       </c>
       <c r="H154" t="n">
-        <v>2.7233138249146776</v>
+        <v>3.141781871974125</v>
       </c>
       <c r="I154" t="n">
-        <v>2.958691624861705</v>
+        <v>3.0836007252745206</v>
       </c>
       <c r="J154" t="n">
-        <v>2.6710900421433266</v>
+        <v>2.6472883815458816</v>
       </c>
       <c r="K154" t="n">
-        <v>2.974215576470555</v>
+        <v>3.0779009096606305</v>
       </c>
       <c r="L154" t="n">
-        <v>2.753944717504516</v>
+        <v>3.0478542852379014</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>4.131918951748292</v>
+        <v>4.215392061884622</v>
       </c>
       <c r="C156" t="n">
-        <v>4.085961469451551</v>
+        <v>4.1918160432621665</v>
       </c>
       <c r="D156" t="n">
-        <v>4.439113798995487</v>
+        <v>4.5424042917807546</v>
       </c>
       <c r="E156" t="n">
-        <v>4.007606796464336</v>
+        <v>4.118113782770868</v>
       </c>
       <c r="F156" t="n">
-        <v>4.462405373968261</v>
+        <v>4.547916922214091</v>
       </c>
       <c r="G156" t="n">
-        <v>4.131918951748292</v>
+        <v>4.572890226624922</v>
       </c>
       <c r="H156" t="n">
-        <v>4.085961469451551</v>
+        <v>4.7138157772580005</v>
       </c>
       <c r="I156" t="n">
-        <v>4.439113798995487</v>
+        <v>4.626522891110169</v>
       </c>
       <c r="J156" t="n">
-        <v>4.007606796464336</v>
+        <v>3.971895646606986</v>
       </c>
       <c r="K156" t="n">
-        <v>4.462405373968261</v>
+        <v>4.617971094116276</v>
       </c>
       <c r="L156" t="n">
-        <v>4.131918951748292</v>
+        <v>4.572890226624922</v>
       </c>
     </row>
     <row r="157">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>2.5688148592026154</v>
+        <v>2.6207101088834768</v>
       </c>
       <c r="C157" t="n">
-        <v>2.540243083039034</v>
+        <v>2.6060528932736267</v>
       </c>
       <c r="D157" t="n">
-        <v>2.7597979587005326</v>
+        <v>2.8240136792361175</v>
       </c>
       <c r="E157" t="n">
-        <v>2.491529966782881</v>
+        <v>2.5602321828197683</v>
       </c>
       <c r="F157" t="n">
-        <v>2.7742783356350746</v>
+        <v>2.8274408827064215</v>
       </c>
       <c r="G157" t="n">
-        <v>2.5688148592026154</v>
+        <v>2.8429667911773</v>
       </c>
       <c r="H157" t="n">
-        <v>2.540243083039034</v>
+        <v>2.9305802348907566</v>
       </c>
       <c r="I157" t="n">
-        <v>2.7597979587005326</v>
+        <v>2.8763102296806227</v>
       </c>
       <c r="J157" t="n">
-        <v>2.491529966782881</v>
+        <v>2.469328337597014</v>
       </c>
       <c r="K157" t="n">
-        <v>2.7742783356350746</v>
+        <v>2.8709935757366964</v>
       </c>
       <c r="L157" t="n">
-        <v>2.5688148592026154</v>
+        <v>2.8429667911773</v>
       </c>
     </row>
     <row r="158">
@@ -6110,34 +6110,34 @@
         <v>1.7856656929094739</v>
       </c>
       <c r="C159" t="n">
-        <v>1.673069505491337</v>
+        <v>1.6647560404550032</v>
       </c>
       <c r="D159" t="n">
-        <v>1.8028781463642443</v>
+        <v>1.8051693237416224</v>
       </c>
       <c r="E159" t="n">
-        <v>1.8201771373272038</v>
+        <v>1.8029812381803454</v>
       </c>
       <c r="F159" t="n">
-        <v>1.8128768554263273</v>
+        <v>1.8150817834030326</v>
       </c>
       <c r="G159" t="n">
-        <v>1.7856656929094739</v>
+        <v>1.6731828148596626</v>
       </c>
       <c r="H159" t="n">
-        <v>1.673069505491337</v>
+        <v>1.8363697801574153</v>
       </c>
       <c r="I159" t="n">
-        <v>1.8028781463642443</v>
+        <v>1.8329753818295043</v>
       </c>
       <c r="J159" t="n">
-        <v>1.8201771373272038</v>
+        <v>1.7942816919370803</v>
       </c>
       <c r="K159" t="n">
-        <v>1.8128768554263273</v>
+        <v>1.8710182671351019</v>
       </c>
       <c r="L159" t="n">
-        <v>1.7856656929094739</v>
+        <v>1.729604095392069</v>
       </c>
     </row>
     <row r="160">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>3.642736088487577</v>
+        <v>3.606669394542155</v>
       </c>
       <c r="C165" t="n">
-        <v>3.4130412486511985</v>
+        <v>3.3624573089631693</v>
       </c>
       <c r="D165" t="n">
-        <v>3.677849282194594</v>
+        <v>3.6460626296163787</v>
       </c>
       <c r="E165" t="n">
-        <v>3.713139011355778</v>
+        <v>3.641643156666972</v>
       </c>
       <c r="F165" t="n">
-        <v>3.6982465259134853</v>
+        <v>3.6660837147654086</v>
       </c>
       <c r="G165" t="n">
-        <v>3.642736088487577</v>
+        <v>3.3794776221498304</v>
       </c>
       <c r="H165" t="n">
-        <v>3.4130412486511985</v>
+        <v>3.7090809939705918</v>
       </c>
       <c r="I165" t="n">
-        <v>3.677849282194594</v>
+        <v>3.7022250227712936</v>
       </c>
       <c r="J165" t="n">
-        <v>3.713139011355778</v>
+        <v>3.624071901696583</v>
       </c>
       <c r="K165" t="n">
-        <v>3.6982465259134853</v>
+        <v>3.7790636553645065</v>
       </c>
       <c r="L165" t="n">
-        <v>3.642736088487577</v>
+        <v>3.493436750392669</v>
       </c>
     </row>
     <row r="166">
@@ -6411,37 +6411,37 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="n">
-        <v>2.3495224676062882</v>
+        <v>2.3734971866634953</v>
       </c>
       <c r="C167" t="n">
-        <v>2.585958501381485</v>
+        <v>2.6147954220453884</v>
       </c>
       <c r="D167" t="n">
-        <v>2.5405691095423317</v>
+        <v>2.5892696568260223</v>
       </c>
       <c r="E167" t="n">
-        <v>2.549829993795642</v>
+        <v>2.5892696568260223</v>
       </c>
       <c r="F167" t="n">
-        <v>2.375387587548457</v>
+        <v>2.3868464398977993</v>
       </c>
       <c r="G167" t="n">
-        <v>2.3495224676062882</v>
+        <v>2.6196376350376656</v>
       </c>
       <c r="H167" t="n">
-        <v>2.585958501381485</v>
+        <v>2.575129230063719</v>
       </c>
       <c r="I167" t="n">
-        <v>2.5405691095423317</v>
+        <v>2.6690647610253735</v>
       </c>
       <c r="J167" t="n">
-        <v>2.549829993795642</v>
+        <v>2.572007859113848</v>
       </c>
       <c r="K167" t="n">
-        <v>2.375387587548457</v>
+        <v>2.331765367776066</v>
       </c>
       <c r="L167" t="n">
-        <v>2.3495224676062882</v>
+        <v>2.559597690425136</v>
       </c>
     </row>
     <row r="168">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>1.9572498032380041</v>
+        <v>1.9380610796768472</v>
       </c>
       <c r="C168" t="n">
-        <v>2.1511508644017483</v>
+        <v>2.125958463938832</v>
       </c>
       <c r="D168" t="n">
-        <v>1.8815610657358097</v>
+        <v>1.8476798528109413</v>
       </c>
       <c r="E168" t="n">
-        <v>1.933526565504939</v>
+        <v>1.9499842742448448</v>
       </c>
       <c r="F168" t="n">
-        <v>2.0456995746117657</v>
+        <v>2.0364895195185486</v>
       </c>
       <c r="G168" t="n">
-        <v>1.9572498032380041</v>
+        <v>1.9135959838713694</v>
       </c>
       <c r="H168" t="n">
-        <v>2.1511508644017483</v>
+        <v>2.0270766754597576</v>
       </c>
       <c r="I168" t="n">
-        <v>1.8815610657358097</v>
+        <v>2.1130738669871505</v>
       </c>
       <c r="J168" t="n">
-        <v>1.933526565504939</v>
+        <v>2.192812504765124</v>
       </c>
       <c r="K168" t="n">
-        <v>2.0456995746117657</v>
+        <v>2.1272555707924337</v>
       </c>
       <c r="L168" t="n">
-        <v>1.9572498032380041</v>
+        <v>2.148226668228534</v>
       </c>
     </row>
     <row r="169">
@@ -6563,37 +6563,37 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="n">
-        <v>1.5111582838219217</v>
+        <v>1.5416867340001421</v>
       </c>
       <c r="C171" t="n">
-        <v>1.5925513059503464</v>
+        <v>1.6313196835442507</v>
       </c>
       <c r="D171" t="n">
-        <v>1.534040378205096</v>
+        <v>1.5781045311585122</v>
       </c>
       <c r="E171" t="n">
-        <v>1.6449972686074452</v>
+        <v>1.7025909326853435</v>
       </c>
       <c r="F171" t="n">
-        <v>1.7133170271557545</v>
+        <v>1.7646980228480922</v>
       </c>
       <c r="G171" t="n">
-        <v>1.5111582838219217</v>
+        <v>1.700527184654855</v>
       </c>
       <c r="H171" t="n">
-        <v>1.5925513059503464</v>
+        <v>1.7108962530163392</v>
       </c>
       <c r="I171" t="n">
-        <v>1.534040378205096</v>
+        <v>1.5692784430346616</v>
       </c>
       <c r="J171" t="n">
-        <v>1.6449972686074452</v>
+        <v>1.5596830773413084</v>
       </c>
       <c r="K171" t="n">
-        <v>1.7133170271557545</v>
+        <v>1.7119401187800558</v>
       </c>
       <c r="L171" t="n">
-        <v>1.5111582838219217</v>
+        <v>1.5052949870450314</v>
       </c>
     </row>
     <row r="172">
@@ -6715,37 +6715,37 @@
         <v>174.0</v>
       </c>
       <c r="B175" t="n">
-        <v>0.9646795823229567</v>
+        <v>0.9550327864997271</v>
       </c>
       <c r="C175" t="n">
-        <v>1.0166385249641399</v>
+        <v>1.0105579484392029</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9792868471532215</v>
+        <v>0.9775926162831083</v>
       </c>
       <c r="E175" t="n">
-        <v>1.0501185051172564</v>
+        <v>1.0547085389342807</v>
       </c>
       <c r="F175" t="n">
-        <v>1.0937318557810276</v>
+        <v>1.09318218346362</v>
       </c>
       <c r="G175" t="n">
-        <v>0.9646795823229567</v>
+        <v>1.0534301034462379</v>
       </c>
       <c r="H175" t="n">
-        <v>1.0166385249641399</v>
+        <v>1.0598534578361274</v>
       </c>
       <c r="I175" t="n">
-        <v>0.9792868471532215</v>
+        <v>0.9721250959698586</v>
       </c>
       <c r="J175" t="n">
-        <v>1.0501185051172564</v>
+        <v>0.9661810292321046</v>
       </c>
       <c r="K175" t="n">
-        <v>1.0937318557810276</v>
+        <v>1.060500104140508</v>
       </c>
       <c r="L175" t="n">
-        <v>0.9646795823229567</v>
+        <v>0.9324890941051287</v>
       </c>
     </row>
     <row r="176">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>1.201774663942776</v>
+        <v>1.1897569173033482</v>
       </c>
       <c r="C176" t="n">
-        <v>1.2665038672716853</v>
+        <v>1.2589288310174318</v>
       </c>
       <c r="D176" t="n">
-        <v>1.219972043781834</v>
+        <v>1.2178614116383932</v>
       </c>
       <c r="E176" t="n">
-        <v>1.308212422769911</v>
+        <v>1.3139305767031138</v>
       </c>
       <c r="F176" t="n">
-        <v>1.3625448879716313</v>
+        <v>1.36186011939496</v>
       </c>
       <c r="G176" t="n">
-        <v>1.201774663942776</v>
+        <v>1.3123379324643754</v>
       </c>
       <c r="H176" t="n">
-        <v>1.2665038672716853</v>
+        <v>1.3203399931534867</v>
       </c>
       <c r="I176" t="n">
-        <v>1.219972043781834</v>
+        <v>1.2110501060946046</v>
       </c>
       <c r="J176" t="n">
-        <v>1.308212422769911</v>
+        <v>1.203645130455941</v>
       </c>
       <c r="K176" t="n">
-        <v>1.3625448879716313</v>
+        <v>1.321145569595009</v>
       </c>
       <c r="L176" t="n">
-        <v>1.201774663942776</v>
+        <v>1.1616725265398273</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>5.264743020346673</v>
+        <v>5.4242806876299055</v>
       </c>
       <c r="C177" t="n">
-        <v>6.061015276271175</v>
+        <v>6.210933046839968</v>
       </c>
       <c r="D177" t="n">
-        <v>6.095441981296925</v>
+        <v>6.306603609600483</v>
       </c>
       <c r="E177" t="n">
-        <v>5.562179148154573</v>
+        <v>5.689615151642808</v>
       </c>
       <c r="F177" t="n">
-        <v>5.280590341599018</v>
+        <v>5.491211189251865</v>
       </c>
       <c r="G177" t="n">
-        <v>5.264743020346673</v>
+        <v>6.17347265390769</v>
       </c>
       <c r="H177" t="n">
-        <v>6.061015276271175</v>
+        <v>5.724618376866946</v>
       </c>
       <c r="I177" t="n">
-        <v>6.095441981296925</v>
+        <v>6.143828125614253</v>
       </c>
       <c r="J177" t="n">
-        <v>5.562179148154573</v>
+        <v>5.727821856155348</v>
       </c>
       <c r="K177" t="n">
-        <v>5.280590341599018</v>
+        <v>5.978574023243122</v>
       </c>
       <c r="L177" t="n">
-        <v>5.264743020346673</v>
+        <v>6.2412302765021845</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>3.279795061343084</v>
+        <v>3.214199160116222</v>
       </c>
       <c r="C178" t="n">
-        <v>2.9357150861808154</v>
+        <v>2.8913679618993378</v>
       </c>
       <c r="D178" t="n">
-        <v>2.984829224667476</v>
+        <v>2.9463492316453705</v>
       </c>
       <c r="E178" t="n">
-        <v>3.2652690192704585</v>
+        <v>3.212239282884417</v>
       </c>
       <c r="F178" t="n">
-        <v>3.2239442197109476</v>
+        <v>3.1621082988542946</v>
       </c>
       <c r="G178" t="n">
-        <v>3.279795061343084</v>
+        <v>2.8262191124623737</v>
       </c>
       <c r="H178" t="n">
-        <v>2.9357150861808154</v>
+        <v>3.177365758375581</v>
       </c>
       <c r="I178" t="n">
-        <v>2.984829224667476</v>
+        <v>3.062832805428661</v>
       </c>
       <c r="J178" t="n">
-        <v>3.2652690192704585</v>
+        <v>2.894545288836833</v>
       </c>
       <c r="K178" t="n">
-        <v>3.2239442197109476</v>
+        <v>3.192771165715447</v>
       </c>
       <c r="L178" t="n">
-        <v>3.279795061343084</v>
+        <v>3.1966458907210242</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>5.19483994983635</v>
+        <v>5.040537773108538</v>
       </c>
       <c r="C179" t="n">
-        <v>4.649854556700326</v>
+        <v>4.534270809585576</v>
       </c>
       <c r="D179" t="n">
-        <v>4.727646029624802</v>
+        <v>4.62049296109604</v>
       </c>
       <c r="E179" t="n">
-        <v>5.1718322733625115</v>
+        <v>5.037464274944469</v>
       </c>
       <c r="F179" t="n">
-        <v>5.106378269177623</v>
+        <v>4.958848387745433</v>
       </c>
       <c r="G179" t="n">
-        <v>5.19483994983635</v>
+        <v>4.432103762646983</v>
       </c>
       <c r="H179" t="n">
-        <v>4.649854556700326</v>
+        <v>4.982775281260002</v>
       </c>
       <c r="I179" t="n">
-        <v>4.727646029624802</v>
+        <v>4.803163612276261</v>
       </c>
       <c r="J179" t="n">
-        <v>5.1718322733625115</v>
+        <v>4.53925352398756</v>
       </c>
       <c r="K179" t="n">
-        <v>5.106378269177623</v>
+        <v>5.006934187954481</v>
       </c>
       <c r="L179" t="n">
-        <v>5.19483994983635</v>
+        <v>5.013010568657135</v>
       </c>
     </row>
     <row r="180">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>2.962082335637315</v>
+        <v>2.992619266932545</v>
       </c>
       <c r="C184" t="n">
-        <v>2.6513332804639345</v>
+        <v>2.692043348757072</v>
       </c>
       <c r="D184" t="n">
-        <v>2.6956897476578967</v>
+        <v>2.7432343294542494</v>
       </c>
       <c r="E184" t="n">
-        <v>2.9489634267343825</v>
+        <v>2.99079449937069</v>
       </c>
       <c r="F184" t="n">
-        <v>2.9116417476326233</v>
+        <v>2.9441194362506415</v>
       </c>
       <c r="G184" t="n">
-        <v>2.962082335637315</v>
+        <v>2.6313857191792906</v>
       </c>
       <c r="H184" t="n">
-        <v>2.6513332804639345</v>
+        <v>2.958325079726136</v>
       </c>
       <c r="I184" t="n">
-        <v>2.6956897476578967</v>
+        <v>2.8516877792312783</v>
       </c>
       <c r="J184" t="n">
-        <v>2.9489634267343825</v>
+        <v>2.695001637692145</v>
       </c>
       <c r="K184" t="n">
-        <v>2.9116417476326233</v>
+        <v>2.972668471819661</v>
       </c>
       <c r="L184" t="n">
-        <v>2.962082335637315</v>
+        <v>2.9762760817181517</v>
       </c>
     </row>
     <row r="185">
@@ -7174,34 +7174,34 @@
         <v>3.7167790097110105</v>
       </c>
       <c r="C187" t="n">
-        <v>3.3268554914954223</v>
+        <v>3.3434691550817837</v>
       </c>
       <c r="D187" t="n">
-        <v>3.3825133590124583</v>
+        <v>3.4070474273478757</v>
       </c>
       <c r="E187" t="n">
-        <v>3.7003175884148876</v>
+        <v>3.714512681399071</v>
       </c>
       <c r="F187" t="n">
-        <v>3.65348687347369</v>
+        <v>3.656543097095969</v>
       </c>
       <c r="G187" t="n">
-        <v>3.7167790097110105</v>
+        <v>3.2681334761049476</v>
       </c>
       <c r="H187" t="n">
-        <v>3.3268554914954223</v>
+        <v>3.674186249391542</v>
       </c>
       <c r="I187" t="n">
-        <v>3.3825133590124583</v>
+        <v>3.5417446506519235</v>
       </c>
       <c r="J187" t="n">
-        <v>3.7003175884148876</v>
+        <v>3.3471432964401693</v>
       </c>
       <c r="K187" t="n">
-        <v>3.65348687347369</v>
+        <v>3.6920004829796036</v>
       </c>
       <c r="L187" t="n">
-        <v>3.7167790097110105</v>
+        <v>3.6964810692319534</v>
       </c>
     </row>
     <row r="188">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>2.7980303293406874</v>
+        <v>2.7705986594451906</v>
       </c>
       <c r="C200" t="n">
-        <v>3.0752259377550755</v>
+        <v>3.0392115769680563</v>
       </c>
       <c r="D200" t="n">
-        <v>2.6898277980284937</v>
+        <v>2.6413921506206886</v>
       </c>
       <c r="E200" t="n">
-        <v>2.764116243066436</v>
+        <v>2.787643729506608</v>
       </c>
       <c r="F200" t="n">
-        <v>2.92447568267147</v>
+        <v>2.9113092419631426</v>
       </c>
       <c r="G200" t="n">
-        <v>2.7980303293406874</v>
+        <v>2.7356240333342545</v>
       </c>
       <c r="H200" t="n">
-        <v>3.0752259377550755</v>
+        <v>2.8978528997434214</v>
       </c>
       <c r="I200" t="n">
-        <v>2.6898277980284937</v>
+        <v>3.0207921125785377</v>
       </c>
       <c r="J200" t="n">
-        <v>2.764116243066436</v>
+        <v>3.1347842696113153</v>
       </c>
       <c r="K200" t="n">
-        <v>2.92447568267147</v>
+        <v>3.041065885146179</v>
       </c>
       <c r="L200" t="n">
-        <v>2.7980303293406874</v>
+        <v>3.071045587567757</v>
       </c>
     </row>
     <row r="201">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>0.5882603634876292</v>
+        <v>0.564729948948124</v>
       </c>
       <c r="C213" t="n">
-        <v>0.6512836111835193</v>
+        <v>0.6229459374207963</v>
       </c>
       <c r="D213" t="n">
-        <v>0.6194622494374941</v>
+        <v>0.5894526554278888</v>
       </c>
       <c r="E213" t="n">
-        <v>0.6444799880384966</v>
+        <v>0.6057457495811623</v>
       </c>
       <c r="F213" t="n">
-        <v>0.6460189382691446</v>
+        <v>0.6086685277977637</v>
       </c>
       <c r="G213" t="n">
-        <v>0.5882603634876292</v>
+        <v>0.6217944663656699</v>
       </c>
       <c r="H213" t="n">
-        <v>0.6512836111835193</v>
+        <v>0.6157244773220393</v>
       </c>
       <c r="I213" t="n">
-        <v>0.6194622494374941</v>
+        <v>0.6153490356259731</v>
       </c>
       <c r="J213" t="n">
-        <v>0.6444799880384966</v>
+        <v>0.5414015122060856</v>
       </c>
       <c r="K213" t="n">
-        <v>0.6460189382691446</v>
+        <v>0.5675885370917899</v>
       </c>
       <c r="L213" t="n">
-        <v>0.5882603634876292</v>
+        <v>0.5609629899136604</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>0.3333422651394151</v>
+        <v>0.3367787833367287</v>
       </c>
       <c r="C214" t="n">
-        <v>0.36905487378576024</v>
+        <v>0.37149610230500707</v>
       </c>
       <c r="D214" t="n">
-        <v>0.35102305409736156</v>
+        <v>0.35152226032879286</v>
       </c>
       <c r="E214" t="n">
-        <v>0.36519954833620777</v>
+        <v>0.3612387069878566</v>
       </c>
       <c r="F214" t="n">
-        <v>0.36607160633579766</v>
+        <v>0.3629817165335404</v>
       </c>
       <c r="G214" t="n">
-        <v>0.3333422651394151</v>
+        <v>0.37080941830371544</v>
       </c>
       <c r="H214" t="n">
-        <v>0.36905487378576024</v>
+        <v>0.36718955799917724</v>
       </c>
       <c r="I214" t="n">
-        <v>0.35102305409736156</v>
+        <v>0.36696566196205266</v>
       </c>
       <c r="J214" t="n">
-        <v>0.36519954833620777</v>
+        <v>0.3228667842338561</v>
       </c>
       <c r="K214" t="n">
-        <v>0.36607160633579766</v>
+        <v>0.3384835128961894</v>
       </c>
       <c r="L214" t="n">
-        <v>0.3333422651394151</v>
+        <v>0.3345323434536148</v>
       </c>
     </row>
     <row r="215">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>1.4873858254705556</v>
+        <v>1.502409924717733</v>
       </c>
       <c r="C221" t="n">
-        <v>1.445533730356108</v>
+        <v>1.4685573403120669</v>
       </c>
       <c r="D221" t="n">
-        <v>1.6395237399946418</v>
+        <v>1.6701591709572023</v>
       </c>
       <c r="E221" t="n">
-        <v>1.6188356622961697</v>
+        <v>1.6701591709572023</v>
       </c>
       <c r="F221" t="n">
-        <v>1.5177862134754119</v>
+        <v>1.5318359722389123</v>
       </c>
       <c r="G221" t="n">
-        <v>1.4873858254705556</v>
+        <v>1.5915063268544585</v>
       </c>
       <c r="H221" t="n">
-        <v>1.445533730356108</v>
+        <v>1.6590247764841544</v>
       </c>
       <c r="I221" t="n">
-        <v>1.6395237399946418</v>
+        <v>1.5040609243787482</v>
       </c>
       <c r="J221" t="n">
-        <v>1.6188356622961697</v>
+        <v>1.689747458017183</v>
       </c>
       <c r="K221" t="n">
-        <v>1.5177862134754119</v>
+        <v>1.6610381574791167</v>
       </c>
       <c r="L221" t="n">
-        <v>1.4873858254705556</v>
+        <v>1.721629486041881</v>
       </c>
     </row>
     <row r="222">
@@ -8501,37 +8501,37 @@
         <v>221.0</v>
       </c>
       <c r="B222" t="n">
-        <v>1.8000569974036216</v>
+        <v>1.819004965797344</v>
       </c>
       <c r="C222" t="n">
-        <v>1.7494069539672255</v>
+        <v>1.7780188020840355</v>
       </c>
       <c r="D222" t="n">
-        <v>1.9841766205167686</v>
+        <v>2.0221031395369002</v>
       </c>
       <c r="E222" t="n">
-        <v>1.9591395935488778</v>
+        <v>2.0221031395369002</v>
       </c>
       <c r="F222" t="n">
-        <v>1.8368480103438012</v>
+        <v>1.8546318114965095</v>
       </c>
       <c r="G222" t="n">
-        <v>1.8000569974036216</v>
+        <v>1.9268761900584783</v>
       </c>
       <c r="H222" t="n">
-        <v>1.7494069539672255</v>
+        <v>2.0086224519399876</v>
       </c>
       <c r="I222" t="n">
-        <v>1.9841766205167686</v>
+        <v>1.8210038720429083</v>
       </c>
       <c r="J222" t="n">
-        <v>1.9591395935488778</v>
+        <v>2.0458191646026047</v>
       </c>
       <c r="K222" t="n">
-        <v>1.8368480103438012</v>
+        <v>2.0110601022560735</v>
       </c>
       <c r="L222" t="n">
-        <v>1.8000569974036216</v>
+        <v>2.0844195268223307</v>
       </c>
     </row>
     <row r="223">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>2.0028278451695223</v>
+        <v>2.0239102435397274</v>
       </c>
       <c r="C224" t="n">
-        <v>1.946472231152977</v>
+        <v>1.9783071153776228</v>
       </c>
       <c r="D224" t="n">
-        <v>2.207687973790462</v>
+        <v>2.2498867977573895</v>
       </c>
       <c r="E224" t="n">
-        <v>2.1798306032494845</v>
+        <v>2.2498867977573895</v>
       </c>
       <c r="F224" t="n">
-        <v>2.0437632518121274</v>
+        <v>2.06355034310589</v>
       </c>
       <c r="G224" t="n">
-        <v>2.0028278451695223</v>
+        <v>2.14393282724366</v>
       </c>
       <c r="H224" t="n">
-        <v>1.946472231152977</v>
+        <v>2.234887552439007</v>
       </c>
       <c r="I224" t="n">
-        <v>2.207687973790462</v>
+        <v>2.026134320385224</v>
       </c>
       <c r="J224" t="n">
-        <v>2.1798306032494845</v>
+        <v>2.276274359621732</v>
       </c>
       <c r="K224" t="n">
-        <v>2.0437632518121274</v>
+        <v>2.2375997965162138</v>
       </c>
       <c r="L224" t="n">
-        <v>2.0028278451695223</v>
+        <v>2.3192229331384637</v>
       </c>
     </row>
     <row r="225">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>4.386979517111992</v>
+        <v>4.474719107454231</v>
       </c>
       <c r="C230" t="n">
-        <v>5.0504933986604446</v>
+        <v>5.1236619895415645</v>
       </c>
       <c r="D230" t="n">
-        <v>5.079180316370566</v>
+        <v>5.202584692819376</v>
       </c>
       <c r="E230" t="n">
-        <v>4.634825650398938</v>
+        <v>4.693604755959166</v>
       </c>
       <c r="F230" t="n">
-        <v>4.400184696066871</v>
+        <v>4.529932915832967</v>
       </c>
       <c r="G230" t="n">
-        <v>4.386979517111992</v>
+        <v>5.0927593232379795</v>
       </c>
       <c r="H230" t="n">
-        <v>5.0504933986604446</v>
+        <v>4.722480400446031</v>
       </c>
       <c r="I230" t="n">
-        <v>5.079180316370566</v>
+        <v>5.068304295036984</v>
       </c>
       <c r="J230" t="n">
-        <v>4.634825650398938</v>
+        <v>4.7251230863259925</v>
       </c>
       <c r="K230" t="n">
-        <v>4.400184696066871</v>
+        <v>4.931979179865187</v>
       </c>
       <c r="L230" t="n">
-        <v>4.386979517111992</v>
+        <v>5.1486554587736455</v>
       </c>
     </row>
     <row r="231">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>4.1896213748000015</v>
+        <v>4.273413802296002</v>
       </c>
       <c r="C238" t="n">
-        <v>4.823285591778599</v>
+        <v>4.8931625290024465</v>
       </c>
       <c r="D238" t="n">
-        <v>4.850681963962843</v>
+        <v>4.968534716932649</v>
       </c>
       <c r="E238" t="n">
-        <v>4.426317592238487</v>
+        <v>4.482452387508485</v>
       </c>
       <c r="F238" t="n">
-        <v>4.202232489073871</v>
+        <v>4.326143693298536</v>
       </c>
       <c r="G238" t="n">
-        <v>4.1896213748000015</v>
+        <v>4.863650088659656</v>
       </c>
       <c r="H238" t="n">
-        <v>4.823285591778599</v>
+        <v>4.51002899617087</v>
       </c>
       <c r="I238" t="n">
-        <v>4.850681963962843</v>
+        <v>4.840295224915118</v>
       </c>
       <c r="J238" t="n">
-        <v>4.426317592238487</v>
+        <v>4.512552794881665</v>
       </c>
       <c r="K238" t="n">
-        <v>4.202232489073871</v>
+        <v>4.710103001719641</v>
       </c>
       <c r="L238" t="n">
-        <v>4.1896213748000015</v>
+        <v>4.917031610797035</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>2.1762098749372702</v>
+        <v>2.1984160981509158</v>
       </c>
       <c r="C242" t="n">
-        <v>2.2131347946255726</v>
+        <v>2.2440436021016006</v>
       </c>
       <c r="D242" t="n">
-        <v>2.1380588109105516</v>
+        <v>2.141674265853911</v>
       </c>
       <c r="E242" t="n">
-        <v>2.0737661919017167</v>
+        <v>2.0840684130958387</v>
       </c>
       <c r="F242" t="n">
-        <v>1.9408805929856006</v>
+        <v>1.9583036923048849</v>
       </c>
       <c r="G242" t="n">
-        <v>2.1762098749372702</v>
+        <v>1.9833403708160584</v>
       </c>
       <c r="H242" t="n">
-        <v>2.2131347946255726</v>
+        <v>2.1769550489603144</v>
       </c>
       <c r="I242" t="n">
-        <v>2.1380588109105516</v>
+        <v>2.165066339974946</v>
       </c>
       <c r="J242" t="n">
-        <v>2.0737661919017167</v>
+        <v>2.0744356549636183</v>
       </c>
       <c r="K242" t="n">
-        <v>1.9408805929856006</v>
+        <v>1.8908475500856994</v>
       </c>
       <c r="L242" t="n">
-        <v>2.1762098749372702</v>
+        <v>2.2024872384409546</v>
       </c>
     </row>
     <row r="243">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>1.5573465070537653</v>
+        <v>1.5730772798522883</v>
       </c>
       <c r="C250" t="n">
-        <v>1.5837708401854564</v>
+        <v>1.605726053604247</v>
       </c>
       <c r="D250" t="n">
-        <v>1.5300447164559685</v>
+        <v>1.5324756452123844</v>
       </c>
       <c r="E250" t="n">
-        <v>1.4840354198362509</v>
+        <v>1.4912557604797083</v>
       </c>
       <c r="F250" t="n">
-        <v>1.3889393881101166</v>
+        <v>1.401264777858349</v>
       </c>
       <c r="G250" t="n">
-        <v>1.5573465070537653</v>
+        <v>1.419179780465007</v>
       </c>
       <c r="H250" t="n">
-        <v>1.5837708401854564</v>
+        <v>1.5577208198482324</v>
       </c>
       <c r="I250" t="n">
-        <v>1.5300447164559685</v>
+        <v>1.5492138506682902</v>
       </c>
       <c r="J250" t="n">
-        <v>1.4840354198362509</v>
+        <v>1.4843630375903276</v>
       </c>
       <c r="K250" t="n">
-        <v>1.3889393881101166</v>
+        <v>1.3529965156304942</v>
       </c>
       <c r="L250" t="n">
-        <v>1.5573465070537653</v>
+        <v>1.57599038547353</v>
       </c>
     </row>
     <row r="251">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>1.8694420178955655</v>
+        <v>1.8885179568536836</v>
       </c>
       <c r="C253" t="n">
-        <v>1.6550157008367545</v>
+        <v>1.6809885112798508</v>
       </c>
       <c r="D253" t="n">
-        <v>1.6642946305335815</v>
+        <v>1.6791432991496045</v>
       </c>
       <c r="E253" t="n">
-        <v>1.6282236928883551</v>
+        <v>1.6213031747404465</v>
       </c>
       <c r="F253" t="n">
-        <v>1.6817180079283263</v>
+        <v>1.7006109454192793</v>
       </c>
       <c r="G253" t="n">
-        <v>1.8694420178955655</v>
+        <v>1.8654872497021473</v>
       </c>
       <c r="H253" t="n">
-        <v>1.6550157008367545</v>
+        <v>1.7869799891458327</v>
       </c>
       <c r="I253" t="n">
-        <v>1.6642946305335815</v>
+        <v>1.8666254357664283</v>
       </c>
       <c r="J253" t="n">
-        <v>1.6282236928883551</v>
+        <v>1.7110733170128936</v>
       </c>
       <c r="K253" t="n">
-        <v>1.6817180079283263</v>
+        <v>1.8363740039917469</v>
       </c>
       <c r="L253" t="n">
-        <v>1.8694420178955655</v>
+        <v>1.7120308285134223</v>
       </c>
     </row>
     <row r="254">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>1.9100785770342013</v>
+        <v>1.871877005493517</v>
       </c>
       <c r="C254" t="n">
-        <v>1.690991218001032</v>
+        <v>1.6661762358912648</v>
       </c>
       <c r="D254" t="n">
-        <v>1.7004718462644681</v>
+        <v>1.6643472831167725</v>
       </c>
       <c r="E254" t="n">
-        <v>1.663616825038807</v>
+        <v>1.6070168253980825</v>
       </c>
       <c r="F254" t="n">
-        <v>1.718273960255009</v>
+        <v>1.6856257640909338</v>
       </c>
       <c r="G254" t="n">
-        <v>1.9100785770342013</v>
+        <v>1.8490492367763802</v>
       </c>
       <c r="H254" t="n">
-        <v>1.690991218001032</v>
+        <v>1.7712337543943721</v>
       </c>
       <c r="I254" t="n">
-        <v>1.7004718462644681</v>
+        <v>1.8501773935481856</v>
       </c>
       <c r="J254" t="n">
-        <v>1.663616825038807</v>
+        <v>1.6959959449716298</v>
       </c>
       <c r="K254" t="n">
-        <v>1.718273960255009</v>
+        <v>1.8201925266758452</v>
       </c>
       <c r="L254" t="n">
-        <v>1.9100785770342013</v>
+        <v>1.6969450192199476</v>
       </c>
     </row>
     <row r="255">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>3.089122566708272</v>
+        <v>3.058231341041189</v>
       </c>
       <c r="C260" t="n">
-        <v>2.7347980310544897</v>
+        <v>2.722161963284158</v>
       </c>
       <c r="D260" t="n">
-        <v>2.750130815300794</v>
+        <v>2.71917386060443</v>
       </c>
       <c r="E260" t="n">
-        <v>2.6905261062937553</v>
+        <v>2.6255086240119705</v>
       </c>
       <c r="F260" t="n">
-        <v>2.778921731404717</v>
+        <v>2.753938173224303</v>
       </c>
       <c r="G260" t="n">
-        <v>3.089122566708272</v>
+        <v>3.02093583629814</v>
       </c>
       <c r="H260" t="n">
-        <v>2.7347980310544897</v>
+        <v>2.893802618495642</v>
       </c>
       <c r="I260" t="n">
-        <v>2.750130815300794</v>
+        <v>3.0227789939345753</v>
       </c>
       <c r="J260" t="n">
-        <v>2.6905261062937553</v>
+        <v>2.7708807458872164</v>
       </c>
       <c r="K260" t="n">
-        <v>2.778921731404717</v>
+        <v>2.973790380175862</v>
       </c>
       <c r="L260" t="n">
-        <v>3.089122566708272</v>
+        <v>2.7724313224489574</v>
       </c>
     </row>
     <row r="261">
@@ -10135,37 +10135,37 @@
         <v>264.0</v>
       </c>
       <c r="B265" t="n">
-        <v>1.2148201361137048</v>
+        <v>1.2274745125315558</v>
       </c>
       <c r="C265" t="n">
-        <v>1.1657011673263376</v>
+        <v>1.1828390750175168</v>
       </c>
       <c r="D265" t="n">
-        <v>1.2026236047153274</v>
+        <v>1.2047435026798916</v>
       </c>
       <c r="E265" t="n">
-        <v>1.1350373953883954</v>
+        <v>1.1347002758635614</v>
       </c>
       <c r="F265" t="n">
-        <v>1.1566301691667509</v>
+        <v>1.1907775922995134</v>
       </c>
       <c r="G265" t="n">
-        <v>1.2148201361137048</v>
+        <v>1.0723541069304467</v>
       </c>
       <c r="H265" t="n">
-        <v>1.1657011673263376</v>
+        <v>1.0921569527861354</v>
       </c>
       <c r="I265" t="n">
-        <v>1.2026236047153274</v>
+        <v>1.0470410271425508</v>
       </c>
       <c r="J265" t="n">
-        <v>1.1350373953883954</v>
+        <v>1.0711769895422256</v>
       </c>
       <c r="K265" t="n">
-        <v>1.1566301691667509</v>
+        <v>1.1900515085147092</v>
       </c>
       <c r="L265" t="n">
-        <v>1.2148201361137048</v>
+        <v>1.1399693201377494</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>2.6817718694284336</v>
+        <v>2.7097069930683135</v>
       </c>
       <c r="C266" t="n">
-        <v>2.5733394646358243</v>
+        <v>2.6111721917867707</v>
       </c>
       <c r="D266" t="n">
-        <v>2.6548474599323866</v>
+        <v>2.6595272331419535</v>
       </c>
       <c r="E266" t="n">
-        <v>2.505647763988836</v>
+        <v>2.504903556981182</v>
       </c>
       <c r="F266" t="n">
-        <v>2.553314814921144</v>
+        <v>2.628696837369232</v>
       </c>
       <c r="G266" t="n">
-        <v>2.6817718694284336</v>
+        <v>2.36727149356615</v>
       </c>
       <c r="H266" t="n">
-        <v>2.5733394646358243</v>
+        <v>2.4109871954809248</v>
       </c>
       <c r="I266" t="n">
-        <v>2.6548474599323866</v>
+        <v>2.3113916943384694</v>
       </c>
       <c r="J266" t="n">
-        <v>2.505647763988836</v>
+        <v>2.364672952263694</v>
       </c>
       <c r="K266" t="n">
-        <v>2.553314814921144</v>
+        <v>2.627093973693326</v>
       </c>
       <c r="L266" t="n">
-        <v>2.6817718694284336</v>
+        <v>2.5165352169226236</v>
       </c>
     </row>
     <row r="267">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>2.0679198061997717</v>
+        <v>2.0476460826095777</v>
       </c>
       <c r="C268" t="n">
-        <v>2.2727847366548963</v>
+        <v>2.246167866495147</v>
       </c>
       <c r="D268" t="n">
-        <v>1.9879513529506747</v>
+        <v>1.9521543733574225</v>
       </c>
       <c r="E268" t="n">
-        <v>2.042855170559379</v>
+        <v>2.0602434578447397</v>
       </c>
       <c r="F268" t="n">
-        <v>2.161370848460728</v>
+        <v>2.1516400234470043</v>
       </c>
       <c r="G268" t="n">
-        <v>2.0679198061997717</v>
+        <v>2.021797641550585</v>
       </c>
       <c r="H268" t="n">
-        <v>2.2727847366548963</v>
+        <v>2.141694943044062</v>
       </c>
       <c r="I268" t="n">
-        <v>1.9879513529506747</v>
+        <v>2.2325547276984516</v>
       </c>
       <c r="J268" t="n">
-        <v>2.042855170559379</v>
+        <v>2.3168020772742017</v>
       </c>
       <c r="K268" t="n">
-        <v>2.161370848460728</v>
+        <v>2.2475383164749516</v>
       </c>
       <c r="L268" t="n">
-        <v>2.0679198061997717</v>
+        <v>2.269695195823777</v>
       </c>
     </row>
     <row r="269">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>2.0806890184746365</v>
+        <v>2.102139420726952</v>
       </c>
       <c r="C269" t="n">
-        <v>1.9965602689449962</v>
+        <v>2.025697986056231</v>
       </c>
       <c r="D269" t="n">
-        <v>2.059799350786654</v>
+        <v>2.0632109123186058</v>
       </c>
       <c r="E269" t="n">
-        <v>1.9440407463921403</v>
+        <v>1.943256789652664</v>
       </c>
       <c r="F269" t="n">
-        <v>1.9810238733122776</v>
+        <v>2.039293274553253</v>
       </c>
       <c r="G269" t="n">
-        <v>2.0806890184746365</v>
+        <v>1.8364844386933745</v>
       </c>
       <c r="H269" t="n">
-        <v>1.9965602689449962</v>
+        <v>1.8703982531887708</v>
       </c>
       <c r="I269" t="n">
-        <v>2.059799350786654</v>
+        <v>1.7931339476331576</v>
       </c>
       <c r="J269" t="n">
-        <v>1.9440407463921403</v>
+        <v>1.8344685395122993</v>
       </c>
       <c r="K269" t="n">
-        <v>1.9810238733122776</v>
+        <v>2.038049803237796</v>
       </c>
       <c r="L269" t="n">
-        <v>2.0806890184746365</v>
+        <v>1.9522804113777965</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>1.4119233693769844</v>
+        <v>1.4266309044746615</v>
       </c>
       <c r="C272" t="n">
-        <v>1.3548349018344188</v>
+        <v>1.3747534162317934</v>
       </c>
       <c r="D272" t="n">
-        <v>1.3977479641504962</v>
+        <v>1.400211813232253</v>
       </c>
       <c r="E272" t="n">
-        <v>1.3191959665670712</v>
+        <v>1.3188041497694758</v>
       </c>
       <c r="F272" t="n">
-        <v>1.344292144183012</v>
+        <v>1.3839799492266376</v>
       </c>
       <c r="G272" t="n">
-        <v>1.4119233693769844</v>
+        <v>1.2463423833804221</v>
       </c>
       <c r="H272" t="n">
-        <v>1.3548349018344188</v>
+        <v>1.2693582192335084</v>
       </c>
       <c r="I272" t="n">
-        <v>1.3977479641504962</v>
+        <v>1.2169222841896317</v>
       </c>
       <c r="J272" t="n">
-        <v>1.3191959665670712</v>
+        <v>1.2449742799883872</v>
       </c>
       <c r="K272" t="n">
-        <v>1.344292144183012</v>
+        <v>1.3831360591449582</v>
       </c>
       <c r="L272" t="n">
-        <v>1.4119233693769844</v>
+        <v>1.324928090691963</v>
       </c>
     </row>
     <row r="273">
@@ -10477,37 +10477,37 @@
         <v>273.0</v>
       </c>
       <c r="B274" t="n">
-        <v>0.5841521955681758</v>
+        <v>0.5901743831513527</v>
       </c>
       <c r="C274" t="n">
-        <v>0.615615420227871</v>
+        <v>0.6244868472470747</v>
       </c>
       <c r="D274" t="n">
-        <v>0.5929974805500531</v>
+        <v>0.6041155104242752</v>
       </c>
       <c r="E274" t="n">
-        <v>0.635888891619198</v>
+        <v>0.6517702535128426</v>
       </c>
       <c r="F274" t="n">
-        <v>0.6622985254636071</v>
+        <v>0.6755455204446797</v>
       </c>
       <c r="G274" t="n">
-        <v>0.5841521955681758</v>
+        <v>0.6509802284098094</v>
       </c>
       <c r="H274" t="n">
-        <v>0.615615420227871</v>
+        <v>0.6549496201086114</v>
       </c>
       <c r="I274" t="n">
-        <v>0.5929974805500531</v>
+        <v>0.6007367882758283</v>
       </c>
       <c r="J274" t="n">
-        <v>0.635888891619198</v>
+        <v>0.5970635783400504</v>
       </c>
       <c r="K274" t="n">
-        <v>0.6622985254636071</v>
+        <v>0.6553492232313519</v>
       </c>
       <c r="L274" t="n">
-        <v>0.5841521955681758</v>
+        <v>0.5762432281784446</v>
       </c>
     </row>
     <row r="275">
@@ -10518,34 +10518,34 @@
         <v>3.818896026138286</v>
       </c>
       <c r="C275" t="n">
-        <v>3.780981552458718</v>
+        <v>3.759297410082781</v>
       </c>
       <c r="D275" t="n">
-        <v>3.971262978658973</v>
+        <v>3.9389870980822743</v>
       </c>
       <c r="E275" t="n">
-        <v>3.904606911152802</v>
+        <v>3.866042891405898</v>
       </c>
       <c r="F275" t="n">
-        <v>3.4732095552488467</v>
+        <v>3.441203013708995</v>
       </c>
       <c r="G275" t="n">
-        <v>3.818896026138286</v>
+        <v>3.504750691102308</v>
       </c>
       <c r="H275" t="n">
-        <v>3.780981552458718</v>
+        <v>3.8588967873542974</v>
       </c>
       <c r="I275" t="n">
-        <v>3.971262978658973</v>
+        <v>3.777436361264053</v>
       </c>
       <c r="J275" t="n">
-        <v>3.904606911152802</v>
+        <v>3.8212260416549184</v>
       </c>
       <c r="K275" t="n">
-        <v>3.4732095552488467</v>
+        <v>3.6412729561275206</v>
       </c>
       <c r="L275" t="n">
-        <v>3.818896026138286</v>
+        <v>3.319019335120224</v>
       </c>
     </row>
     <row r="276">
@@ -10708,34 +10708,34 @@
         <v>0.6353752367058919</v>
       </c>
       <c r="C280" t="n">
-        <v>0.5687186647019818</v>
+        <v>0.5715587341293427</v>
       </c>
       <c r="D280" t="n">
-        <v>0.578233255334297</v>
+        <v>0.5824273006179272</v>
       </c>
       <c r="E280" t="n">
-        <v>0.632561192764831</v>
+        <v>0.6349878128413335</v>
       </c>
       <c r="F280" t="n">
-        <v>0.6245555845451529</v>
+        <v>0.625078039284151</v>
       </c>
       <c r="G280" t="n">
-        <v>0.6353752367058919</v>
+        <v>0.558680264697277</v>
       </c>
       <c r="H280" t="n">
-        <v>0.5687186647019818</v>
+        <v>0.6280940975530845</v>
       </c>
       <c r="I280" t="n">
-        <v>0.578233255334297</v>
+        <v>0.6054534961266804</v>
       </c>
       <c r="J280" t="n">
-        <v>0.632561192764831</v>
+        <v>0.5721868205528765</v>
       </c>
       <c r="K280" t="n">
-        <v>0.6245555845451529</v>
+        <v>0.6311394017945193</v>
       </c>
       <c r="L280" t="n">
-        <v>0.6353752367058919</v>
+        <v>0.6319053482075909</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>3.0067862201891247</v>
+        <v>2.9770160595931925</v>
       </c>
       <c r="C282" t="n">
-        <v>2.9769344734473506</v>
+        <v>2.930556026140493</v>
       </c>
       <c r="D282" t="n">
-        <v>3.1267514798127767</v>
+        <v>3.0706329183251486</v>
       </c>
       <c r="E282" t="n">
-        <v>3.0742702014805623</v>
+        <v>3.0137693448621525</v>
       </c>
       <c r="F282" t="n">
-        <v>2.7346119294878317</v>
+        <v>2.682585900745654</v>
       </c>
       <c r="G282" t="n">
-        <v>3.0067862201891247</v>
+        <v>2.732124420478814</v>
       </c>
       <c r="H282" t="n">
-        <v>2.9769344734473506</v>
+        <v>3.0081986075654235</v>
       </c>
       <c r="I282" t="n">
-        <v>3.1267514798127767</v>
+        <v>2.944696224931249</v>
       </c>
       <c r="J282" t="n">
-        <v>3.0742702014805623</v>
+        <v>2.9788324205427026</v>
       </c>
       <c r="K282" t="n">
-        <v>2.7346119294878317</v>
+        <v>2.838550197114342</v>
       </c>
       <c r="L282" t="n">
-        <v>3.0067862201891247</v>
+        <v>2.5873377528805848</v>
       </c>
     </row>
     <row r="283">
@@ -10860,34 +10860,34 @@
         <v>1.0840964937807596</v>
       </c>
       <c r="C284" t="n">
-        <v>1.0388132859263683</v>
+        <v>1.037840106306034</v>
       </c>
       <c r="D284" t="n">
-        <v>0.9803944896501762</v>
+        <v>0.9762825022342925</v>
       </c>
       <c r="E284" t="n">
-        <v>1.1285012441649784</v>
+        <v>1.1175057574529828</v>
       </c>
       <c r="F284" t="n">
-        <v>1.1153367174839974</v>
+        <v>1.096811206060982</v>
       </c>
       <c r="G284" t="n">
         <v>1.0840964937807596</v>
       </c>
       <c r="H284" t="n">
-        <v>1.0388132859263683</v>
+        <v>0.9532372071075529</v>
       </c>
       <c r="I284" t="n">
-        <v>0.9803944896501762</v>
+        <v>0.9752108421345465</v>
       </c>
       <c r="J284" t="n">
-        <v>1.1285012441649784</v>
+        <v>1.0834354594361535</v>
       </c>
       <c r="K284" t="n">
-        <v>1.1153367174839974</v>
+        <v>0.9876787961250718</v>
       </c>
       <c r="L284" t="n">
-        <v>1.0840964937807596</v>
+        <v>0.999344293810707</v>
       </c>
     </row>
     <row r="285">
@@ -11427,37 +11427,37 @@
         <v>298.0</v>
       </c>
       <c r="B299" t="n">
-        <v>2.5535378954445345</v>
+        <v>2.5282553420242913</v>
       </c>
       <c r="C299" t="n">
-        <v>2.4468754461636455</v>
+        <v>2.420379373965519</v>
       </c>
       <c r="D299" t="n">
-        <v>2.3092727410969887</v>
+        <v>2.276818960082222</v>
       </c>
       <c r="E299" t="n">
-        <v>2.6581311798009994</v>
+        <v>2.606170130824889</v>
       </c>
       <c r="F299" t="n">
-        <v>2.627122761317659</v>
+        <v>2.5579077202297276</v>
       </c>
       <c r="G299" t="n">
-        <v>2.5535378954445345</v>
+        <v>2.5282553420242913</v>
       </c>
       <c r="H299" t="n">
-        <v>2.4468754461636455</v>
+        <v>2.2230743064956116</v>
       </c>
       <c r="I299" t="n">
-        <v>2.3092727410969887</v>
+        <v>2.2743197080437176</v>
       </c>
       <c r="J299" t="n">
-        <v>2.6581311798009994</v>
+        <v>2.5267137231530934</v>
       </c>
       <c r="K299" t="n">
-        <v>2.627122761317659</v>
+        <v>2.3033966135235295</v>
       </c>
       <c r="L299" t="n">
-        <v>2.5535378954445345</v>
+        <v>2.330602085555103</v>
       </c>
     </row>
     <row r="300">
@@ -11544,34 +11544,34 @@
         <v>0.6355451739857702</v>
       </c>
       <c r="C302" t="n">
-        <v>0.608998160523818</v>
+        <v>0.6084276397125499</v>
       </c>
       <c r="D302" t="n">
-        <v>0.5747504858413646</v>
+        <v>0.572339857476964</v>
       </c>
       <c r="E302" t="n">
-        <v>0.6615771969381847</v>
+        <v>0.6551311577197914</v>
       </c>
       <c r="F302" t="n">
-        <v>0.6538595708339568</v>
+        <v>0.6429990990511778</v>
       </c>
       <c r="G302" t="n">
         <v>0.6355451739857702</v>
       </c>
       <c r="H302" t="n">
-        <v>0.608998160523818</v>
+        <v>0.5588296891617817</v>
       </c>
       <c r="I302" t="n">
-        <v>0.5747504858413646</v>
+        <v>0.5717116030656142</v>
       </c>
       <c r="J302" t="n">
-        <v>0.6615771969381847</v>
+        <v>0.6351576465009352</v>
       </c>
       <c r="K302" t="n">
-        <v>0.6538595708339568</v>
+        <v>0.579020867539407</v>
       </c>
       <c r="L302" t="n">
-        <v>0.6355451739857702</v>
+        <v>0.5858596967384496</v>
       </c>
     </row>
     <row r="303">
@@ -11655,37 +11655,37 @@
         <v>304.0</v>
       </c>
       <c r="B305" t="n">
-        <v>1.6048831676484512</v>
+        <v>1.5888343359719665</v>
       </c>
       <c r="C305" t="n">
-        <v>1.5378464615253746</v>
+        <v>1.5210417205549016</v>
       </c>
       <c r="D305" t="n">
-        <v>1.4513639912325544</v>
+        <v>1.4308238888854543</v>
       </c>
       <c r="E305" t="n">
-        <v>1.6706194160950547</v>
+        <v>1.6377984139544046</v>
       </c>
       <c r="F305" t="n">
-        <v>1.6511308120809567</v>
+        <v>1.6074688132151955</v>
       </c>
       <c r="G305" t="n">
-        <v>1.6048831676484512</v>
+        <v>1.5888343359719665</v>
       </c>
       <c r="H305" t="n">
-        <v>1.5378464615253746</v>
+        <v>1.3970490760435854</v>
       </c>
       <c r="I305" t="n">
-        <v>1.4513639912325544</v>
+        <v>1.4292532811279939</v>
       </c>
       <c r="J305" t="n">
-        <v>1.6706194160950547</v>
+        <v>1.5878655346982866</v>
       </c>
       <c r="K305" t="n">
-        <v>1.6511308120809567</v>
+        <v>1.4475261134017892</v>
       </c>
       <c r="L305" t="n">
-        <v>1.6048831676484512</v>
+        <v>1.4646228786578965</v>
       </c>
     </row>
     <row r="306">
@@ -11848,34 +11848,34 @@
         <v>1.7431089965888236</v>
       </c>
       <c r="C310" t="n">
-        <v>1.670298534182371</v>
+        <v>1.6687337674284581</v>
       </c>
       <c r="D310" t="n">
-        <v>1.576367477359385</v>
+        <v>1.569755849797073</v>
       </c>
       <c r="E310" t="n">
-        <v>1.8145069951342059</v>
+        <v>1.7968274509981388</v>
       </c>
       <c r="F310" t="n">
-        <v>1.7933398711511517</v>
+        <v>1.763552868044768</v>
       </c>
       <c r="G310" t="n">
         <v>1.7431089965888236</v>
       </c>
       <c r="H310" t="n">
-        <v>1.670298534182371</v>
+        <v>1.5327015271469082</v>
       </c>
       <c r="I310" t="n">
-        <v>1.576367477359385</v>
+        <v>1.5680327371665377</v>
       </c>
       <c r="J310" t="n">
-        <v>1.8145069951342059</v>
+        <v>1.7420461254147654</v>
       </c>
       <c r="K310" t="n">
-        <v>1.7933398711511517</v>
+        <v>1.588079848189051</v>
       </c>
       <c r="L310" t="n">
-        <v>1.7431089965888236</v>
+        <v>1.6068366969402186</v>
       </c>
     </row>
     <row r="311">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>1.6824082178812874</v>
+        <v>1.6999333034842175</v>
       </c>
       <c r="C312" t="n">
-        <v>1.760387338747391</v>
+        <v>1.78215729938882</v>
       </c>
       <c r="D312" t="n">
-        <v>1.8110318080233128</v>
+        <v>1.8422533008829103</v>
       </c>
       <c r="E312" t="n">
-        <v>1.7616335871384534</v>
+        <v>1.7731816887250047</v>
       </c>
       <c r="F312" t="n">
-        <v>1.926269478564283</v>
+        <v>1.9204095008313244</v>
       </c>
       <c r="G312" t="n">
-        <v>1.6824082178812874</v>
+        <v>1.9227400965200234</v>
       </c>
       <c r="H312" t="n">
-        <v>1.760387338747391</v>
+        <v>1.6792133958345583</v>
       </c>
       <c r="I312" t="n">
-        <v>1.8110318080233128</v>
+        <v>1.93329815519932</v>
       </c>
       <c r="J312" t="n">
-        <v>1.7616335871384534</v>
+        <v>1.9523571646302438</v>
       </c>
       <c r="K312" t="n">
-        <v>1.926269478564283</v>
+        <v>1.9111433526847421</v>
       </c>
       <c r="L312" t="n">
-        <v>1.6824082178812874</v>
+        <v>1.7410305921574523</v>
       </c>
     </row>
     <row r="313">
@@ -12000,34 +12000,34 @@
         <v>2.5842467233210566</v>
       </c>
       <c r="C314" t="n">
-        <v>2.511531132106238</v>
+        <v>2.5260179876830597</v>
       </c>
       <c r="D314" t="n">
-        <v>2.8485775380761233</v>
+        <v>2.8727867767391486</v>
       </c>
       <c r="E314" t="n">
-        <v>2.812633201315233</v>
+        <v>2.8727867767391486</v>
       </c>
       <c r="F314" t="n">
-        <v>2.637065636708499</v>
+        <v>2.6348615160189848</v>
       </c>
       <c r="G314" t="n">
-        <v>2.5842467233210566</v>
+        <v>2.73749856324403</v>
       </c>
       <c r="H314" t="n">
-        <v>2.511531132106238</v>
+        <v>2.853634864894221</v>
       </c>
       <c r="I314" t="n">
-        <v>2.8485775380761233</v>
+        <v>2.587086554444366</v>
       </c>
       <c r="J314" t="n">
-        <v>2.812633201315233</v>
+        <v>2.906479955822572</v>
       </c>
       <c r="K314" t="n">
-        <v>2.637065636708499</v>
+        <v>2.8570980164305806</v>
       </c>
       <c r="L314" t="n">
-        <v>2.5842467233210566</v>
+        <v>2.9613192011577856</v>
       </c>
     </row>
     <row r="315">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>4.611372284981087</v>
+        <v>4.565715133644641</v>
       </c>
       <c r="C315" t="n">
-        <v>4.825108019832635</v>
+        <v>4.786553999311269</v>
       </c>
       <c r="D315" t="n">
-        <v>4.963921239789839</v>
+        <v>4.947961051535448</v>
       </c>
       <c r="E315" t="n">
-        <v>4.8285239061969945</v>
+        <v>4.762447123260609</v>
       </c>
       <c r="F315" t="n">
-        <v>5.279780253357679</v>
+        <v>5.157874548824576</v>
       </c>
       <c r="G315" t="n">
-        <v>4.611372284981087</v>
+        <v>5.164134109705282</v>
       </c>
       <c r="H315" t="n">
-        <v>4.825108019832635</v>
+        <v>4.510065188008614</v>
       </c>
       <c r="I315" t="n">
-        <v>4.963921239789839</v>
+        <v>5.192491156534808</v>
       </c>
       <c r="J315" t="n">
-        <v>4.8285239061969945</v>
+        <v>5.243680228254675</v>
       </c>
       <c r="K315" t="n">
-        <v>5.279780253357679</v>
+        <v>5.132987341346063</v>
       </c>
       <c r="L315" t="n">
-        <v>4.611372284981087</v>
+        <v>4.67609505999973</v>
       </c>
     </row>
     <row r="316">
@@ -12073,37 +12073,37 @@
         <v>315.0</v>
       </c>
       <c r="B316" t="n">
-        <v>1.7211020822588243</v>
+        <v>1.7038910614362361</v>
       </c>
       <c r="C316" t="n">
-        <v>1.8008746522385282</v>
+        <v>1.7863064899535013</v>
       </c>
       <c r="D316" t="n">
-        <v>1.852683898412712</v>
+        <v>1.846542406012069</v>
       </c>
       <c r="E316" t="n">
-        <v>1.8021495632132083</v>
+        <v>1.777309982414258</v>
       </c>
       <c r="F316" t="n">
-        <v>1.9705719309453227</v>
+        <v>1.9248805679946475</v>
       </c>
       <c r="G316" t="n">
-        <v>1.7211020822588243</v>
+        <v>1.9272165897395341</v>
       </c>
       <c r="H316" t="n">
-        <v>1.8008746522385282</v>
+        <v>1.6831229140238184</v>
       </c>
       <c r="I316" t="n">
-        <v>1.852683898412712</v>
+        <v>1.937799229524813</v>
       </c>
       <c r="J316" t="n">
-        <v>1.8021495632132083</v>
+        <v>1.9569026118414128</v>
       </c>
       <c r="K316" t="n">
-        <v>1.9705719309453227</v>
+        <v>1.915592846547844</v>
       </c>
       <c r="L316" t="n">
-        <v>1.7211020822588243</v>
+        <v>1.7450840321698904</v>
       </c>
     </row>
     <row r="317">
@@ -12190,34 +12190,34 @@
         <v>3.2824409787687894</v>
       </c>
       <c r="C319" t="n">
-        <v>3.4345811425523474</v>
+        <v>3.4412092157591476</v>
       </c>
       <c r="D319" t="n">
-        <v>3.5333903848827437</v>
+        <v>3.5572499907472257</v>
       </c>
       <c r="E319" t="n">
-        <v>3.4370126194941917</v>
+        <v>3.423877999180241</v>
       </c>
       <c r="F319" t="n">
-        <v>3.7582233642163176</v>
+        <v>3.708163625376129</v>
       </c>
       <c r="G319" t="n">
-        <v>3.2824409787687894</v>
+        <v>3.7126638271063075</v>
       </c>
       <c r="H319" t="n">
-        <v>3.4345811425523474</v>
+        <v>3.2424324244295413</v>
       </c>
       <c r="I319" t="n">
-        <v>3.5333903848827437</v>
+        <v>3.733050629573284</v>
       </c>
       <c r="J319" t="n">
-        <v>3.4370126194941917</v>
+        <v>3.769852116691973</v>
       </c>
       <c r="K319" t="n">
-        <v>3.7582233642163176</v>
+        <v>3.690271403175797</v>
       </c>
       <c r="L319" t="n">
-        <v>3.2824409787687894</v>
+        <v>3.361796694772955</v>
       </c>
     </row>
     <row r="320">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>0.8353264778624764</v>
+        <v>0.8437641190530065</v>
       </c>
       <c r="C323" t="n">
-        <v>0.9248191426565908</v>
+        <v>0.9307447410652392</v>
       </c>
       <c r="D323" t="n">
-        <v>0.8796329841493229</v>
+        <v>0.8807023630621283</v>
       </c>
       <c r="E323" t="n">
-        <v>0.9151580352436399</v>
+        <v>0.9050459068399835</v>
       </c>
       <c r="F323" t="n">
-        <v>0.9173433360994572</v>
+        <v>0.9094128354785502</v>
       </c>
       <c r="G323" t="n">
-        <v>0.8353264778624764</v>
+        <v>0.9290243259141509</v>
       </c>
       <c r="H323" t="n">
-        <v>0.9248191426565908</v>
+        <v>0.9199551434356935</v>
       </c>
       <c r="I323" t="n">
-        <v>0.8796329841493229</v>
+        <v>0.9193941952647543</v>
       </c>
       <c r="J323" t="n">
-        <v>0.9151580352436399</v>
+        <v>0.8089090561805785</v>
       </c>
       <c r="K323" t="n">
-        <v>0.9173433360994572</v>
+        <v>0.848035141178304</v>
       </c>
       <c r="L323" t="n">
-        <v>0.8353264778624764</v>
+        <v>0.8381358982066655</v>
       </c>
     </row>
     <row r="324">
@@ -12494,34 +12494,34 @@
         <v>4.006060089685593</v>
       </c>
       <c r="C327" t="n">
-        <v>3.517134431983104</v>
+        <v>3.5029142295985207</v>
       </c>
       <c r="D327" t="n">
-        <v>4.057703592910589</v>
+        <v>4.030487285736912</v>
       </c>
       <c r="E327" t="n">
-        <v>3.9444582771761363</v>
+        <v>3.986730490316776</v>
       </c>
       <c r="F327" t="n">
-        <v>3.609793935148232</v>
+        <v>3.6968675343587973</v>
       </c>
       <c r="G327" t="n">
-        <v>4.006060089685593</v>
+        <v>3.9675865252513933</v>
       </c>
       <c r="H327" t="n">
-        <v>3.517134431983104</v>
+        <v>3.717659815540814</v>
       </c>
       <c r="I327" t="n">
-        <v>4.057703592910589</v>
+        <v>3.6989362903524095</v>
       </c>
       <c r="J327" t="n">
-        <v>3.9444582771761363</v>
+        <v>4.032946399012341</v>
       </c>
       <c r="K327" t="n">
-        <v>3.609793935148232</v>
+        <v>3.5461368834446607</v>
       </c>
       <c r="L327" t="n">
-        <v>4.006060089685593</v>
+        <v>3.627880983498218</v>
       </c>
     </row>
     <row r="328">
@@ -12570,34 +12570,34 @@
         <v>3.406006980512931</v>
       </c>
       <c r="C329" t="n">
-        <v>3.3681234916697456</v>
+        <v>3.38695772416336</v>
       </c>
       <c r="D329" t="n">
-        <v>3.6592326140067435</v>
+        <v>3.6702305500855714</v>
       </c>
       <c r="E329" t="n">
-        <v>3.30353447957469</v>
+        <v>3.32740681880802</v>
       </c>
       <c r="F329" t="n">
-        <v>3.678432232361029</v>
+        <v>3.674684716497921</v>
       </c>
       <c r="G329" t="n">
-        <v>3.406006980512931</v>
+        <v>3.6948629698848037</v>
       </c>
       <c r="H329" t="n">
-        <v>3.3681234916697456</v>
+        <v>3.8087298183634957</v>
       </c>
       <c r="I329" t="n">
-        <v>3.6592326140067435</v>
+        <v>3.738197783572002</v>
       </c>
       <c r="J329" t="n">
-        <v>3.30353447957469</v>
+        <v>3.209263598642369</v>
       </c>
       <c r="K329" t="n">
-        <v>3.678432232361029</v>
+        <v>3.7312879920675535</v>
       </c>
       <c r="L329" t="n">
-        <v>3.406006980512931</v>
+        <v>3.6948629698848037</v>
       </c>
     </row>
     <row r="330">
@@ -12646,34 +12646,34 @@
         <v>2.754891339367783</v>
       </c>
       <c r="C331" t="n">
-        <v>2.6364013406839746</v>
+        <v>2.6217408105442948</v>
       </c>
       <c r="D331" t="n">
-        <v>2.6584899562707704</v>
+        <v>2.6393462326663886</v>
       </c>
       <c r="E331" t="n">
-        <v>2.7017734197953636</v>
+        <v>2.6527062534369925</v>
       </c>
       <c r="F331" t="n">
-        <v>2.808302904515882</v>
+        <v>2.7421579752488685</v>
       </c>
       <c r="G331" t="n">
-        <v>2.754891339367783</v>
+        <v>2.9663595713779918</v>
       </c>
       <c r="H331" t="n">
-        <v>2.6364013406839746</v>
+        <v>2.5914899548008763</v>
       </c>
       <c r="I331" t="n">
-        <v>2.6584899562707704</v>
+        <v>2.499476268179656</v>
       </c>
       <c r="J331" t="n">
-        <v>2.7017734197953636</v>
+        <v>2.8619609949816924</v>
       </c>
       <c r="K331" t="n">
-        <v>2.808302904515882</v>
+        <v>2.9114269858520347</v>
       </c>
       <c r="L331" t="n">
-        <v>2.754891339367783</v>
+        <v>2.8584919489217486</v>
       </c>
     </row>
     <row r="332">
@@ -12722,34 +12722,34 @@
         <v>1.50972726446405</v>
       </c>
       <c r="C333" t="n">
-        <v>1.4447927318300668</v>
+        <v>1.4367585122051103</v>
       </c>
       <c r="D333" t="n">
-        <v>1.4568976684963908</v>
+        <v>1.446406582675368</v>
       </c>
       <c r="E333" t="n">
-        <v>1.4806177419706896</v>
+        <v>1.4537281010681102</v>
       </c>
       <c r="F333" t="n">
-        <v>1.5389977097224419</v>
+        <v>1.5027491645644417</v>
       </c>
       <c r="G333" t="n">
-        <v>1.50972726446405</v>
+        <v>1.6256154488260104</v>
       </c>
       <c r="H333" t="n">
-        <v>1.4447927318300668</v>
+        <v>1.4201805292420184</v>
       </c>
       <c r="I333" t="n">
-        <v>1.4568976684963908</v>
+        <v>1.3697554654978394</v>
       </c>
       <c r="J333" t="n">
-        <v>1.4806177419706896</v>
+        <v>1.568403255043842</v>
       </c>
       <c r="K333" t="n">
-        <v>1.5389977097224419</v>
+        <v>1.595511458555718</v>
       </c>
       <c r="L333" t="n">
-        <v>1.50972726446405</v>
+        <v>1.566502158857747</v>
       </c>
     </row>
     <row r="334">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1.3613698677808672</v>
+        <v>1.320528771747441</v>
       </c>
       <c r="C341" t="n">
-        <v>1.41826695799178</v>
+        <v>1.3699092209223143</v>
       </c>
       <c r="D341" t="n">
-        <v>1.3054996064428874</v>
+        <v>1.2625400154321862</v>
       </c>
       <c r="E341" t="n">
-        <v>1.2730157024226645</v>
+        <v>1.246602353425709</v>
       </c>
       <c r="F341" t="n">
-        <v>1.4087600712662318</v>
+        <v>1.3849448090238046</v>
       </c>
       <c r="G341" t="n">
-        <v>1.3613698677808672</v>
+        <v>1.2036616257061576</v>
       </c>
       <c r="H341" t="n">
-        <v>1.41826695799178</v>
+        <v>1.3633310249966604</v>
       </c>
       <c r="I341" t="n">
-        <v>1.3054996064428874</v>
+        <v>1.2774519054978921</v>
       </c>
       <c r="J341" t="n">
-        <v>1.2730157024226645</v>
+        <v>1.3266607210486616</v>
       </c>
       <c r="K341" t="n">
-        <v>1.4087600712662318</v>
+        <v>1.2710181799510898</v>
       </c>
       <c r="L341" t="n">
-        <v>1.3613698677808672</v>
+        <v>1.2703073197817427</v>
       </c>
     </row>
     <row r="342">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>2.0833386561755294</v>
+        <v>2.125426305795237</v>
       </c>
       <c r="C348" t="n">
-        <v>2.17040970884509</v>
+        <v>2.204905456809399</v>
       </c>
       <c r="D348" t="n">
-        <v>1.9978389856372227</v>
+        <v>2.0320918546649556</v>
       </c>
       <c r="E348" t="n">
-        <v>1.9481280477426288</v>
+        <v>2.006439762256083</v>
       </c>
       <c r="F348" t="n">
-        <v>2.1558610802291933</v>
+        <v>2.2291056371899605</v>
       </c>
       <c r="G348" t="n">
-        <v>2.0833386561755294</v>
+        <v>1.9373255148138622</v>
       </c>
       <c r="H348" t="n">
-        <v>2.17040970884509</v>
+        <v>2.1943176748812863</v>
       </c>
       <c r="I348" t="n">
-        <v>1.9978389856372227</v>
+        <v>2.0560929397551635</v>
       </c>
       <c r="J348" t="n">
-        <v>1.9481280477426288</v>
+        <v>2.1352958418700707</v>
       </c>
       <c r="K348" t="n">
-        <v>2.1558610802291933</v>
+        <v>2.0457376867580286</v>
       </c>
       <c r="L348" t="n">
-        <v>2.0833386561755294</v>
+        <v>2.0445935383411236</v>
       </c>
     </row>
     <row r="349">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>2.830469602617608</v>
+        <v>2.8587742986437843</v>
       </c>
       <c r="C351" t="n">
-        <v>2.9487662449414875</v>
+        <v>2.9656765956454674</v>
       </c>
       <c r="D351" t="n">
-        <v>2.7143078745302724</v>
+        <v>2.7332361280933632</v>
       </c>
       <c r="E351" t="n">
-        <v>2.646769503746831</v>
+        <v>2.6987331475454295</v>
       </c>
       <c r="F351" t="n">
-        <v>2.9290001589357377</v>
+        <v>2.998226702654992</v>
       </c>
       <c r="G351" t="n">
-        <v>2.830469602617608</v>
+        <v>2.605772016068325</v>
       </c>
       <c r="H351" t="n">
-        <v>2.9487662449414875</v>
+        <v>2.951435650770925</v>
       </c>
       <c r="I351" t="n">
-        <v>2.7143078745302724</v>
+        <v>2.7655184448259478</v>
       </c>
       <c r="J351" t="n">
-        <v>2.646769503746831</v>
+        <v>2.8720491771908976</v>
       </c>
       <c r="K351" t="n">
-        <v>2.9290001589357377</v>
+        <v>2.7515902596691886</v>
       </c>
       <c r="L351" t="n">
-        <v>2.830469602617608</v>
+        <v>2.7500513391810193</v>
       </c>
     </row>
     <row r="352">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>1.6940789818740414</v>
+        <v>1.71119089078186</v>
       </c>
       <c r="C353" t="n">
-        <v>1.76488131630004</v>
+        <v>1.7751799356392033</v>
       </c>
       <c r="D353" t="n">
-        <v>1.6245544259950682</v>
+        <v>1.6360468774915449</v>
       </c>
       <c r="E353" t="n">
-        <v>1.5841316868466127</v>
+        <v>1.6153942551259188</v>
       </c>
       <c r="F353" t="n">
-        <v>1.753051014068464</v>
+        <v>1.7946636166821934</v>
       </c>
       <c r="G353" t="n">
-        <v>1.6940789818740414</v>
+        <v>1.55975004373929</v>
       </c>
       <c r="H353" t="n">
-        <v>1.76488131630004</v>
+        <v>1.7666556617372713</v>
       </c>
       <c r="I353" t="n">
-        <v>1.6245544259950682</v>
+        <v>1.6553702659634295</v>
       </c>
       <c r="J353" t="n">
-        <v>1.5841316868466127</v>
+        <v>1.7191369015098956</v>
       </c>
       <c r="K353" t="n">
-        <v>1.753051014068464</v>
+        <v>1.6470332022166776</v>
       </c>
       <c r="L353" t="n">
-        <v>1.6940789818740414</v>
+        <v>1.6461120428504967</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>3.685707946410675</v>
+        <v>3.7594221053388885</v>
       </c>
       <c r="C356" t="n">
-        <v>3.2358801501582337</v>
+        <v>3.2872530349120046</v>
       </c>
       <c r="D356" t="n">
-        <v>3.7332216795937923</v>
+        <v>3.782345411218204</v>
       </c>
       <c r="E356" t="n">
-        <v>3.6290322389084384</v>
+        <v>3.7412825563736667</v>
       </c>
       <c r="F356" t="n">
-        <v>3.321129961564078</v>
+        <v>3.469265367477026</v>
       </c>
       <c r="G356" t="n">
-        <v>3.685707946410675</v>
+        <v>3.7233172129091647</v>
       </c>
       <c r="H356" t="n">
-        <v>3.2358801501582337</v>
+        <v>3.488777546462397</v>
       </c>
       <c r="I356" t="n">
-        <v>3.7332216795937923</v>
+        <v>3.47120675798012</v>
       </c>
       <c r="J356" t="n">
-        <v>3.6290322389084384</v>
+        <v>3.784653126180089</v>
       </c>
       <c r="K356" t="n">
-        <v>3.321129961564078</v>
+        <v>3.3278146332612053</v>
       </c>
       <c r="L356" t="n">
-        <v>3.685707946410675</v>
+        <v>3.404526057913474</v>
       </c>
     </row>
     <row r="357">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>4.364099442874246</v>
+        <v>4.408181255428532</v>
       </c>
       <c r="C362" t="n">
-        <v>3.831476331233947</v>
+        <v>3.8545305114237483</v>
       </c>
       <c r="D362" t="n">
-        <v>4.420358554971082</v>
+        <v>4.435060409845947</v>
       </c>
       <c r="E362" t="n">
-        <v>4.296992003236799</v>
+        <v>4.386911385355453</v>
       </c>
       <c r="F362" t="n">
-        <v>3.9324172250515623</v>
+        <v>4.06795250293955</v>
       </c>
       <c r="G362" t="n">
-        <v>4.364099442874246</v>
+        <v>4.365845783226049</v>
       </c>
       <c r="H362" t="n">
-        <v>3.831476331233947</v>
+        <v>4.090831876217088</v>
       </c>
       <c r="I362" t="n">
-        <v>4.420358554971082</v>
+        <v>4.070228916969528</v>
       </c>
       <c r="J362" t="n">
-        <v>4.296992003236799</v>
+        <v>4.437766364525367</v>
       </c>
       <c r="K362" t="n">
-        <v>3.9324172250515623</v>
+        <v>3.9020917781618576</v>
       </c>
       <c r="L362" t="n">
-        <v>4.364099442874246</v>
+        <v>3.992041205162651</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>3.9307389155762005</v>
+        <v>3.8918207084912875</v>
       </c>
       <c r="C364" t="n">
-        <v>3.8201356974013123</v>
+        <v>3.8041294686649314</v>
       </c>
       <c r="D364" t="n">
-        <v>4.332796277501941</v>
+        <v>4.326355903984772</v>
       </c>
       <c r="E364" t="n">
-        <v>4.278123555263162</v>
+        <v>4.326355903984772</v>
       </c>
       <c r="F364" t="n">
-        <v>4.011078519553198</v>
+        <v>3.9680455118740863</v>
       </c>
       <c r="G364" t="n">
-        <v>3.9307389155762005</v>
+        <v>4.122614726277693</v>
       </c>
       <c r="H364" t="n">
-        <v>3.8201356974013123</v>
+        <v>4.29751353129154</v>
       </c>
       <c r="I364" t="n">
-        <v>4.332796277501941</v>
+        <v>3.89609743388077</v>
       </c>
       <c r="J364" t="n">
-        <v>4.278123555263162</v>
+        <v>4.37709711646593</v>
       </c>
       <c r="K364" t="n">
-        <v>4.011078519553198</v>
+        <v>4.302728963991607</v>
       </c>
       <c r="L364" t="n">
-        <v>3.9307389155762005</v>
+        <v>4.45968385584635</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>5.286804223126922</v>
+        <v>5.234972809174699</v>
       </c>
       <c r="C366" t="n">
-        <v>5.234316174697527</v>
+        <v>5.153274555967605</v>
       </c>
       <c r="D366" t="n">
-        <v>5.497738022460003</v>
+        <v>5.399594598285607</v>
       </c>
       <c r="E366" t="n">
-        <v>5.405460679275824</v>
+        <v>5.299602104139651</v>
       </c>
       <c r="F366" t="n">
-        <v>4.808242701245376</v>
+        <v>4.717228247199284</v>
       </c>
       <c r="G366" t="n">
-        <v>5.286804223126922</v>
+        <v>4.80433990485198</v>
       </c>
       <c r="H366" t="n">
-        <v>5.234316174697527</v>
+        <v>5.289806168312748</v>
       </c>
       <c r="I366" t="n">
-        <v>5.497738022460003</v>
+        <v>5.178139573389126</v>
       </c>
       <c r="J366" t="n">
-        <v>5.405460679275824</v>
+        <v>5.238166812832049</v>
       </c>
       <c r="K366" t="n">
-        <v>4.808242701245376</v>
+        <v>4.991485703104213</v>
       </c>
       <c r="L366" t="n">
-        <v>5.286804223126922</v>
+        <v>4.549737896386053</v>
       </c>
     </row>
     <row r="367">
@@ -14546,34 +14546,34 @@
         <v>2.620508226837015</v>
       </c>
       <c r="C381" t="n">
-        <v>2.5913614885176752</v>
+        <v>2.6058521403214026</v>
       </c>
       <c r="D381" t="n">
-        <v>2.815334561490216</v>
+        <v>2.823796136037094</v>
       </c>
       <c r="E381" t="n">
-        <v>2.5416680972455064</v>
+        <v>2.5600349595897995</v>
       </c>
       <c r="F381" t="n">
-        <v>2.830106333285575</v>
+        <v>2.827223075498476</v>
       </c>
       <c r="G381" t="n">
-        <v>2.620508226837015</v>
+        <v>2.842747787956806</v>
       </c>
       <c r="H381" t="n">
-        <v>2.5913614885176752</v>
+        <v>2.9303544825142787</v>
       </c>
       <c r="I381" t="n">
-        <v>2.815334561490216</v>
+        <v>2.8760886579037757</v>
       </c>
       <c r="J381" t="n">
-        <v>2.5416680972455064</v>
+        <v>2.46913811699364</v>
       </c>
       <c r="K381" t="n">
-        <v>2.830106333285575</v>
+        <v>2.8707724135194472</v>
       </c>
       <c r="L381" t="n">
-        <v>2.620508226837015</v>
+        <v>2.842747787956806</v>
       </c>
     </row>
     <row r="382">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>4.1315099539898545</v>
+        <v>4.214974801545205</v>
       </c>
       <c r="C387" t="n">
-        <v>4.08555702079184</v>
+        <v>4.19140111659359</v>
       </c>
       <c r="D387" t="n">
-        <v>4.438674393572864</v>
+        <v>4.541954662154677</v>
       </c>
       <c r="E387" t="n">
-        <v>4.007210103737399</v>
+        <v>4.117706151516283</v>
       </c>
       <c r="F387" t="n">
-        <v>4.461963663030437</v>
+        <v>4.547466746920609</v>
       </c>
       <c r="G387" t="n">
-        <v>4.1315099539898545</v>
+        <v>4.572437579350346</v>
       </c>
       <c r="H387" t="n">
-        <v>4.08555702079184</v>
+        <v>4.713349180475948</v>
       </c>
       <c r="I387" t="n">
-        <v>4.438674393572864</v>
+        <v>4.626064935009403</v>
       </c>
       <c r="J387" t="n">
-        <v>4.007210103737399</v>
+        <v>3.9715024887461516</v>
       </c>
       <c r="K387" t="n">
-        <v>4.461963663030437</v>
+        <v>4.617513984514641</v>
       </c>
       <c r="L387" t="n">
-        <v>4.1315099539898545</v>
+        <v>4.572437579350346</v>
       </c>
     </row>
     <row r="388">
@@ -14847,37 +14847,37 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="n">
-        <v>0.9608169851287047</v>
+        <v>0.9709308481300596</v>
       </c>
       <c r="C389" t="n">
-        <v>0.9501302485058148</v>
+        <v>0.965500586028556</v>
       </c>
       <c r="D389" t="n">
-        <v>1.0322506290181224</v>
+        <v>1.046251543586321</v>
       </c>
       <c r="E389" t="n">
-        <v>0.9319100216452502</v>
+        <v>0.9485247514591078</v>
       </c>
       <c r="F389" t="n">
-        <v>1.0376667422346633</v>
+        <v>1.0475212672237648</v>
       </c>
       <c r="G389" t="n">
-        <v>0.9608169851287047</v>
+        <v>1.053273366026498</v>
       </c>
       <c r="H389" t="n">
-        <v>0.9501302485058148</v>
+        <v>1.0857327345480103</v>
       </c>
       <c r="I389" t="n">
-        <v>1.0322506290181224</v>
+        <v>1.0656265724783922</v>
       </c>
       <c r="J389" t="n">
-        <v>0.9319100216452502</v>
+        <v>0.9148463422213859</v>
       </c>
       <c r="K389" t="n">
-        <v>1.0376667422346633</v>
+        <v>1.063656837899397</v>
       </c>
       <c r="L389" t="n">
-        <v>0.9608169851287047</v>
+        <v>1.053273366026498</v>
       </c>
     </row>
     <row r="390">
@@ -15037,37 +15037,37 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="n">
-        <v>1.7834756228797628</v>
+        <v>1.8016743537254747</v>
       </c>
       <c r="C394" t="n">
-        <v>1.7657690555631858</v>
+        <v>1.7735569875207406</v>
       </c>
       <c r="D394" t="n">
-        <v>1.8546330316421882</v>
+        <v>1.858330780858338</v>
       </c>
       <c r="E394" t="n">
-        <v>1.8235037548300892</v>
+        <v>1.823917247333946</v>
       </c>
       <c r="F394" t="n">
-        <v>1.6220354082808632</v>
+        <v>1.6234867808202025</v>
       </c>
       <c r="G394" t="n">
-        <v>1.7834756228797628</v>
+        <v>1.65346723061897</v>
       </c>
       <c r="H394" t="n">
-        <v>1.7657690555631858</v>
+        <v>1.8205458666232117</v>
       </c>
       <c r="I394" t="n">
-        <v>1.8546330316421882</v>
+        <v>1.7821145609459128</v>
       </c>
       <c r="J394" t="n">
-        <v>1.8235037548300892</v>
+        <v>1.8027736057531203</v>
       </c>
       <c r="K394" t="n">
-        <v>1.6220354082808632</v>
+        <v>1.7178755470342155</v>
       </c>
       <c r="L394" t="n">
-        <v>1.7834756228797628</v>
+        <v>1.5658431061428826</v>
       </c>
     </row>
     <row r="395">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>5.265551255449399</v>
+        <v>5.213928203925386</v>
       </c>
       <c r="C395" t="n">
-        <v>4.933528862695481</v>
+        <v>4.8608866186149715</v>
       </c>
       <c r="D395" t="n">
-        <v>5.316307147920211</v>
+        <v>5.270876450889238</v>
       </c>
       <c r="E395" t="n">
-        <v>5.367318221238534</v>
+        <v>5.264487505261933</v>
       </c>
       <c r="F395" t="n">
-        <v>5.345791230670852</v>
+        <v>5.299819636169731</v>
       </c>
       <c r="G395" t="n">
-        <v>5.265551255449399</v>
+        <v>4.885491782342444</v>
       </c>
       <c r="H395" t="n">
-        <v>4.933528862695481</v>
+        <v>5.361978016164086</v>
       </c>
       <c r="I395" t="n">
-        <v>5.316307147920211</v>
+        <v>5.352066782920636</v>
       </c>
       <c r="J395" t="n">
-        <v>5.367318221238534</v>
+        <v>5.239085880702967</v>
       </c>
       <c r="K395" t="n">
-        <v>5.345791230670852</v>
+        <v>5.463147414329512</v>
       </c>
       <c r="L395" t="n">
-        <v>5.265551255449399</v>
+        <v>5.0502351086199315</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>2.3316890905259466</v>
+        <v>2.355005981431206</v>
       </c>
       <c r="C397" t="n">
-        <v>2.1846630806293708</v>
+        <v>2.195545587543535</v>
       </c>
       <c r="D397" t="n">
-        <v>2.3541647925014275</v>
+        <v>2.3807281350525247</v>
       </c>
       <c r="E397" t="n">
-        <v>2.3767534935475445</v>
+        <v>2.3778424019586137</v>
       </c>
       <c r="F397" t="n">
-        <v>2.36722092105448</v>
+        <v>2.3938010757972625</v>
       </c>
       <c r="G397" t="n">
-        <v>2.3316890905259466</v>
+        <v>2.206659148276624</v>
       </c>
       <c r="H397" t="n">
-        <v>2.1846630806293708</v>
+        <v>2.4218765212114457</v>
       </c>
       <c r="I397" t="n">
-        <v>2.3541647925014275</v>
+        <v>2.417399855507819</v>
       </c>
       <c r="J397" t="n">
-        <v>2.3767534935475445</v>
+        <v>2.3663690990217994</v>
       </c>
       <c r="K397" t="n">
-        <v>2.36722092105448</v>
+        <v>2.467572305368581</v>
       </c>
       <c r="L397" t="n">
-        <v>2.3316890905259466</v>
+        <v>2.281069746890595</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>5.059773050027623</v>
+        <v>5.009676287156063</v>
       </c>
       <c r="C398" t="n">
-        <v>4.740726121536832</v>
+        <v>4.670464854022398</v>
       </c>
       <c r="D398" t="n">
-        <v>5.10854539776389</v>
+        <v>5.064393627182942</v>
       </c>
       <c r="E398" t="n">
-        <v>5.15756295385774</v>
+        <v>5.058254963941483</v>
       </c>
       <c r="F398" t="n">
-        <v>5.136877239971691</v>
+        <v>5.092202983833708</v>
       </c>
       <c r="G398" t="n">
-        <v>5.059773050027623</v>
+        <v>4.6941061280189045</v>
       </c>
       <c r="H398" t="n">
-        <v>4.740726121536832</v>
+        <v>5.15192635364753</v>
       </c>
       <c r="I398" t="n">
-        <v>5.10854539776389</v>
+        <v>5.142403385893812</v>
       </c>
       <c r="J398" t="n">
-        <v>5.15756295385774</v>
+        <v>5.0338484298982085</v>
       </c>
       <c r="K398" t="n">
-        <v>5.136877239971691</v>
+        <v>5.249132512833539</v>
       </c>
       <c r="L398" t="n">
-        <v>5.059773050027623</v>
+        <v>4.852395752049054</v>
       </c>
     </row>
     <row r="399">
@@ -15382,34 +15382,34 @@
         <v>2.468859469011469</v>
       </c>
       <c r="C403" t="n">
-        <v>2.313184101228083</v>
+        <v>2.3016899133984414</v>
       </c>
       <c r="D403" t="n">
-        <v>2.4926573886699295</v>
+        <v>2.4958251680509114</v>
       </c>
       <c r="E403" t="n">
-        <v>2.5165749549942618</v>
+        <v>2.4927999233041387</v>
       </c>
       <c r="F403" t="n">
-        <v>2.506481593079431</v>
+        <v>2.509530124131684</v>
       </c>
       <c r="G403" t="n">
-        <v>2.468859469011469</v>
+        <v>2.3133407626390228</v>
       </c>
       <c r="H403" t="n">
-        <v>2.313184101228083</v>
+        <v>2.538962885578598</v>
       </c>
       <c r="I403" t="n">
-        <v>2.4926573886699295</v>
+        <v>2.5342697940963927</v>
       </c>
       <c r="J403" t="n">
-        <v>2.5165749549942618</v>
+        <v>2.4807719400124886</v>
       </c>
       <c r="K403" t="n">
-        <v>2.506481593079431</v>
+        <v>2.5868678464575874</v>
       </c>
       <c r="L403" t="n">
-        <v>2.468859469011469</v>
+        <v>2.3913487645003464</v>
       </c>
     </row>
     <row r="404">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>1.4405606502638362</v>
+        <v>1.4117494372585593</v>
       </c>
       <c r="C406" t="n">
-        <v>1.5181511886869306</v>
+        <v>1.4938278928150877</v>
       </c>
       <c r="D406" t="n">
-        <v>1.4623737489424578</v>
+        <v>1.4450978494299003</v>
       </c>
       <c r="E406" t="n">
-        <v>1.5681470037367895</v>
+        <v>1.559092218990215</v>
       </c>
       <c r="F406" t="n">
-        <v>1.6332750296053349</v>
+        <v>1.6159647649188738</v>
       </c>
       <c r="G406" t="n">
-        <v>1.4405606502638362</v>
+        <v>1.5572024089163319</v>
       </c>
       <c r="H406" t="n">
-        <v>1.5181511886869306</v>
+        <v>1.56669754570475</v>
       </c>
       <c r="I406" t="n">
-        <v>1.4623737489424578</v>
+        <v>1.437015646562583</v>
       </c>
       <c r="J406" t="n">
-        <v>1.5681470037367895</v>
+        <v>1.4282290028047209</v>
       </c>
       <c r="K406" t="n">
-        <v>1.6332750296053349</v>
+        <v>1.5676534317949653</v>
       </c>
       <c r="L406" t="n">
-        <v>1.4405606502638362</v>
+        <v>1.378424879712792</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>5.147554302809608</v>
+        <v>5.098058588359516</v>
       </c>
       <c r="C407" t="n">
-        <v>5.424808516191019</v>
+        <v>5.394457343142662</v>
       </c>
       <c r="D407" t="n">
-        <v>5.225499032134392</v>
+        <v>5.2184851701532375</v>
       </c>
       <c r="E407" t="n">
-        <v>5.603458525015876</v>
+        <v>5.630137521076155</v>
       </c>
       <c r="F407" t="n">
-        <v>5.8361804515322815</v>
+        <v>5.835513605217896</v>
       </c>
       <c r="G407" t="n">
-        <v>5.147554302809608</v>
+        <v>5.6233131071799916</v>
       </c>
       <c r="H407" t="n">
-        <v>5.424808516191019</v>
+        <v>5.657601602272891</v>
       </c>
       <c r="I407" t="n">
-        <v>5.225499032134392</v>
+        <v>5.1892990110139765</v>
       </c>
       <c r="J407" t="n">
-        <v>5.603458525015876</v>
+        <v>5.1575690003687376</v>
       </c>
       <c r="K407" t="n">
-        <v>5.8361804515322815</v>
+        <v>5.661053463604019</v>
       </c>
       <c r="L407" t="n">
-        <v>5.147554302809608</v>
+        <v>4.977718149528256</v>
       </c>
     </row>
     <row r="408">
@@ -15645,37 +15645,37 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>1.7644378987094742</v>
+        <v>1.782260503746944</v>
       </c>
       <c r="C410" t="n">
-        <v>1.8594729023033236</v>
+        <v>1.885880300352648</v>
       </c>
       <c r="D410" t="n">
-        <v>1.791155175756991</v>
+        <v>1.8243611459055633</v>
       </c>
       <c r="E410" t="n">
-        <v>1.9207091375390177</v>
+        <v>1.9682731299693983</v>
       </c>
       <c r="F410" t="n">
-        <v>2.000479716507384</v>
+        <v>2.0400717719104318</v>
       </c>
       <c r="G410" t="n">
-        <v>1.7644378987094742</v>
+        <v>1.9658873426863481</v>
       </c>
       <c r="H410" t="n">
-        <v>1.8594729023033236</v>
+        <v>1.9778744608172636</v>
       </c>
       <c r="I410" t="n">
-        <v>1.791155175756991</v>
+        <v>1.8141577836278622</v>
       </c>
       <c r="J410" t="n">
-        <v>1.9207091375390177</v>
+        <v>1.803065101231939</v>
       </c>
       <c r="K410" t="n">
-        <v>2.000479716507384</v>
+        <v>1.979081217469478</v>
       </c>
       <c r="L410" t="n">
-        <v>1.7644378987094742</v>
+        <v>1.7401899768168982</v>
       </c>
     </row>
     <row r="411">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>2.3608476106722134</v>
+        <v>2.384694556234559</v>
       </c>
       <c r="C414" t="n">
-        <v>2.4880060452812556</v>
+        <v>2.523339588408172</v>
       </c>
       <c r="D414" t="n">
-        <v>2.396595777115153</v>
+        <v>2.4410259241566825</v>
       </c>
       <c r="E414" t="n">
-        <v>2.569941158865298</v>
+        <v>2.633582581419997</v>
       </c>
       <c r="F414" t="n">
-        <v>2.676675536367136</v>
+        <v>2.7296503729812507</v>
       </c>
       <c r="G414" t="n">
-        <v>2.3608476106722134</v>
+        <v>2.630390357873404</v>
       </c>
       <c r="H414" t="n">
-        <v>2.4880060452812556</v>
+        <v>2.646429323721347</v>
       </c>
       <c r="I414" t="n">
-        <v>2.396595777115153</v>
+        <v>2.427373653667734</v>
       </c>
       <c r="J414" t="n">
-        <v>2.569941158865298</v>
+        <v>2.4125314578899655</v>
       </c>
       <c r="K414" t="n">
-        <v>2.676675536367136</v>
+        <v>2.648043984436313</v>
       </c>
       <c r="L414" t="n">
-        <v>2.3608476106722134</v>
+        <v>2.3284034829952205</v>
       </c>
     </row>
     <row r="415">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>4.666584195893763</v>
+        <v>4.620833370443824</v>
       </c>
       <c r="C416" t="n">
-        <v>4.9179327109943145</v>
+        <v>4.889486473055711</v>
       </c>
       <c r="D416" t="n">
-        <v>4.737246032685212</v>
+        <v>4.72998691550341</v>
       </c>
       <c r="E416" t="n">
-        <v>5.079890265735082</v>
+        <v>5.103104816601985</v>
       </c>
       <c r="F416" t="n">
-        <v>5.290867440609496</v>
+        <v>5.289255808522738</v>
       </c>
       <c r="G416" t="n">
-        <v>4.666584195893763</v>
+        <v>5.096919230673821</v>
       </c>
       <c r="H416" t="n">
-        <v>4.9179327109943145</v>
+        <v>5.1279980069572755</v>
       </c>
       <c r="I416" t="n">
-        <v>4.737246032685212</v>
+        <v>4.70353284955491</v>
       </c>
       <c r="J416" t="n">
-        <v>5.079890265735082</v>
+        <v>4.674773060020746</v>
       </c>
       <c r="K416" t="n">
-        <v>5.290867440609496</v>
+        <v>5.131126742289083</v>
       </c>
       <c r="L416" t="n">
-        <v>4.666584195893763</v>
+        <v>4.511757904572359</v>
       </c>
     </row>
     <row r="417">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>1.4857148470513564</v>
+        <v>1.5010314949591022</v>
       </c>
       <c r="C420" t="n">
-        <v>1.3298500085140652</v>
+        <v>1.3502692764594229</v>
       </c>
       <c r="D420" t="n">
-        <v>1.3520982293281694</v>
+        <v>1.3759455377644794</v>
       </c>
       <c r="E420" t="n">
-        <v>1.479134693117179</v>
+        <v>1.5001162319947854</v>
       </c>
       <c r="F420" t="n">
-        <v>1.460414966088916</v>
+        <v>1.47670505485423</v>
       </c>
       <c r="G420" t="n">
-        <v>1.4857148470513564</v>
+        <v>1.319844753897574</v>
       </c>
       <c r="H420" t="n">
-        <v>1.3298500085140652</v>
+        <v>1.483830290763285</v>
       </c>
       <c r="I420" t="n">
-        <v>1.3520982293281694</v>
+        <v>1.430343384377005</v>
       </c>
       <c r="J420" t="n">
-        <v>1.479134693117179</v>
+        <v>1.351753088620829</v>
       </c>
       <c r="K420" t="n">
-        <v>1.460414966088916</v>
+        <v>1.4910246183260414</v>
       </c>
       <c r="L420" t="n">
-        <v>1.4857148470513564</v>
+        <v>1.4928341154909486</v>
       </c>
     </row>
     <row r="421">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>1.6929783827771019</v>
+        <v>1.7104317681665566</v>
       </c>
       <c r="C423" t="n">
-        <v>1.5153697368095518</v>
+        <v>1.5386375794189413</v>
       </c>
       <c r="D423" t="n">
-        <v>1.5407216789862646</v>
+        <v>1.5678957883048985</v>
       </c>
       <c r="E423" t="n">
-        <v>1.685480269402239</v>
+        <v>1.7093888221286813</v>
       </c>
       <c r="F423" t="n">
-        <v>1.6641490608912417</v>
+        <v>1.6827116862751983</v>
       </c>
       <c r="G423" t="n">
-        <v>1.6929783827771019</v>
+        <v>1.5039687066498828</v>
       </c>
       <c r="H423" t="n">
-        <v>1.5153697368095518</v>
+        <v>1.6908309228771328</v>
       </c>
       <c r="I423" t="n">
-        <v>1.5407216789862646</v>
+        <v>1.6298823657207513</v>
       </c>
       <c r="J423" t="n">
-        <v>1.685480269402239</v>
+        <v>1.5403283896833388</v>
       </c>
       <c r="K423" t="n">
-        <v>1.6641490608912417</v>
+        <v>1.6990288897121129</v>
       </c>
       <c r="L423" t="n">
-        <v>1.6929783827771019</v>
+        <v>1.701090819422221</v>
       </c>
     </row>
     <row r="424">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>2.261735580119897</v>
+        <v>2.2843529359210955</v>
       </c>
       <c r="C425" t="n">
-        <v>2.1644565905344018</v>
+        <v>2.173944660614243</v>
       </c>
       <c r="D425" t="n">
-        <v>2.182591101712513</v>
+        <v>2.188543057704549</v>
       </c>
       <c r="E425" t="n">
-        <v>2.218126350629757</v>
+        <v>2.199621172559816</v>
       </c>
       <c r="F425" t="n">
-        <v>2.3055858894076198</v>
+        <v>2.2737944440874864</v>
       </c>
       <c r="G425" t="n">
-        <v>2.261735580119897</v>
+        <v>2.459702166485457</v>
       </c>
       <c r="H425" t="n">
-        <v>2.1644565905344018</v>
+        <v>2.148860683564367</v>
       </c>
       <c r="I425" t="n">
-        <v>2.182591101712513</v>
+        <v>2.072563033571992</v>
       </c>
       <c r="J425" t="n">
-        <v>2.218126350629757</v>
+        <v>2.3731349792106227</v>
       </c>
       <c r="K425" t="n">
-        <v>2.3055858894076198</v>
+        <v>2.414152125643282</v>
       </c>
       <c r="L425" t="n">
-        <v>2.261735580119897</v>
+        <v>2.370258449948421</v>
       </c>
     </row>
     <row r="426">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>3.851367829869975</v>
+        <v>3.7751031203675995</v>
       </c>
       <c r="C428" t="n">
-        <v>3.4473247349639915</v>
+        <v>3.395935245873941</v>
       </c>
       <c r="D428" t="n">
-        <v>3.504998037539746</v>
+        <v>3.4605111954776726</v>
       </c>
       <c r="E428" t="n">
-        <v>3.83431032167587</v>
+        <v>3.772801228579084</v>
       </c>
       <c r="F428" t="n">
-        <v>3.7857838129695147</v>
+        <v>3.7139219790952502</v>
       </c>
       <c r="G428" t="n">
-        <v>3.851367829869975</v>
+        <v>3.319417391022361</v>
       </c>
       <c r="H428" t="n">
-        <v>3.4473247349639915</v>
+        <v>3.731841989703929</v>
       </c>
       <c r="I428" t="n">
-        <v>3.504998037539746</v>
+        <v>3.5973221026291036</v>
       </c>
       <c r="J428" t="n">
-        <v>3.83431032167587</v>
+        <v>3.399667042268204</v>
       </c>
       <c r="K428" t="n">
-        <v>3.7857838129695147</v>
+        <v>3.749935766231815</v>
       </c>
       <c r="L428" t="n">
-        <v>3.851367829869975</v>
+        <v>3.754486662343241</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>5.4950927093522255</v>
+        <v>5.4412192514174</v>
       </c>
       <c r="C429" t="n">
-        <v>5.440536746982598</v>
+        <v>5.356302266294092</v>
       </c>
       <c r="D429" t="n">
-        <v>5.714336837553669</v>
+        <v>5.612326777810506</v>
       </c>
       <c r="E429" t="n">
-        <v>5.6184239695205385</v>
+        <v>5.508394798796083</v>
       </c>
       <c r="F429" t="n">
-        <v>4.997676913555571</v>
+        <v>4.903076689721569</v>
       </c>
       <c r="G429" t="n">
-        <v>5.4950927093522255</v>
+        <v>4.993620355547687</v>
       </c>
       <c r="H429" t="n">
-        <v>5.440536746982598</v>
+        <v>5.498212924591584</v>
       </c>
       <c r="I429" t="n">
-        <v>5.714336837553669</v>
+        <v>5.382146910843859</v>
       </c>
       <c r="J429" t="n">
-        <v>5.6184239695205385</v>
+        <v>5.444539091810652</v>
       </c>
       <c r="K429" t="n">
-        <v>4.997676913555571</v>
+        <v>5.188139287620701</v>
       </c>
       <c r="L429" t="n">
-        <v>5.4950927093522255</v>
+        <v>4.7289875865891915</v>
       </c>
     </row>
     <row r="430">
@@ -17016,34 +17016,34 @@
         <v>1.5742743792833847</v>
       </c>
       <c r="C446" t="n">
-        <v>1.7302347846444899</v>
+        <v>1.7269021994691807</v>
       </c>
       <c r="D446" t="n">
-        <v>1.5133956707746983</v>
+        <v>1.5008582979662162</v>
       </c>
       <c r="E446" t="n">
-        <v>1.5551930717798519</v>
+        <v>1.583959512494325</v>
       </c>
       <c r="F446" t="n">
-        <v>1.6454171678517242</v>
+        <v>1.6542271592347078</v>
       </c>
       <c r="G446" t="n">
-        <v>1.5742743792833847</v>
+        <v>1.5544015414677161</v>
       </c>
       <c r="H446" t="n">
-        <v>1.7302347846444899</v>
+        <v>1.6465811673754542</v>
       </c>
       <c r="I446" t="n">
-        <v>1.5133956707746983</v>
+        <v>1.716436125370109</v>
       </c>
       <c r="J446" t="n">
-        <v>1.5551930717798519</v>
+        <v>1.7812073009585234</v>
       </c>
       <c r="K446" t="n">
-        <v>1.6454171678517242</v>
+        <v>1.727955830909506</v>
       </c>
       <c r="L446" t="n">
-        <v>1.5742743792833847</v>
+        <v>1.7449905166298407</v>
       </c>
     </row>
     <row r="447">
@@ -17051,37 +17051,37 @@
         <v>446.0</v>
       </c>
       <c r="B447" t="n">
-        <v>0.9612787985911079</v>
+        <v>0.9420532226192857</v>
       </c>
       <c r="C447" t="n">
-        <v>1.056510883331984</v>
+        <v>1.0333864309592682</v>
       </c>
       <c r="D447" t="n">
-        <v>0.9241052203730291</v>
+        <v>0.8981206928728505</v>
       </c>
       <c r="E447" t="n">
-        <v>0.9496274266359263</v>
+        <v>0.947848852067957</v>
       </c>
       <c r="F447" t="n">
-        <v>1.004719799234544</v>
+        <v>0.9898973436960705</v>
       </c>
       <c r="G447" t="n">
-        <v>0.9612787985911079</v>
+        <v>0.9301612226266524</v>
       </c>
       <c r="H447" t="n">
-        <v>1.056510883331984</v>
+        <v>0.9853219460615049</v>
       </c>
       <c r="I447" t="n">
-        <v>0.9241052203730291</v>
+        <v>1.0271234827953715</v>
       </c>
       <c r="J447" t="n">
-        <v>0.9496274266359263</v>
+        <v>1.0658828601306496</v>
       </c>
       <c r="K447" t="n">
-        <v>1.004719799234544</v>
+        <v>1.0340169289886292</v>
       </c>
       <c r="L447" t="n">
-        <v>0.9612787985911079</v>
+        <v>1.044210565365061</v>
       </c>
     </row>
     <row r="448">
@@ -17130,34 +17130,34 @@
         <v>1.4455300189360591</v>
       </c>
       <c r="C449" t="n">
-        <v>1.5887359623736559</v>
+        <v>1.585675916440771</v>
       </c>
       <c r="D449" t="n">
-        <v>1.389629979005648</v>
+        <v>1.378117914151043</v>
       </c>
       <c r="E449" t="n">
-        <v>1.428009183203814</v>
+        <v>1.4544231007126818</v>
       </c>
       <c r="F449" t="n">
-        <v>1.510854741144375</v>
+        <v>1.518944250303806</v>
       </c>
       <c r="G449" t="n">
-        <v>1.4455300189360591</v>
+        <v>1.427282384341972</v>
       </c>
       <c r="H449" t="n">
-        <v>1.5887359623736559</v>
+        <v>1.5119235486379867</v>
       </c>
       <c r="I449" t="n">
-        <v>1.389629979005648</v>
+        <v>1.5760657592218599</v>
       </c>
       <c r="J449" t="n">
-        <v>1.428009183203814</v>
+        <v>1.6355399397757298</v>
       </c>
       <c r="K449" t="n">
-        <v>1.510854741144375</v>
+        <v>1.5866433817669732</v>
       </c>
       <c r="L449" t="n">
-        <v>1.4455300189360591</v>
+        <v>1.602284968707551</v>
       </c>
     </row>
     <row r="450">
@@ -17168,34 +17168,34 @@
         <v>2.015315631091352</v>
       </c>
       <c r="C450" t="n">
-        <v>2.2149691647394407</v>
+        <v>2.210702938289893</v>
       </c>
       <c r="D450" t="n">
-        <v>1.9373814320262193</v>
+        <v>1.9213316482488478</v>
       </c>
       <c r="E450" t="n">
-        <v>1.9908885948773503</v>
+        <v>2.0277141053383225</v>
       </c>
       <c r="F450" t="n">
-        <v>2.106389446258481</v>
+        <v>2.1176676030890516</v>
       </c>
       <c r="G450" t="n">
-        <v>2.015315631091352</v>
+        <v>1.9898753131829257</v>
       </c>
       <c r="H450" t="n">
-        <v>2.2149691647394407</v>
+        <v>2.107879546374208</v>
       </c>
       <c r="I450" t="n">
-        <v>1.9373814320262193</v>
+        <v>2.197304738455363</v>
       </c>
       <c r="J450" t="n">
-        <v>1.9908885948773503</v>
+        <v>2.280221899736304</v>
       </c>
       <c r="K450" t="n">
-        <v>2.106389446258481</v>
+        <v>2.212051750122849</v>
       </c>
       <c r="L450" t="n">
-        <v>2.015315631091352</v>
+        <v>2.23385879269096</v>
       </c>
     </row>
     <row r="451">
@@ -17241,37 +17241,37 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>2.813198577317768</v>
+        <v>2.7856181991087703</v>
       </c>
       <c r="C452" t="n">
-        <v>3.091896875564535</v>
+        <v>3.055687279311543</v>
       </c>
       <c r="D452" t="n">
-        <v>2.7044094752277377</v>
+        <v>2.6557112560017835</v>
       </c>
       <c r="E452" t="n">
-        <v>2.779100641259928</v>
+        <v>2.802755671259889</v>
       </c>
       <c r="F452" t="n">
-        <v>2.9403293965831976</v>
+        <v>2.927091580008945</v>
       </c>
       <c r="G452" t="n">
-        <v>2.813198577317768</v>
+        <v>2.750453973980199</v>
       </c>
       <c r="H452" t="n">
-        <v>3.091896875564535</v>
+        <v>2.913562290354197</v>
       </c>
       <c r="I452" t="n">
-        <v>2.7044094752277377</v>
+        <v>3.0371679621789944</v>
       </c>
       <c r="J452" t="n">
-        <v>2.779100641259928</v>
+        <v>3.1517780758104497</v>
       </c>
       <c r="K452" t="n">
-        <v>2.9403293965831976</v>
+        <v>3.0575516397775115</v>
       </c>
       <c r="L452" t="n">
-        <v>2.813198577317768</v>
+        <v>3.087693863511257</v>
       </c>
     </row>
     <row r="453">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>2.139550808463481</v>
+        <v>2.118367137092555</v>
       </c>
       <c r="C456" t="n">
-        <v>2.368771488504371</v>
+        <v>2.3367420206339204</v>
       </c>
       <c r="D456" t="n">
-        <v>2.2530346065453863</v>
+        <v>2.2111048589793922</v>
       </c>
       <c r="E456" t="n">
-        <v>2.344026157518425</v>
+        <v>2.2722221333158026</v>
       </c>
       <c r="F456" t="n">
-        <v>2.349623444730922</v>
+        <v>2.283185811326134</v>
       </c>
       <c r="G456" t="n">
-        <v>2.139550808463481</v>
+        <v>2.332422719971655</v>
       </c>
       <c r="H456" t="n">
-        <v>2.368771488504371</v>
+        <v>2.309653491358068</v>
       </c>
       <c r="I456" t="n">
-        <v>2.2530346065453863</v>
+        <v>2.3082451662775187</v>
       </c>
       <c r="J456" t="n">
-        <v>2.344026157518425</v>
+        <v>2.0308594817147516</v>
       </c>
       <c r="K456" t="n">
-        <v>2.349623444730922</v>
+        <v>2.1290900307398695</v>
       </c>
       <c r="L456" t="n">
-        <v>2.139550808463481</v>
+        <v>2.10423683952246</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>1.4641013921226853</v>
+        <v>1.4788902950734195</v>
       </c>
       <c r="C458" t="n">
-        <v>1.620957829195189</v>
+        <v>1.631343800559897</v>
       </c>
       <c r="D458" t="n">
-        <v>1.5417587144437241</v>
+        <v>1.5436330464521524</v>
       </c>
       <c r="E458" t="n">
-        <v>1.6040245208569408</v>
+        <v>1.5863006947057552</v>
       </c>
       <c r="F458" t="n">
-        <v>1.6078547622176556</v>
+        <v>1.5939547395235214</v>
       </c>
       <c r="G458" t="n">
-        <v>1.4641013921226853</v>
+        <v>1.6283283781059328</v>
       </c>
       <c r="H458" t="n">
-        <v>1.620957829195189</v>
+        <v>1.6124325540850042</v>
       </c>
       <c r="I458" t="n">
-        <v>1.5417587144437241</v>
+        <v>1.6114493636561764</v>
       </c>
       <c r="J458" t="n">
-        <v>1.6040245208569408</v>
+        <v>1.4177987968072205</v>
       </c>
       <c r="K458" t="n">
-        <v>1.6078547622176556</v>
+        <v>1.4863762417124347</v>
       </c>
       <c r="L458" t="n">
-        <v>1.4641013921226853</v>
+        <v>1.469025546146284</v>
       </c>
     </row>
     <row r="459">
@@ -17548,34 +17548,34 @@
         <v>1.9442008176728567</v>
       </c>
       <c r="C460" t="n">
-        <v>1.7211996135886505</v>
+        <v>1.7305523764115167</v>
       </c>
       <c r="D460" t="n">
-        <v>1.7308496067582744</v>
+        <v>1.7286527582906588</v>
       </c>
       <c r="E460" t="n">
-        <v>1.6933361959154922</v>
+        <v>1.6691072206046238</v>
       </c>
       <c r="F460" t="n">
-        <v>1.748969743276666</v>
+        <v>1.7507533770745802</v>
       </c>
       <c r="G460" t="n">
-        <v>1.9442008176728567</v>
+        <v>1.9204910512324045</v>
       </c>
       <c r="H460" t="n">
-        <v>1.7211996135886505</v>
+        <v>1.8396690078872966</v>
       </c>
       <c r="I460" t="n">
-        <v>1.7308496067582744</v>
+        <v>1.9216627966578625</v>
       </c>
       <c r="J460" t="n">
-        <v>1.6933361959154922</v>
+        <v>1.7615242311897248</v>
       </c>
       <c r="K460" t="n">
-        <v>1.748969743276666</v>
+        <v>1.8905194028772194</v>
       </c>
       <c r="L460" t="n">
-        <v>1.9442008176728567</v>
+        <v>1.7625099748706379</v>
       </c>
     </row>
     <row r="461">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>0.9619588460569223</v>
+        <v>0.9717747526493398</v>
       </c>
       <c r="C461" t="n">
-        <v>1.0650182639460777</v>
+        <v>1.071951532548549</v>
       </c>
       <c r="D461" t="n">
-        <v>1.0129820528988411</v>
+        <v>1.0143170368312657</v>
       </c>
       <c r="E461" t="n">
-        <v>1.0538925688018561</v>
+        <v>1.0423538313561196</v>
       </c>
       <c r="F461" t="n">
-        <v>1.0564091530898683</v>
+        <v>1.0473832831919518</v>
       </c>
       <c r="G461" t="n">
-        <v>0.9619588460569223</v>
+        <v>1.0699701067327896</v>
       </c>
       <c r="H461" t="n">
-        <v>1.0650182639460777</v>
+        <v>1.059525004410086</v>
       </c>
       <c r="I461" t="n">
-        <v>1.0129820528988411</v>
+        <v>1.0588789526786193</v>
       </c>
       <c r="J461" t="n">
-        <v>1.0538925688018561</v>
+        <v>0.9316316968632675</v>
       </c>
       <c r="K461" t="n">
-        <v>1.0564091530898683</v>
+        <v>0.9766937476334226</v>
       </c>
       <c r="L461" t="n">
-        <v>0.9619588460569223</v>
+        <v>0.9652926532126542</v>
       </c>
     </row>
     <row r="462">
@@ -17773,37 +17773,37 @@
         <v>465.0</v>
       </c>
       <c r="B466" t="n">
-        <v>1.0622679964416313</v>
+        <v>1.072997976203668</v>
       </c>
       <c r="C466" t="n">
-        <v>1.1760740306647166</v>
+        <v>1.1836094957985168</v>
       </c>
       <c r="D466" t="n">
-        <v>1.1186116954742453</v>
+        <v>1.1199716032770601</v>
       </c>
       <c r="E466" t="n">
-        <v>1.1637881933460865</v>
+        <v>1.1509288016426178</v>
       </c>
       <c r="F466" t="n">
-        <v>1.1665671967935427</v>
+        <v>1.1564821375638785</v>
       </c>
       <c r="G466" t="n">
-        <v>1.0622679964416313</v>
+        <v>1.1814216782157785</v>
       </c>
       <c r="H466" t="n">
-        <v>1.1760740306647166</v>
+        <v>1.169888580012778</v>
       </c>
       <c r="I466" t="n">
-        <v>1.1186116954742453</v>
+        <v>1.1691752334286065</v>
       </c>
       <c r="J466" t="n">
-        <v>1.1637881933460865</v>
+        <v>1.0286734889707412</v>
       </c>
       <c r="K466" t="n">
-        <v>1.1665671967935427</v>
+        <v>1.078429349727715</v>
       </c>
       <c r="L466" t="n">
-        <v>1.0622679964416313</v>
+        <v>1.0658406801758054</v>
       </c>
     </row>
     <row r="467">
@@ -17849,37 +17849,37 @@
         <v>467.0</v>
       </c>
       <c r="B468" t="n">
-        <v>2.5479973657576633</v>
+        <v>2.5737347128865284</v>
       </c>
       <c r="C468" t="n">
-        <v>2.476301759764299</v>
+        <v>2.515742835854597</v>
       </c>
       <c r="D468" t="n">
-        <v>2.808620399002315</v>
+        <v>2.861101064109339</v>
       </c>
       <c r="E468" t="n">
-        <v>2.773180255244309</v>
+        <v>2.861101064109339</v>
       </c>
       <c r="F468" t="n">
-        <v>2.6000753856150056</v>
+        <v>2.6241436184204403</v>
       </c>
       <c r="G468" t="n">
-        <v>2.5479973657576633</v>
+        <v>2.726363166146826</v>
       </c>
       <c r="H468" t="n">
-        <v>2.476301759764299</v>
+        <v>2.842027057015277</v>
       </c>
       <c r="I468" t="n">
-        <v>2.808620399002315</v>
+        <v>2.5765629923518127</v>
       </c>
       <c r="J468" t="n">
-        <v>2.773180255244309</v>
+        <v>2.8946571885350543</v>
       </c>
       <c r="K468" t="n">
-        <v>2.6000753856150056</v>
+        <v>2.8454761213962736</v>
       </c>
       <c r="L468" t="n">
-        <v>2.5479973657576633</v>
+        <v>2.949273362785769</v>
       </c>
     </row>
     <row r="469">
@@ -17966,34 +17966,34 @@
         <v>2.4199031602344756</v>
       </c>
       <c r="C471" t="n">
-        <v>2.663421710584333</v>
+        <v>2.6659191933019</v>
       </c>
       <c r="D471" t="n">
-        <v>2.616672665079528</v>
+        <v>2.639894355240651</v>
       </c>
       <c r="E471" t="n">
-        <v>2.6262109620654615</v>
+        <v>2.639894355240651</v>
       </c>
       <c r="F471" t="n">
-        <v>2.4465430780692112</v>
+        <v>2.4335134144492163</v>
       </c>
       <c r="G471" t="n">
-        <v>2.4199031602344756</v>
+        <v>2.670856079929944</v>
       </c>
       <c r="H471" t="n">
-        <v>2.663421710584333</v>
+        <v>2.625477458687568</v>
       </c>
       <c r="I471" t="n">
-        <v>2.616672665079528</v>
+        <v>2.7212495916859454</v>
       </c>
       <c r="J471" t="n">
-        <v>2.6262109620654615</v>
+        <v>2.6222950595390464</v>
       </c>
       <c r="K471" t="n">
-        <v>2.4465430780692112</v>
+        <v>2.377355412137085</v>
       </c>
       <c r="L471" t="n">
-        <v>2.4199031602344756</v>
+        <v>2.6096422505963592</v>
       </c>
     </row>
     <row r="472">
@@ -18042,34 +18042,34 @@
         <v>5.313090226412346</v>
       </c>
       <c r="C473" t="n">
-        <v>5.163590376609014</v>
+        <v>5.193374673163231</v>
       </c>
       <c r="D473" t="n">
-        <v>5.856542001252916</v>
+        <v>5.9063150620712355</v>
       </c>
       <c r="E473" t="n">
-        <v>5.782642128374782</v>
+        <v>5.9063150620712355</v>
       </c>
       <c r="F473" t="n">
-        <v>5.4216834384907555</v>
+        <v>5.417151869586126</v>
       </c>
       <c r="G473" t="n">
-        <v>5.313090226412346</v>
+        <v>5.628168831534098</v>
       </c>
       <c r="H473" t="n">
-        <v>5.163590376609014</v>
+        <v>5.866939628324094</v>
       </c>
       <c r="I473" t="n">
-        <v>5.856542001252916</v>
+        <v>5.318928786194489</v>
       </c>
       <c r="J473" t="n">
-        <v>5.782642128374782</v>
+        <v>5.975586660200551</v>
       </c>
       <c r="K473" t="n">
-        <v>5.4216834384907555</v>
+        <v>5.874059705681403</v>
       </c>
       <c r="L473" t="n">
-        <v>5.313090226412346</v>
+        <v>6.088333580138565</v>
       </c>
     </row>
     <row r="474">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>1.396475839440999</v>
+        <v>1.4105816560010094</v>
       </c>
       <c r="C475" t="n">
-        <v>1.357181771515602</v>
+        <v>1.3787981635032278</v>
       </c>
       <c r="D475" t="n">
-        <v>1.5393149859876678</v>
+        <v>1.568077959546693</v>
       </c>
       <c r="E475" t="n">
-        <v>1.5198913770116613</v>
+        <v>1.568077959546693</v>
       </c>
       <c r="F475" t="n">
-        <v>1.4250181360202898</v>
+        <v>1.4382091644187187</v>
       </c>
       <c r="G475" t="n">
-        <v>1.396475839440999</v>
+        <v>1.494232428271677</v>
       </c>
       <c r="H475" t="n">
-        <v>1.357181771515602</v>
+        <v>1.5576241064830483</v>
       </c>
       <c r="I475" t="n">
-        <v>1.5393149859876678</v>
+        <v>1.412131745492284</v>
       </c>
       <c r="J475" t="n">
-        <v>1.5198913770116613</v>
+        <v>1.5864689978011037</v>
       </c>
       <c r="K475" t="n">
-        <v>1.4250181360202898</v>
+        <v>1.559514428326182</v>
       </c>
       <c r="L475" t="n">
-        <v>1.396475839440999</v>
+        <v>1.6164023756015722</v>
       </c>
     </row>
     <row r="476">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>4.210713011044809</v>
+        <v>4.294927271265705</v>
       </c>
       <c r="C482" t="n">
-        <v>4.847567257376954</v>
+        <v>4.917795973153081</v>
       </c>
       <c r="D482" t="n">
-        <v>4.875101549975681</v>
+        <v>4.993547604147127</v>
       </c>
       <c r="E482" t="n">
-        <v>4.448600818384176</v>
+        <v>4.505018210714051</v>
       </c>
       <c r="F482" t="n">
-        <v>4.2233876129255785</v>
+        <v>4.347922618160493</v>
       </c>
       <c r="G482" t="n">
-        <v>4.210713011044809</v>
+        <v>4.888134959562085</v>
       </c>
       <c r="H482" t="n">
-        <v>4.847567257376954</v>
+        <v>4.532733647147908</v>
       </c>
       <c r="I482" t="n">
-        <v>4.875101549975681</v>
+        <v>4.8646625214005335</v>
       </c>
       <c r="J482" t="n">
-        <v>4.448600818384176</v>
+        <v>4.535270151313348</v>
       </c>
       <c r="K482" t="n">
-        <v>4.2233876129255785</v>
+        <v>4.733814876922824</v>
       </c>
       <c r="L482" t="n">
-        <v>4.210713011044809</v>
+        <v>4.941785218071177</v>
       </c>
     </row>
     <row r="483">
@@ -18457,37 +18457,37 @@
         <v>483.0</v>
       </c>
       <c r="B484" t="n">
-        <v>2.0157969914571896</v>
+        <v>2.0361585772294846</v>
       </c>
       <c r="C484" t="n">
-        <v>2.3206785804863435</v>
+        <v>2.331450993080341</v>
       </c>
       <c r="D484" t="n">
-        <v>2.3338600877600113</v>
+        <v>2.3673636694647757</v>
       </c>
       <c r="E484" t="n">
-        <v>2.1296811543249072</v>
+        <v>2.1357594415369925</v>
       </c>
       <c r="F484" t="n">
-        <v>2.021864710694325</v>
+        <v>2.0612828513598065</v>
       </c>
       <c r="G484" t="n">
-        <v>2.0157969914571896</v>
+        <v>2.3173891653896406</v>
       </c>
       <c r="H484" t="n">
-        <v>2.3206785804863435</v>
+        <v>2.1488989011953685</v>
       </c>
       <c r="I484" t="n">
-        <v>2.3338600877600113</v>
+        <v>2.306261245573423</v>
       </c>
       <c r="J484" t="n">
-        <v>2.1296811543249072</v>
+        <v>2.150101418580749</v>
       </c>
       <c r="K484" t="n">
-        <v>2.021864710694325</v>
+        <v>2.2442284015259735</v>
       </c>
       <c r="L484" t="n">
-        <v>2.0157969914571896</v>
+        <v>2.3428239229848895</v>
       </c>
     </row>
     <row r="485">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>3.3176048232487085</v>
+        <v>3.2844287750162215</v>
       </c>
       <c r="C485" t="n">
-        <v>3.819379870324094</v>
+        <v>3.760750667874029</v>
       </c>
       <c r="D485" t="n">
-        <v>3.8410740351105965</v>
+        <v>3.8186796666386424</v>
       </c>
       <c r="E485" t="n">
-        <v>3.505035725081963</v>
+        <v>3.4450901048391565</v>
       </c>
       <c r="F485" t="n">
-        <v>3.327591094035177</v>
+        <v>3.3249555246652123</v>
       </c>
       <c r="G485" t="n">
-        <v>3.3176048232487085</v>
+        <v>3.7380682147423587</v>
       </c>
       <c r="H485" t="n">
-        <v>3.819379870324094</v>
+        <v>3.4662847307748517</v>
       </c>
       <c r="I485" t="n">
-        <v>3.8410740351105965</v>
+        <v>3.720118306292601</v>
       </c>
       <c r="J485" t="n">
-        <v>3.505035725081963</v>
+        <v>3.468224453322579</v>
       </c>
       <c r="K485" t="n">
-        <v>3.327591094035177</v>
+        <v>3.6200561302597496</v>
       </c>
       <c r="L485" t="n">
-        <v>3.3176048232487085</v>
+        <v>3.7790957902296602</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>3.2793330224202073</v>
+        <v>3.3131405793523743</v>
       </c>
       <c r="C486" t="n">
-        <v>3.775319605924583</v>
+        <v>3.7936263807390525</v>
       </c>
       <c r="D486" t="n">
-        <v>3.796763507404247</v>
+        <v>3.8520617829582244</v>
       </c>
       <c r="E486" t="n">
-        <v>3.464601726364852</v>
+        <v>3.4752063776482904</v>
       </c>
       <c r="F486" t="n">
-        <v>3.289204091853012</v>
+        <v>3.354021605554766</v>
       </c>
       <c r="G486" t="n">
-        <v>3.2793330224202073</v>
+        <v>3.77074564224308</v>
       </c>
       <c r="H486" t="n">
-        <v>3.775319605924583</v>
+        <v>3.49658628266736</v>
       </c>
       <c r="I486" t="n">
-        <v>3.796763507404247</v>
+        <v>3.75263881936632</v>
       </c>
       <c r="J486" t="n">
-        <v>3.464601726364852</v>
+        <v>3.4985429618727197</v>
       </c>
       <c r="K486" t="n">
-        <v>3.289204091853012</v>
+        <v>3.651701920263948</v>
       </c>
       <c r="L486" t="n">
-        <v>3.2793330224202073</v>
+        <v>3.812131872400788</v>
       </c>
     </row>
     <row r="487">
@@ -18726,34 +18726,34 @@
         <v>3.4689415464837734</v>
       </c>
       <c r="C491" t="n">
-        <v>3.993605694422941</v>
+        <v>3.9720222697447247</v>
       </c>
       <c r="D491" t="n">
-        <v>4.016289465864553</v>
+        <v>4.03320560612558</v>
       </c>
       <c r="E491" t="n">
-        <v>3.66492234501288</v>
+        <v>3.6386285149379334</v>
       </c>
       <c r="F491" t="n">
-        <v>3.47938335359198</v>
+        <v>3.511745009500151</v>
       </c>
       <c r="G491" t="n">
-        <v>3.4689415464837734</v>
+        <v>3.9480655608511874</v>
       </c>
       <c r="H491" t="n">
-        <v>3.993605694422941</v>
+        <v>3.6610138134196006</v>
       </c>
       <c r="I491" t="n">
-        <v>4.016289465864553</v>
+        <v>3.929107261724534</v>
       </c>
       <c r="J491" t="n">
-        <v>3.66492234501288</v>
+        <v>3.66306250577842</v>
       </c>
       <c r="K491" t="n">
-        <v>3.47938335359198</v>
+        <v>3.823423788752825</v>
       </c>
       <c r="L491" t="n">
-        <v>3.4689415464837734</v>
+        <v>3.9913979851199084</v>
       </c>
     </row>
     <row r="492">
@@ -18840,34 +18840,34 @@
         <v>2.2337080897183093</v>
       </c>
       <c r="C494" t="n">
-        <v>2.271608612443553</v>
+        <v>2.280068068966106</v>
       </c>
       <c r="D494" t="n">
-        <v>2.194549026371857</v>
+        <v>2.1760553596760466</v>
       </c>
       <c r="E494" t="n">
-        <v>2.128557715127876</v>
+        <v>2.1175247387307867</v>
       </c>
       <c r="F494" t="n">
-        <v>1.992161110772541</v>
+        <v>1.9897410700848919</v>
       </c>
       <c r="G494" t="n">
-        <v>2.2337080897183093</v>
+        <v>2.015179671711364</v>
       </c>
       <c r="H494" t="n">
-        <v>2.271608612443553</v>
+        <v>2.2119025183202425</v>
       </c>
       <c r="I494" t="n">
-        <v>2.194549026371857</v>
+        <v>2.199822955466213</v>
       </c>
       <c r="J494" t="n">
-        <v>2.128557715127876</v>
+        <v>2.1077373423483015</v>
       </c>
       <c r="K494" t="n">
-        <v>1.992161110772541</v>
+        <v>1.9212020293168963</v>
       </c>
       <c r="L494" t="n">
-        <v>2.2337080897183093</v>
+        <v>2.2378445855381344</v>
       </c>
     </row>
     <row r="495">
@@ -18913,37 +18913,37 @@
         <v>495.0</v>
       </c>
       <c r="B496" t="n">
-        <v>8.587539304650026</v>
+        <v>8.759290090743026</v>
       </c>
       <c r="C496" t="n">
-        <v>8.733248688104359</v>
+        <v>8.941086677638806</v>
       </c>
       <c r="D496" t="n">
-        <v>8.436991434420776</v>
+        <v>8.533209973431386</v>
       </c>
       <c r="E496" t="n">
-        <v>8.183286403901525</v>
+        <v>8.30368728404743</v>
       </c>
       <c r="F496" t="n">
-        <v>7.658906693627945</v>
+        <v>7.802594850492277</v>
       </c>
       <c r="G496" t="n">
-        <v>8.587539304650026</v>
+        <v>7.9023500925379</v>
       </c>
       <c r="H496" t="n">
-        <v>8.733248688104359</v>
+        <v>8.673781457654734</v>
       </c>
       <c r="I496" t="n">
-        <v>8.436991434420776</v>
+        <v>8.626412512851767</v>
       </c>
       <c r="J496" t="n">
-        <v>8.183286403901525</v>
+        <v>8.265306868745226</v>
       </c>
       <c r="K496" t="n">
-        <v>7.658906693627945</v>
+        <v>7.533825021797317</v>
       </c>
       <c r="L496" t="n">
-        <v>8.587539304650026</v>
+        <v>8.775510995798514</v>
       </c>
     </row>
     <row r="497">
@@ -19372,34 +19372,34 @@
         <v>0.8691247948105252</v>
       </c>
       <c r="C508" t="n">
-        <v>0.8838717011714826</v>
+        <v>0.8871632339586965</v>
       </c>
       <c r="D508" t="n">
-        <v>0.8538881965044997</v>
+        <v>0.8466924020556748</v>
       </c>
       <c r="E508" t="n">
-        <v>0.8282113029532766</v>
+        <v>0.8239184262826824</v>
       </c>
       <c r="F508" t="n">
-        <v>0.7751400572883462</v>
+        <v>0.7741984313991946</v>
       </c>
       <c r="G508" t="n">
-        <v>0.8691247948105252</v>
+        <v>0.7840964657576871</v>
       </c>
       <c r="H508" t="n">
-        <v>0.8838717011714826</v>
+        <v>0.860640354585634</v>
       </c>
       <c r="I508" t="n">
-        <v>0.8538881965044997</v>
+        <v>0.8559402562893373</v>
       </c>
       <c r="J508" t="n">
-        <v>0.8282113029532766</v>
+        <v>0.8201101986490843</v>
       </c>
       <c r="K508" t="n">
-        <v>0.7751400572883462</v>
+        <v>0.747530228862709</v>
       </c>
       <c r="L508" t="n">
-        <v>0.8691247948105252</v>
+        <v>0.8707342849212468</v>
       </c>
     </row>
     <row r="509">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>4.2885050965752045</v>
+        <v>4.375141563172684</v>
       </c>
       <c r="C510" t="n">
-        <v>3.765108011169013</v>
+        <v>3.8256404784353393</v>
       </c>
       <c r="D510" t="n">
-        <v>4.343789695864073</v>
+        <v>4.4018192560488</v>
       </c>
       <c r="E510" t="n">
-        <v>4.222560083023047</v>
+        <v>4.354031112579162</v>
       </c>
       <c r="F510" t="n">
-        <v>3.8643004203375346</v>
+        <v>4.037462854029806</v>
       </c>
       <c r="G510" t="n">
-        <v>4.2885050965752045</v>
+        <v>4.333123398923759</v>
       </c>
       <c r="H510" t="n">
-        <v>3.765108011169013</v>
+        <v>4.060170744464807</v>
       </c>
       <c r="I510" t="n">
-        <v>4.343789695864073</v>
+        <v>4.039722206143624</v>
       </c>
       <c r="J510" t="n">
-        <v>4.222560083023047</v>
+        <v>4.404504929368473</v>
       </c>
       <c r="K510" t="n">
-        <v>3.8643004203375346</v>
+        <v>3.8728452694467776</v>
       </c>
       <c r="L510" t="n">
-        <v>4.2885050965752045</v>
+        <v>3.962120517865863</v>
       </c>
     </row>
     <row r="511">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>0.897638677662916</v>
+        <v>0.8527567437797703</v>
       </c>
       <c r="C517" t="n">
-        <v>0.7946788886679772</v>
+        <v>0.7590472116020607</v>
       </c>
       <c r="D517" t="n">
-        <v>0.7991342962727357</v>
+        <v>0.7582140095231176</v>
       </c>
       <c r="E517" t="n">
-        <v>0.7818143321016237</v>
+        <v>0.7320964097555492</v>
       </c>
       <c r="F517" t="n">
-        <v>0.8075003741159236</v>
+        <v>0.7679076849595128</v>
       </c>
       <c r="G517" t="n">
-        <v>0.897638677662916</v>
+        <v>0.8423572711318058</v>
       </c>
       <c r="H517" t="n">
-        <v>0.7946788886679772</v>
+        <v>0.8069074647732741</v>
       </c>
       <c r="I517" t="n">
-        <v>0.7991342962727357</v>
+        <v>0.8428712169158368</v>
       </c>
       <c r="J517" t="n">
-        <v>0.7818143321016237</v>
+        <v>0.772631949243051</v>
       </c>
       <c r="K517" t="n">
-        <v>0.8075003741159236</v>
+        <v>0.8292112395980507</v>
       </c>
       <c r="L517" t="n">
-        <v>0.897638677662916</v>
+        <v>0.773064311766457</v>
       </c>
     </row>
     <row r="518">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>1.7555836300348857</v>
+        <v>1.7380277937345368</v>
       </c>
       <c r="C518" t="n">
-        <v>1.9322506916054867</v>
+        <v>1.9147219318313968</v>
       </c>
       <c r="D518" t="n">
-        <v>1.8983353431086323</v>
+        <v>1.8960303194474086</v>
       </c>
       <c r="E518" t="n">
-        <v>1.9052551563978934</v>
+        <v>1.8960303194474086</v>
       </c>
       <c r="F518" t="n">
-        <v>1.7749102726975636</v>
+        <v>1.7478029783343703</v>
       </c>
       <c r="G518" t="n">
-        <v>1.7555836300348857</v>
+        <v>1.9182677126357932</v>
       </c>
       <c r="H518" t="n">
-        <v>1.9322506916054867</v>
+        <v>1.8856757865386513</v>
       </c>
       <c r="I518" t="n">
-        <v>1.8983353431086323</v>
+        <v>1.9544614436474637</v>
       </c>
       <c r="J518" t="n">
-        <v>1.9052551563978934</v>
+        <v>1.883390117317759</v>
       </c>
       <c r="K518" t="n">
-        <v>1.7749102726975636</v>
+        <v>1.7074690631335507</v>
       </c>
       <c r="L518" t="n">
-        <v>1.7555836300348857</v>
+        <v>1.874302591018123</v>
       </c>
     </row>
     <row r="519">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>2.1967627516331576</v>
+        <v>2.218730379149489</v>
       </c>
       <c r="C521" t="n">
-        <v>1.9447925157148849</v>
+        <v>1.9749138542434528</v>
       </c>
       <c r="D521" t="n">
-        <v>1.9556960938616723</v>
+        <v>1.9727460018306677</v>
       </c>
       <c r="E521" t="n">
-        <v>1.9133094932198853</v>
+        <v>1.9047923767699941</v>
       </c>
       <c r="F521" t="n">
-        <v>1.9761701316237572</v>
+        <v>1.997967323541962</v>
       </c>
       <c r="G521" t="n">
-        <v>2.1967627516331576</v>
+        <v>2.1916726911751896</v>
       </c>
       <c r="H521" t="n">
-        <v>1.9447925157148849</v>
+        <v>2.0994382258644655</v>
       </c>
       <c r="I521" t="n">
-        <v>1.9556960938616723</v>
+        <v>2.1930098921209256</v>
       </c>
       <c r="J521" t="n">
-        <v>1.9133094932198853</v>
+        <v>2.010259068827443</v>
       </c>
       <c r="K521" t="n">
-        <v>1.9761701316237572</v>
+        <v>2.157468916485684</v>
       </c>
       <c r="L521" t="n">
-        <v>2.1967627516331576</v>
+        <v>2.0113840037781</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>1.404998537667742</v>
+        <v>1.4191904420886283</v>
       </c>
       <c r="C522" t="n">
-        <v>1.2438442151366547</v>
+        <v>1.2632354486285613</v>
       </c>
       <c r="D522" t="n">
-        <v>1.2508178909877192</v>
+        <v>1.2618488018088325</v>
       </c>
       <c r="E522" t="n">
-        <v>1.223708403686852</v>
+        <v>1.2183828917110266</v>
       </c>
       <c r="F522" t="n">
-        <v>1.2639126109771663</v>
+        <v>1.2779813878345543</v>
       </c>
       <c r="G522" t="n">
-        <v>1.404998537667742</v>
+        <v>1.4018832413043392</v>
       </c>
       <c r="H522" t="n">
-        <v>1.2438442151366547</v>
+        <v>1.342886315481242</v>
       </c>
       <c r="I522" t="n">
-        <v>1.2508178909877192</v>
+        <v>1.402738569567374</v>
       </c>
       <c r="J522" t="n">
-        <v>1.223708403686852</v>
+        <v>1.2858436894416696</v>
       </c>
       <c r="K522" t="n">
-        <v>1.2639126109771663</v>
+        <v>1.380005112001712</v>
       </c>
       <c r="L522" t="n">
-        <v>1.404998537667742</v>
+        <v>1.2865632437169194</v>
       </c>
     </row>
     <row r="523">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>7.657225630684906</v>
+        <v>7.963514655912302</v>
       </c>
       <c r="C523" t="n">
-        <v>7.3476201050845</v>
+        <v>7.673932300281134</v>
       </c>
       <c r="D523" t="n">
-        <v>7.580348741627176</v>
+        <v>7.816042159946517</v>
       </c>
       <c r="E523" t="n">
-        <v>7.154340941003611</v>
+        <v>7.361621104678457</v>
       </c>
       <c r="F523" t="n">
-        <v>7.2904440034224995</v>
+        <v>7.725435201625302</v>
       </c>
       <c r="G523" t="n">
-        <v>7.657225630684906</v>
+        <v>6.957136429053816</v>
       </c>
       <c r="H523" t="n">
-        <v>7.3476201050845</v>
+        <v>7.0856118080458455</v>
       </c>
       <c r="I523" t="n">
-        <v>7.580348741627176</v>
+        <v>6.792912178514026</v>
       </c>
       <c r="J523" t="n">
-        <v>7.154340941003611</v>
+        <v>6.949499617472696</v>
       </c>
       <c r="K523" t="n">
-        <v>7.2904440034224995</v>
+        <v>7.720724571137518</v>
       </c>
       <c r="L523" t="n">
-        <v>7.657225630684906</v>
+        <v>7.3958052045288145</v>
       </c>
     </row>
     <row r="524">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>1.5345311218690105</v>
+        <v>1.5498764330877006</v>
       </c>
       <c r="C524" t="n">
-        <v>1.6989330448835576</v>
+        <v>1.7096476453826381</v>
       </c>
       <c r="D524" t="n">
-        <v>1.6159241036555214</v>
+        <v>1.6177268104344347</v>
       </c>
       <c r="E524" t="n">
-        <v>1.681185169783478</v>
+        <v>1.6624424886046343</v>
       </c>
       <c r="F524" t="n">
-        <v>1.6851996626347998</v>
+        <v>1.6704639244882633</v>
       </c>
       <c r="G524" t="n">
-        <v>1.5345311218690105</v>
+        <v>1.706487483866418</v>
       </c>
       <c r="H524" t="n">
-        <v>1.6989330448835576</v>
+        <v>1.6898286667001834</v>
       </c>
       <c r="I524" t="n">
-        <v>1.6159241036555214</v>
+        <v>1.6887982835271016</v>
       </c>
       <c r="J524" t="n">
-        <v>1.681185169783478</v>
+        <v>1.485852567531061</v>
       </c>
       <c r="K524" t="n">
-        <v>1.6851996626347998</v>
+        <v>1.55772170214776</v>
       </c>
       <c r="L524" t="n">
-        <v>1.5345311218690105</v>
+        <v>1.5395381801886001</v>
       </c>
     </row>
     <row r="525">
@@ -20246,34 +20246,34 @@
         <v>2.812697856660646</v>
       </c>
       <c r="C531" t="n">
-        <v>2.698971705667148</v>
+        <v>2.7104179330083653</v>
       </c>
       <c r="D531" t="n">
-        <v>2.7844589785723595</v>
+        <v>2.760610858489379</v>
       </c>
       <c r="E531" t="n">
-        <v>2.6279752486254546</v>
+        <v>2.6001102273735675</v>
       </c>
       <c r="F531" t="n">
-        <v>2.677969438481437</v>
+        <v>2.7286086573909714</v>
       </c>
       <c r="G531" t="n">
-        <v>2.812697856660646</v>
+        <v>2.4572470282285948</v>
       </c>
       <c r="H531" t="n">
-        <v>2.698971705667148</v>
+        <v>2.5026242817075297</v>
       </c>
       <c r="I531" t="n">
-        <v>2.7844589785723595</v>
+        <v>2.399243342988682</v>
       </c>
       <c r="J531" t="n">
-        <v>2.6279752486254546</v>
+        <v>2.4545497212612513</v>
       </c>
       <c r="K531" t="n">
-        <v>2.677969438481437</v>
+        <v>2.726944871883065</v>
       </c>
       <c r="L531" t="n">
-        <v>2.812697856660646</v>
+        <v>2.6121839848205495</v>
       </c>
     </row>
     <row r="532">
@@ -20357,37 +20357,37 @@
         <v>533.0</v>
       </c>
       <c r="B534" t="n">
-        <v>2.096176044566893</v>
+        <v>2.117565596042065</v>
       </c>
       <c r="C534" t="n">
-        <v>2.0114211062471425</v>
+        <v>2.040563209532973</v>
       </c>
       <c r="D534" t="n">
-        <v>2.0751308904868213</v>
+        <v>2.078351417715947</v>
       </c>
       <c r="E534" t="n">
-        <v>1.9585106693342325</v>
+        <v>1.957517033109351</v>
       </c>
       <c r="F534" t="n">
-        <v>1.9957690698039006</v>
+        <v>2.0542582646305094</v>
       </c>
       <c r="G534" t="n">
-        <v>2.096176044566893</v>
+        <v>1.8499611522906882</v>
       </c>
       <c r="H534" t="n">
-        <v>2.0114211062471425</v>
+        <v>1.8841238372667255</v>
       </c>
       <c r="I534" t="n">
-        <v>2.0751308904868213</v>
+        <v>1.8062925413814752</v>
       </c>
       <c r="J534" t="n">
-        <v>1.9585106693342325</v>
+        <v>1.8479304597929196</v>
       </c>
       <c r="K534" t="n">
-        <v>1.9957690698039006</v>
+        <v>2.053005668322522</v>
       </c>
       <c r="L534" t="n">
-        <v>2.096176044566893</v>
+        <v>1.9666068730735482</v>
       </c>
     </row>
     <row r="535">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>5.6985293933320245</v>
+        <v>5.812499981198665</v>
       </c>
       <c r="C537" t="n">
-        <v>6.2719811081749475</v>
+        <v>6.403419572972916</v>
       </c>
       <c r="D537" t="n">
-        <v>6.161893723565087</v>
+        <v>6.340909067086783</v>
       </c>
       <c r="E537" t="n">
-        <v>6.184355062774796</v>
+        <v>6.340909067086783</v>
       </c>
       <c r="F537" t="n">
-        <v>5.76126262882335</v>
+        <v>5.8451912077185</v>
       </c>
       <c r="G537" t="n">
-        <v>5.6985293933320245</v>
+        <v>6.415277755525108</v>
       </c>
       <c r="H537" t="n">
-        <v>6.2719811081749475</v>
+        <v>6.306280321473832</v>
       </c>
       <c r="I537" t="n">
-        <v>6.161893723565087</v>
+        <v>6.536320733999465</v>
       </c>
       <c r="J537" t="n">
-        <v>6.184355062774796</v>
+        <v>6.29863633997287</v>
       </c>
       <c r="K537" t="n">
-        <v>5.76126262882335</v>
+        <v>5.71030217879067</v>
       </c>
       <c r="L537" t="n">
-        <v>5.6985293933320245</v>
+        <v>6.268244854499397</v>
       </c>
     </row>
     <row r="538">
@@ -20854,34 +20854,34 @@
         <v>0.7730621225892338</v>
       </c>
       <c r="C547" t="n">
-        <v>0.7644636991380322</v>
+        <v>0.7687385088586688</v>
       </c>
       <c r="D547" t="n">
-        <v>0.8305367980208295</v>
+        <v>0.8330330018917679</v>
       </c>
       <c r="E547" t="n">
-        <v>0.7498039174429796</v>
+        <v>0.7552222273127112</v>
       </c>
       <c r="F547" t="n">
-        <v>0.8348945394473113</v>
+        <v>0.8340439649816257</v>
       </c>
       <c r="G547" t="n">
-        <v>0.7730621225892338</v>
+        <v>0.83862382740782</v>
       </c>
       <c r="H547" t="n">
-        <v>0.7644636991380322</v>
+        <v>0.8644682100180482</v>
       </c>
       <c r="I547" t="n">
-        <v>0.8305367980208295</v>
+        <v>0.848459539208384</v>
       </c>
       <c r="J547" t="n">
-        <v>0.7498039174429796</v>
+        <v>0.7284072357189385</v>
       </c>
       <c r="K547" t="n">
-        <v>0.8348945394473113</v>
+        <v>0.8468912223735567</v>
       </c>
       <c r="L547" t="n">
-        <v>0.7730621225892338</v>
+        <v>0.83862382740782</v>
       </c>
     </row>
     <row r="548">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>6.698883343245337</v>
+        <v>6.632557765589443</v>
       </c>
       <c r="C549" t="n">
-        <v>6.713025061995401</v>
+        <v>6.668978150336014</v>
       </c>
       <c r="D549" t="n">
-        <v>6.6362469986129575</v>
+        <v>6.592554400849997</v>
       </c>
       <c r="E549" t="n">
-        <v>5.917082890802082</v>
+        <v>5.863978107813358</v>
       </c>
       <c r="F549" t="n">
-        <v>6.77147511137504</v>
+        <v>6.734722855631495</v>
       </c>
       <c r="G549" t="n">
-        <v>6.698883343245337</v>
+        <v>6.384425216946666</v>
       </c>
       <c r="H549" t="n">
-        <v>6.713025061995401</v>
+        <v>5.999152137725971</v>
       </c>
       <c r="I549" t="n">
-        <v>6.6362469986129575</v>
+        <v>6.075850580363886</v>
       </c>
       <c r="J549" t="n">
-        <v>5.917082890802082</v>
+        <v>6.560897475093905</v>
       </c>
       <c r="K549" t="n">
-        <v>6.77147511137504</v>
+        <v>6.113229974334193</v>
       </c>
       <c r="L549" t="n">
-        <v>6.698883343245337</v>
+        <v>6.668978150336014</v>
       </c>
     </row>
     <row r="550">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>2.085737673049536</v>
+        <v>2.1068057303530665</v>
       </c>
       <c r="C550" t="n">
-        <v>1.9986154536527658</v>
+        <v>2.016912235856725</v>
       </c>
       <c r="D550" t="n">
-        <v>1.8862211373659157</v>
+        <v>1.8972827436951372</v>
       </c>
       <c r="E550" t="n">
-        <v>2.171169792118317</v>
+        <v>2.1717324491048666</v>
       </c>
       <c r="F550" t="n">
-        <v>2.1458420197254466</v>
+        <v>2.1315151808913138</v>
       </c>
       <c r="G550" t="n">
-        <v>2.085737673049536</v>
+        <v>2.1068057303530665</v>
       </c>
       <c r="H550" t="n">
-        <v>1.9986154536527658</v>
+        <v>1.852497099511962</v>
       </c>
       <c r="I550" t="n">
-        <v>1.8862211373659157</v>
+        <v>1.8952001065386772</v>
       </c>
       <c r="J550" t="n">
-        <v>2.171169792118317</v>
+        <v>2.1055210929124275</v>
       </c>
       <c r="K550" t="n">
-        <v>2.1458420197254466</v>
+        <v>1.9194300132524327</v>
       </c>
       <c r="L550" t="n">
-        <v>2.085737673049536</v>
+        <v>1.9421004466617366</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>1.9812087603301054</v>
+        <v>1.9613966727268044</v>
       </c>
       <c r="C552" t="n">
-        <v>1.898452761568327</v>
+        <v>1.8777075131309828</v>
       </c>
       <c r="D552" t="n">
-        <v>1.7916912033359118</v>
+        <v>1.766334696688902</v>
       </c>
       <c r="E552" t="n">
-        <v>2.0623593598995913</v>
+        <v>2.0218422317530313</v>
       </c>
       <c r="F552" t="n">
-        <v>2.0383009151618907</v>
+        <v>1.9844007083492554</v>
       </c>
       <c r="G552" t="n">
-        <v>1.9812087603301054</v>
+        <v>1.9613966727268044</v>
       </c>
       <c r="H552" t="n">
-        <v>1.898452761568327</v>
+        <v>1.7246401008269072</v>
       </c>
       <c r="I552" t="n">
-        <v>1.7916912033359118</v>
+        <v>1.7643958005057723</v>
       </c>
       <c r="J552" t="n">
-        <v>2.0623593598995913</v>
+        <v>1.960200699331902</v>
       </c>
       <c r="K552" t="n">
-        <v>2.0383009151618907</v>
+        <v>1.786953389809878</v>
       </c>
       <c r="L552" t="n">
-        <v>1.9812087603301054</v>
+        <v>1.8080591386777773</v>
       </c>
     </row>
     <row r="553">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>2.9347819848441286</v>
+        <v>2.9054341649956874</v>
       </c>
       <c r="C554" t="n">
-        <v>3.070808257587865</v>
+        <v>3.045966976720742</v>
       </c>
       <c r="D554" t="n">
-        <v>3.1591521413630774</v>
+        <v>3.1486798158437166</v>
       </c>
       <c r="E554" t="n">
-        <v>3.0729822051993056</v>
+        <v>3.0306263478731874</v>
       </c>
       <c r="F554" t="n">
-        <v>3.36017198653772</v>
+        <v>3.282260170479357</v>
       </c>
       <c r="G554" t="n">
-        <v>2.9347819848441286</v>
+        <v>3.2862434987222113</v>
       </c>
       <c r="H554" t="n">
-        <v>3.070808257587865</v>
+        <v>2.8700208182146767</v>
       </c>
       <c r="I554" t="n">
-        <v>3.1591521413630774</v>
+        <v>3.3042887622275408</v>
       </c>
       <c r="J554" t="n">
-        <v>3.0729822051993056</v>
+        <v>3.3368633915015735</v>
       </c>
       <c r="K554" t="n">
-        <v>3.36017198653772</v>
+        <v>3.266422970662275</v>
       </c>
       <c r="L554" t="n">
-        <v>2.9347819848441286</v>
+        <v>2.9756754305530895</v>
       </c>
     </row>
     <row r="555">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>1.4245559891722437</v>
+        <v>1.4393951140594545</v>
       </c>
       <c r="C557" t="n">
-        <v>1.3632847386986162</v>
+        <v>1.36982568390293</v>
       </c>
       <c r="D557" t="n">
-        <v>1.3747067752693636</v>
+        <v>1.379024289387425</v>
       </c>
       <c r="E557" t="n">
-        <v>1.3970886806153027</v>
+        <v>1.3860047275434189</v>
       </c>
       <c r="F557" t="n">
-        <v>1.4521751420351836</v>
+        <v>1.432742095903569</v>
       </c>
       <c r="G557" t="n">
-        <v>1.4245559891722437</v>
+        <v>1.5498845317669925</v>
       </c>
       <c r="H557" t="n">
-        <v>1.3632847386986162</v>
+        <v>1.3540200028109175</v>
       </c>
       <c r="I557" t="n">
-        <v>1.3747067752693636</v>
+        <v>1.3059440409548042</v>
       </c>
       <c r="J557" t="n">
-        <v>1.3970886806153027</v>
+        <v>1.4953376250951373</v>
       </c>
       <c r="K557" t="n">
-        <v>1.4521751420351836</v>
+        <v>1.5211829659089136</v>
       </c>
       <c r="L557" t="n">
-        <v>1.4245559891722437</v>
+        <v>1.4935250933710094</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>3.827204501019219</v>
+        <v>4.059156288959778</v>
       </c>
       <c r="C558" t="n">
-        <v>3.662593487216946</v>
+        <v>3.8629674960558025</v>
       </c>
       <c r="D558" t="n">
-        <v>3.6932798695751226</v>
+        <v>3.888907960169748</v>
       </c>
       <c r="E558" t="n">
-        <v>3.7534109767639237</v>
+        <v>3.9085930967690286</v>
       </c>
       <c r="F558" t="n">
-        <v>3.901405969374845</v>
+        <v>4.040394490879288</v>
       </c>
       <c r="G558" t="n">
-        <v>3.827204501019219</v>
+        <v>4.370741211244384</v>
       </c>
       <c r="H558" t="n">
-        <v>3.662593487216946</v>
+        <v>3.818394793828827</v>
       </c>
       <c r="I558" t="n">
-        <v>3.6932798695751226</v>
+        <v>3.6828185083392464</v>
       </c>
       <c r="J558" t="n">
-        <v>3.7534109767639237</v>
+        <v>4.216916582344597</v>
       </c>
       <c r="K558" t="n">
-        <v>3.901405969374845</v>
+        <v>4.289801557901222</v>
       </c>
       <c r="L558" t="n">
-        <v>3.827204501019219</v>
+        <v>4.211805164725439</v>
       </c>
     </row>
     <row r="559">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>2.5543020391535247</v>
+        <v>2.5806350498664474</v>
       </c>
       <c r="C568" t="n">
-        <v>2.2863328015179967</v>
+        <v>2.3214384463558084</v>
       </c>
       <c r="D568" t="n">
-        <v>2.3245828573115355</v>
+        <v>2.3655821302797517</v>
       </c>
       <c r="E568" t="n">
-        <v>2.542989168015856</v>
+        <v>2.5790614921539725</v>
       </c>
       <c r="F568" t="n">
-        <v>2.510805443786683</v>
+        <v>2.5388120340377087</v>
       </c>
       <c r="G568" t="n">
-        <v>2.5543020391535247</v>
+        <v>2.2691313564897833</v>
       </c>
       <c r="H568" t="n">
-        <v>2.2863328015179967</v>
+        <v>2.5510620325135736</v>
       </c>
       <c r="I568" t="n">
-        <v>2.3245828573115355</v>
+        <v>2.4591051443384053</v>
       </c>
       <c r="J568" t="n">
-        <v>2.542989168015856</v>
+        <v>2.323989477219586</v>
       </c>
       <c r="K568" t="n">
-        <v>2.510805443786683</v>
+        <v>2.563430816200671</v>
       </c>
       <c r="L568" t="n">
-        <v>2.5543020391535247</v>
+        <v>2.5665417781105813</v>
       </c>
     </row>
     <row r="569">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>1.3910225722893754</v>
+        <v>1.4053630111789566</v>
       </c>
       <c r="C576" t="n">
-        <v>1.3755508517675321</v>
+        <v>1.3975030389542016</v>
       </c>
       <c r="D576" t="n">
-        <v>1.4944406140278346</v>
+        <v>1.514385110512158</v>
       </c>
       <c r="E576" t="n">
-        <v>1.3491725224628273</v>
+        <v>1.3729315568205946</v>
       </c>
       <c r="F576" t="n">
-        <v>1.5022817907086088</v>
+        <v>1.5162229578088213</v>
       </c>
       <c r="G576" t="n">
-        <v>1.3910225722893754</v>
+        <v>1.5245487689719712</v>
       </c>
       <c r="H576" t="n">
-        <v>1.3755508517675321</v>
+        <v>1.5715317193790117</v>
       </c>
       <c r="I576" t="n">
-        <v>1.4944406140278346</v>
+        <v>1.5424292796699113</v>
       </c>
       <c r="J576" t="n">
-        <v>1.3491725224628273</v>
+        <v>1.3241841195451216</v>
       </c>
       <c r="K576" t="n">
-        <v>1.5022817907086088</v>
+        <v>1.5395782093547683</v>
       </c>
       <c r="L576" t="n">
-        <v>1.3910225722893754</v>
+        <v>1.5245487689719712</v>
       </c>
     </row>
     <row r="577">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>4.5406909300186085</v>
+        <v>4.724153189817341</v>
       </c>
       <c r="C577" t="n">
-        <v>4.4901868602466175</v>
+        <v>4.697731750970518</v>
       </c>
       <c r="D577" t="n">
-        <v>4.8782766554243775</v>
+        <v>5.090632949302019</v>
       </c>
       <c r="E577" t="n">
-        <v>4.404080536015094</v>
+        <v>4.615134269197719</v>
       </c>
       <c r="F577" t="n">
-        <v>4.903872472878632</v>
+        <v>5.0968109062425855</v>
       </c>
       <c r="G577" t="n">
-        <v>4.5406909300186085</v>
+        <v>5.124798271109415</v>
       </c>
       <c r="H577" t="n">
-        <v>4.4901868602466175</v>
+        <v>5.282732308982129</v>
       </c>
       <c r="I577" t="n">
-        <v>4.8782766554243775</v>
+        <v>5.184903931339062</v>
       </c>
       <c r="J577" t="n">
-        <v>4.404080536015094</v>
+        <v>4.451268876791271</v>
       </c>
       <c r="K577" t="n">
-        <v>4.903872472878632</v>
+        <v>5.175320006889266</v>
       </c>
       <c r="L577" t="n">
-        <v>4.5406909300186085</v>
+        <v>5.124798271109415</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>2.456869491360027</v>
+        <v>2.4323007964464267</v>
       </c>
       <c r="C578" t="n">
-        <v>2.301950158581481</v>
+        <v>2.2676066741754792</v>
       </c>
       <c r="D578" t="n">
-        <v>2.4805518367914257</v>
+        <v>2.4588671895820524</v>
       </c>
       <c r="E578" t="n">
-        <v>2.504353247826522</v>
+        <v>2.4558867424163147</v>
       </c>
       <c r="F578" t="n">
-        <v>2.4943089041670055</v>
+        <v>2.472369203774814</v>
       </c>
       <c r="G578" t="n">
-        <v>2.456869491360027</v>
+        <v>2.2790849985770256</v>
       </c>
       <c r="H578" t="n">
-        <v>2.301950158581481</v>
+        <v>2.501366127256089</v>
       </c>
       <c r="I578" t="n">
-        <v>2.4805518367914257</v>
+        <v>2.4967425306953115</v>
       </c>
       <c r="J578" t="n">
-        <v>2.504353247826522</v>
+        <v>2.444036868534413</v>
       </c>
       <c r="K578" t="n">
-        <v>2.4943089041670055</v>
+        <v>2.548561715325083</v>
       </c>
       <c r="L578" t="n">
-        <v>2.456869491360027</v>
+        <v>2.355937864217233</v>
       </c>
     </row>
     <row r="579">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>5.295511498663137</v>
+        <v>5.401421728636399</v>
       </c>
       <c r="C584" t="n">
-        <v>4.7399647553902895</v>
+        <v>4.858907913572323</v>
       </c>
       <c r="D584" t="n">
-        <v>4.819263760431337</v>
+        <v>4.9513032538360235</v>
       </c>
       <c r="E584" t="n">
-        <v>5.272057953125401</v>
+        <v>5.398128179314164</v>
       </c>
       <c r="F584" t="n">
-        <v>5.205335506401023</v>
+        <v>5.313883683895767</v>
       </c>
       <c r="G584" t="n">
-        <v>5.295511498663137</v>
+        <v>4.749426082044573</v>
       </c>
       <c r="H584" t="n">
-        <v>4.7399647553902895</v>
+        <v>5.339523654935734</v>
       </c>
       <c r="I584" t="n">
-        <v>4.819263760431337</v>
+        <v>5.147052451418272</v>
       </c>
       <c r="J584" t="n">
-        <v>5.272057953125401</v>
+        <v>4.864247371989252</v>
       </c>
       <c r="K584" t="n">
-        <v>5.205335506401023</v>
+        <v>5.36541225044549</v>
       </c>
       <c r="L584" t="n">
-        <v>5.295511498663137</v>
+        <v>5.371923677645557</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>6.33783056585726</v>
+        <v>6.464587177174406</v>
       </c>
       <c r="C585" t="n">
-        <v>5.564320456561347</v>
+        <v>5.652659696670101</v>
       </c>
       <c r="D585" t="n">
-        <v>6.4195337270529835</v>
+        <v>6.504005392286621</v>
       </c>
       <c r="E585" t="n">
-        <v>6.2403727540686</v>
+        <v>6.433394964021812</v>
       </c>
       <c r="F585" t="n">
-        <v>5.710913422774989</v>
+        <v>5.965642532387448</v>
       </c>
       <c r="G585" t="n">
-        <v>6.33783056585726</v>
+        <v>6.402502309315861</v>
       </c>
       <c r="H585" t="n">
-        <v>5.564320456561347</v>
+        <v>5.999195078106755</v>
       </c>
       <c r="I585" t="n">
-        <v>6.4195337270529835</v>
+        <v>5.9689808880709885</v>
       </c>
       <c r="J585" t="n">
-        <v>6.2403727540686</v>
+        <v>6.507973668296382</v>
       </c>
       <c r="K585" t="n">
-        <v>5.710913422774989</v>
+        <v>5.722408179608891</v>
       </c>
       <c r="L585" t="n">
-        <v>6.33783056585726</v>
+        <v>5.8543187973194115</v>
       </c>
     </row>
     <row r="586">
@@ -22713,37 +22713,37 @@
         <v>595.0</v>
       </c>
       <c r="B596" t="n">
-        <v>0.8138856968691963</v>
+        <v>0.8223636728782504</v>
       </c>
       <c r="C596" t="n">
-        <v>0.8945158239116668</v>
+        <v>0.9020928334636673</v>
       </c>
       <c r="D596" t="n">
-        <v>0.7824119520435686</v>
+        <v>0.7840128497467721</v>
       </c>
       <c r="E596" t="n">
-        <v>0.8040208324852905</v>
+        <v>0.8274229572218664</v>
       </c>
       <c r="F596" t="n">
-        <v>0.850665878782287</v>
+        <v>0.8641291126534479</v>
       </c>
       <c r="G596" t="n">
-        <v>0.8138856968691963</v>
+        <v>0.8119825727907002</v>
       </c>
       <c r="H596" t="n">
-        <v>0.8945158239116668</v>
+        <v>0.8601350274857562</v>
       </c>
       <c r="I596" t="n">
-        <v>0.7824119520435686</v>
+        <v>0.8966256040848557</v>
       </c>
       <c r="J596" t="n">
-        <v>0.8040208324852905</v>
+        <v>0.9304605330873701</v>
       </c>
       <c r="K596" t="n">
-        <v>0.850665878782287</v>
+        <v>0.9026432255887811</v>
       </c>
       <c r="L596" t="n">
-        <v>0.8138856968691963</v>
+        <v>0.9115417422004012</v>
       </c>
     </row>
     <row r="597">
@@ -22789,37 +22789,37 @@
         <v>597.0</v>
       </c>
       <c r="B598" t="n">
-        <v>0.7630091554119962</v>
+        <v>0.7707949631202818</v>
       </c>
       <c r="C598" t="n">
-        <v>0.6754914675078143</v>
+        <v>0.6860922200158653</v>
       </c>
       <c r="D598" t="n">
-        <v>0.679278644774255</v>
+        <v>0.6853391002423834</v>
       </c>
       <c r="E598" t="n">
-        <v>0.664556361117346</v>
+        <v>0.6617317649776949</v>
       </c>
       <c r="F598" t="n">
-        <v>0.6863899626665071</v>
+        <v>0.6941010786787871</v>
       </c>
       <c r="G598" t="n">
-        <v>0.7630091554119962</v>
+        <v>0.7613950243984506</v>
       </c>
       <c r="H598" t="n">
-        <v>0.6754914675078143</v>
+        <v>0.72935243736052</v>
       </c>
       <c r="I598" t="n">
-        <v>0.679278644774255</v>
+        <v>0.7618595728462203</v>
       </c>
       <c r="J598" t="n">
-        <v>0.664556361117346</v>
+        <v>0.698371275473784</v>
       </c>
       <c r="K598" t="n">
-        <v>0.6863899626665071</v>
+        <v>0.7495125092906537</v>
       </c>
       <c r="L598" t="n">
-        <v>0.7630091554119962</v>
+        <v>0.6987620819466898</v>
       </c>
     </row>
     <row r="599">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>2.2080372992194097</v>
+        <v>2.1424520329059615</v>
       </c>
       <c r="C606" t="n">
-        <v>2.541994499907072</v>
+        <v>2.45315957981137</v>
       </c>
       <c r="D606" t="n">
-        <v>2.55643308665144</v>
+        <v>2.490947003338872</v>
       </c>
       <c r="E606" t="n">
-        <v>2.332782241526582</v>
+        <v>2.2472523547478693</v>
       </c>
       <c r="F606" t="n">
-        <v>2.2146836780232104</v>
+        <v>2.168887867908084</v>
       </c>
       <c r="G606" t="n">
-        <v>2.2080372992194097</v>
+        <v>2.4383636834311844</v>
       </c>
       <c r="H606" t="n">
-        <v>2.541994499907072</v>
+        <v>2.2610777327764695</v>
       </c>
       <c r="I606" t="n">
-        <v>2.55643308665144</v>
+        <v>2.4266548535301706</v>
       </c>
       <c r="J606" t="n">
-        <v>2.332782241526582</v>
+        <v>2.2623430250998298</v>
       </c>
       <c r="K606" t="n">
-        <v>2.2146836780232104</v>
+        <v>2.3613837129016093</v>
       </c>
       <c r="L606" t="n">
-        <v>2.2080372992194097</v>
+        <v>2.4651262100466496</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>4.353027568264944</v>
+        <v>4.484937494576004</v>
       </c>
       <c r="C607" t="n">
-        <v>5.011406347340782</v>
+        <v>5.135362290819254</v>
       </c>
       <c r="D607" t="n">
-        <v>5.039871249707801</v>
+        <v>5.214465220546016</v>
       </c>
       <c r="E607" t="n">
-        <v>4.598955557369436</v>
+        <v>4.704322986364531</v>
       </c>
       <c r="F607" t="n">
-        <v>4.366130548985563</v>
+        <v>4.540277388202759</v>
       </c>
       <c r="G607" t="n">
-        <v>4.353027568264944</v>
+        <v>5.104389055749272</v>
       </c>
       <c r="H607" t="n">
-        <v>5.011406347340782</v>
+        <v>4.733264570747661</v>
       </c>
       <c r="I607" t="n">
-        <v>5.039871249707801</v>
+        <v>5.079878182490915</v>
       </c>
       <c r="J607" t="n">
-        <v>4.598955557369436</v>
+        <v>4.735913291417005</v>
       </c>
       <c r="K607" t="n">
-        <v>4.366130548985563</v>
+        <v>4.943241757766989</v>
       </c>
       <c r="L607" t="n">
-        <v>4.353027568264944</v>
+        <v>5.160412834682836</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>3.498697759624055</v>
+        <v>3.4640571877465893</v>
       </c>
       <c r="C608" t="n">
-        <v>3.400251325010382</v>
+        <v>3.386004396424489</v>
       </c>
       <c r="D608" t="n">
-        <v>3.8565636015490314</v>
+        <v>3.850831111836634</v>
       </c>
       <c r="E608" t="n">
-        <v>3.8079001479547534</v>
+        <v>3.850831111836634</v>
       </c>
       <c r="F608" t="n">
-        <v>3.570206958907061</v>
+        <v>3.531903858449237</v>
       </c>
       <c r="G608" t="n">
-        <v>3.498697759624055</v>
+        <v>3.6694838340608897</v>
       </c>
       <c r="H608" t="n">
-        <v>3.400251325010382</v>
+        <v>3.8251589044243897</v>
       </c>
       <c r="I608" t="n">
-        <v>3.8565636015490314</v>
+        <v>3.4678638434060165</v>
       </c>
       <c r="J608" t="n">
-        <v>3.8079001479547534</v>
+        <v>3.895995181555168</v>
       </c>
       <c r="K608" t="n">
-        <v>3.570206958907061</v>
+        <v>3.829801090816084</v>
       </c>
       <c r="L608" t="n">
-        <v>3.498697759624055</v>
+        <v>3.9695045257906587</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>4.716245032484252</v>
+        <v>4.810569933133937</v>
       </c>
       <c r="C609" t="n">
-        <v>4.796268090490022</v>
+        <v>4.910411950672715</v>
       </c>
       <c r="D609" t="n">
-        <v>4.633564695319994</v>
+        <v>4.686407563403982</v>
       </c>
       <c r="E609" t="n">
-        <v>4.494230824760033</v>
+        <v>4.560354545741126</v>
       </c>
       <c r="F609" t="n">
-        <v>4.206243414632646</v>
+        <v>4.285156422421882</v>
       </c>
       <c r="G609" t="n">
-        <v>4.716245032484252</v>
+        <v>4.339941634817613</v>
       </c>
       <c r="H609" t="n">
-        <v>4.796268090490022</v>
+        <v>4.763608906030537</v>
       </c>
       <c r="I609" t="n">
-        <v>4.633564695319994</v>
+        <v>4.737594055594855</v>
       </c>
       <c r="J609" t="n">
-        <v>4.494230824760033</v>
+        <v>4.539276162680255</v>
       </c>
       <c r="K609" t="n">
-        <v>4.206243414632646</v>
+        <v>4.137549020057171</v>
       </c>
       <c r="L609" t="n">
-        <v>4.716245032484252</v>
+        <v>4.81947839458912</v>
       </c>
     </row>
     <row r="610">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>3.3595230378728136</v>
+        <v>3.393457614012943</v>
       </c>
       <c r="C611" t="n">
-        <v>3.515235932186094</v>
+        <v>3.5575956095361496</v>
       </c>
       <c r="D611" t="n">
-        <v>3.616365526933061</v>
+        <v>3.677561041958626</v>
       </c>
       <c r="E611" t="n">
-        <v>3.5177245078695623</v>
+        <v>3.5396782275511556</v>
       </c>
       <c r="F611" t="n">
-        <v>3.8464782932037402</v>
+        <v>3.833578781745043</v>
       </c>
       <c r="G611" t="n">
-        <v>3.3595230378728136</v>
+        <v>3.838231186441622</v>
       </c>
       <c r="H611" t="n">
-        <v>3.515235932186094</v>
+        <v>3.3520959157443886</v>
       </c>
       <c r="I611" t="n">
-        <v>3.616365526933061</v>
+        <v>3.85930749840105</v>
       </c>
       <c r="J611" t="n">
-        <v>3.5177245078695623</v>
+        <v>3.897353662057207</v>
       </c>
       <c r="K611" t="n">
-        <v>3.8464782932037402</v>
+        <v>3.8150814201625955</v>
       </c>
       <c r="L611" t="n">
-        <v>3.3595230378728136</v>
+        <v>3.47549724867251</v>
       </c>
     </row>
     <row r="612">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>0.9274168514390565</v>
+        <v>0.9369778499075003</v>
       </c>
       <c r="C616" t="n">
-        <v>1.0192942966878296</v>
+        <v>1.0278189946759582</v>
       </c>
       <c r="D616" t="n">
-        <v>0.8915527473744889</v>
+        <v>0.8932820095086317</v>
       </c>
       <c r="E616" t="n">
-        <v>0.9161759099874639</v>
+        <v>0.9427422550273916</v>
       </c>
       <c r="F616" t="n">
-        <v>0.9693276020965612</v>
+        <v>0.9845642076852464</v>
       </c>
       <c r="G616" t="n">
-        <v>0.9274168514390565</v>
+        <v>0.9251499188345438</v>
       </c>
       <c r="H616" t="n">
-        <v>1.0192942966878296</v>
+        <v>0.9800134603015822</v>
       </c>
       <c r="I616" t="n">
-        <v>0.8915527473744889</v>
+        <v>1.021589788550667</v>
       </c>
       <c r="J616" t="n">
-        <v>0.9161759099874639</v>
+        <v>1.060140347231829</v>
       </c>
       <c r="K616" t="n">
-        <v>0.9693276020965612</v>
+        <v>1.0284460958563764</v>
       </c>
       <c r="L616" t="n">
-        <v>0.9274168514390565</v>
+        <v>1.0385848133570417</v>
       </c>
     </row>
     <row r="617">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>3.8363304361662465</v>
+        <v>3.7987193534587336</v>
       </c>
       <c r="C617" t="n">
-        <v>3.396300631244153</v>
+        <v>3.381277666736685</v>
       </c>
       <c r="D617" t="n">
-        <v>3.415342163460839</v>
+        <v>3.377566056261939</v>
       </c>
       <c r="E617" t="n">
-        <v>3.3413200570650425</v>
+        <v>3.2612217031663584</v>
       </c>
       <c r="F617" t="n">
-        <v>3.4510971279691867</v>
+        <v>3.420747834365698</v>
       </c>
       <c r="G617" t="n">
-        <v>3.8363304361662465</v>
+        <v>3.7523935069594305</v>
       </c>
       <c r="H617" t="n">
-        <v>3.396300631244153</v>
+        <v>3.5944775872404815</v>
       </c>
       <c r="I617" t="n">
-        <v>3.415342163460839</v>
+        <v>3.7546829474249184</v>
       </c>
       <c r="J617" t="n">
-        <v>3.3413200570650425</v>
+        <v>3.441792703603771</v>
       </c>
       <c r="K617" t="n">
-        <v>3.4510971279691867</v>
+        <v>3.693832745320527</v>
       </c>
       <c r="L617" t="n">
-        <v>3.8363304361662465</v>
+        <v>3.44371872048649</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>1.7439868533086036</v>
+        <v>1.7265469847755175</v>
       </c>
       <c r="C618" t="n">
-        <v>1.6340187493294354</v>
+        <v>1.6096403338248657</v>
       </c>
       <c r="D618" t="n">
-        <v>1.760797554582365</v>
+        <v>1.7454049015396318</v>
       </c>
       <c r="E618" t="n">
-        <v>1.777692773510915</v>
+        <v>1.7432892577529728</v>
       </c>
       <c r="F618" t="n">
-        <v>1.7705628859227005</v>
+        <v>1.7549891856573556</v>
       </c>
       <c r="G618" t="n">
-        <v>1.7439868533086036</v>
+        <v>1.6177881198284385</v>
       </c>
       <c r="H618" t="n">
-        <v>1.6340187493294354</v>
+        <v>1.7755723926675682</v>
       </c>
       <c r="I618" t="n">
-        <v>1.760797554582365</v>
+        <v>1.7722903739663898</v>
       </c>
       <c r="J618" t="n">
-        <v>1.777692773510915</v>
+        <v>1.7348777306710188</v>
       </c>
       <c r="K618" t="n">
-        <v>1.7705628859227005</v>
+        <v>1.8090737591080508</v>
       </c>
       <c r="L618" t="n">
-        <v>1.7439868533086036</v>
+        <v>1.6723414397288048</v>
       </c>
     </row>
     <row r="619">
@@ -23704,34 +23704,34 @@
         <v>1.0271069185329729</v>
       </c>
       <c r="C622" t="n">
-        <v>0.9855777808664667</v>
+        <v>0.9897575754595564</v>
       </c>
       <c r="D622" t="n">
-        <v>1.016794987236334</v>
+        <v>1.0080864197401027</v>
       </c>
       <c r="E622" t="n">
-        <v>0.959652155031409</v>
+        <v>0.9494767442438242</v>
       </c>
       <c r="F622" t="n">
-        <v>0.9779084274447193</v>
+        <v>0.9964002437512313</v>
       </c>
       <c r="G622" t="n">
-        <v>1.0271069185329729</v>
+        <v>0.8973076924211851</v>
       </c>
       <c r="H622" t="n">
-        <v>0.9855777808664667</v>
+        <v>0.913878007957164</v>
       </c>
       <c r="I622" t="n">
-        <v>1.016794987236334</v>
+        <v>0.8761266095440309</v>
       </c>
       <c r="J622" t="n">
-        <v>0.959652155031409</v>
+        <v>0.8963227225492861</v>
       </c>
       <c r="K622" t="n">
-        <v>0.9779084274447193</v>
+        <v>0.9957926827214963</v>
       </c>
       <c r="L622" t="n">
-        <v>1.0271069185329729</v>
+        <v>0.9538856926764182</v>
       </c>
     </row>
     <row r="623">
